--- a/data/cci/cci-platform-sensor-mapping.xlsx
+++ b/data/cci/cci-platform-sensor-mapping.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony.wilson/git/cci-vocabularies/data/cci/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932623B4-8A50-654B-8703-801E7B54B104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCBE608-2800-DC4A-827D-E73FBC37179C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37180" yWindow="-3120" windowWidth="30240" windowHeight="18880" xr2:uid="{54E3AAF9-AF7E-A243-B98F-39B804095CB4}"/>
+    <workbookView xWindow="-32740" yWindow="-1680" windowWidth="30240" windowHeight="18880" xr2:uid="{FD923E19-B480-F145-8CDB-DB01416B5D33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="219">
   <si>
     <t>Platform URI</t>
   </si>
@@ -664,6 +664,15 @@
   </si>
   <si>
     <t>sens_tansoFts2</t>
+  </si>
+  <si>
+    <t>plat_sentinel6a</t>
+  </si>
+  <si>
+    <t>sens_poseidon4</t>
+  </si>
+  <si>
+    <t>plat_sentinel6b</t>
   </si>
   <si>
     <t>sens_esmrNim5</t>
@@ -882,7 +891,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
@@ -904,6 +913,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0"/>
@@ -923,28 +935,29 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="21">
-    <cellStyle name="Accent" xfId="7" xr:uid="{8E45668C-21AB-924C-AB03-30F1D4A98DB3}"/>
-    <cellStyle name="Accent 1" xfId="8" xr:uid="{919B3410-EE98-1947-8FFE-152581245C91}"/>
-    <cellStyle name="Accent 2" xfId="9" xr:uid="{BF414977-5377-424C-86BB-4001673ADA6F}"/>
-    <cellStyle name="Accent 3" xfId="10" xr:uid="{392124AE-901A-B644-B2A0-271409BA1382}"/>
+  <cellStyles count="22">
+    <cellStyle name="Accent" xfId="7" xr:uid="{AB156A05-28AB-8A42-8C3F-CC423061D79C}"/>
+    <cellStyle name="Accent 1" xfId="8" xr:uid="{92C4B500-84B9-E544-9771-FB126BC08CA3}"/>
+    <cellStyle name="Accent 2" xfId="9" xr:uid="{69558AC5-F3BB-B84A-8412-EF4FD92D025A}"/>
+    <cellStyle name="Accent 3" xfId="10" xr:uid="{33BFF727-7E98-F348-920C-A6604111C250}"/>
     <cellStyle name="Bad" xfId="4" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Error" xfId="11" xr:uid="{322A5780-36A4-8C42-8FFA-2F474897607A}"/>
-    <cellStyle name="Excel_BuiltIn_20% - Accent1" xfId="12" xr:uid="{2A9D54C1-814B-9543-870F-D6E7C9B4FF0F}"/>
-    <cellStyle name="Footnote" xfId="13" xr:uid="{9A31F588-CC97-DF4C-8D03-031F4AB5AFD5}"/>
+    <cellStyle name="Error" xfId="11" xr:uid="{098284C8-D2BA-7D4F-9313-4E088F39FFDE}"/>
+    <cellStyle name="Excel_BuiltIn_20% - Accent1" xfId="12" xr:uid="{D3381A8F-3ACB-F14E-B54B-03A413867CE2}"/>
+    <cellStyle name="Footnote" xfId="13" xr:uid="{DBA78436-28CB-6742-AC28-452C61D9120F}"/>
     <cellStyle name="Good" xfId="3" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading" xfId="14" xr:uid="{B3D6595E-1DFF-184B-B9B9-0095EC4C6A0E}"/>
+    <cellStyle name="Heading" xfId="14" xr:uid="{6192A54B-A534-0242-BEAB-5F87D66B091E}"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="15" xr:uid="{D8E64C6D-213E-0841-A752-6D2FFFCCF1E8}"/>
+    <cellStyle name="Heading1" xfId="15" xr:uid="{0B1E7637-2568-1D4D-B088-62F6FD9D425A}"/>
+    <cellStyle name="Hyperlink" xfId="16" xr:uid="{56156A54-1912-FE4B-9538-65E799BF3E5E}"/>
     <cellStyle name="Neutral" xfId="5" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="6" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="16" xr:uid="{360316E6-4A3A-8740-AD77-BB24348C42B2}"/>
-    <cellStyle name="Result2" xfId="17" xr:uid="{D4DCBC0E-3CB9-8244-AE27-272541593FED}"/>
-    <cellStyle name="Status" xfId="18" xr:uid="{65990702-0D4D-694E-8BDC-F8FE9537E069}"/>
-    <cellStyle name="Text" xfId="19" xr:uid="{50CA093C-E4B2-8F49-82B0-E23EF0C94974}"/>
-    <cellStyle name="Warning" xfId="20" xr:uid="{1793453C-8CCB-C24C-AA4A-3C9A57B26CAC}"/>
+    <cellStyle name="Result" xfId="17" xr:uid="{6C2390C6-3C0D-FE40-BEF2-9E6AA48B39B6}"/>
+    <cellStyle name="Result2" xfId="18" xr:uid="{06F20BBB-16FF-924E-8270-F416322667ED}"/>
+    <cellStyle name="Status" xfId="19" xr:uid="{933F012E-5216-E449-8CFD-808A00C38608}"/>
+    <cellStyle name="Text" xfId="20" xr:uid="{153CC8B1-E25A-5544-9CF3-2C0D83F11242}"/>
+    <cellStyle name="Warning" xfId="21" xr:uid="{3EE4EBFC-C3F3-3440-A6E0-48CFC12C4DC3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -960,1036 +973,1036 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{51F36EEA-4A71-174C-82E7-9E8B451DAAB8}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:AMJ1048562" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2EC9E5EA-79EF-D145-B6CF-A73ADCB4EB68}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:AMJ1048562" headerRowCount="0" totalsRowShown="0">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AMJ1048562">
     <sortCondition ref="A1:A1048562"/>
     <sortCondition ref="C1:C1048562"/>
   </sortState>
   <tableColumns count="1024">
-    <tableColumn id="1" xr3:uid="{73E1E5F8-450C-7740-BDE4-5CF6A5E32287}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{A4393ACC-C50D-0E45-905C-B5F50EA1C59E}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{898BC4EA-00AD-C645-8D37-8AD81185B97D}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{2983E68C-83DB-5043-91EB-4B423A72E8EA}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{BD7DDB38-3232-C245-8190-E7AB16563B66}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{468C2C22-74F5-004F-BB41-AB0F96A100C0}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{2B6E0DC5-F7F1-9148-A681-8F83B02689BD}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{28AA13D9-8478-D74F-BB4C-00E4A58A0D46}" name="Column8"/>
-    <tableColumn id="9" xr3:uid="{4B15E704-F85A-3644-9B80-454928E9C9C6}" name="Column9"/>
-    <tableColumn id="10" xr3:uid="{C689BAA6-1786-EE48-83F9-7383867367FA}" name="Column10"/>
-    <tableColumn id="11" xr3:uid="{8CBE10EE-584C-E246-A9E5-B03348B159E6}" name="Column11"/>
-    <tableColumn id="12" xr3:uid="{2568850E-7A8C-9B49-BA03-20BA23EC958E}" name="Column12"/>
-    <tableColumn id="13" xr3:uid="{E7815A1A-7790-734F-9C17-734BA9660B38}" name="Column13"/>
-    <tableColumn id="14" xr3:uid="{C8E89079-82D1-E047-A87F-E446383BED8C}" name="Column14"/>
-    <tableColumn id="15" xr3:uid="{8BABABAD-5CDC-7B45-939E-CFAA025084AE}" name="Column15"/>
-    <tableColumn id="16" xr3:uid="{339D6ADA-C8D4-2E41-87D8-177DBA1E0959}" name="Column16"/>
-    <tableColumn id="17" xr3:uid="{8A07C53F-C293-994E-8370-8BC159281536}" name="Column17"/>
-    <tableColumn id="18" xr3:uid="{58751EFA-7092-FE49-BC34-3D3E32DDA96F}" name="Column18"/>
-    <tableColumn id="19" xr3:uid="{61210652-B9B1-9B41-BE57-3B0D658E90B9}" name="Column19"/>
-    <tableColumn id="20" xr3:uid="{E49F03A3-E19F-B44B-B626-C74F996EE9BE}" name="Column20"/>
-    <tableColumn id="21" xr3:uid="{A4AB6BF2-5A12-3446-A941-6A9CCB3E7A87}" name="Column21"/>
-    <tableColumn id="22" xr3:uid="{6EEDF903-43BA-ED4C-9A89-9925105C7414}" name="Column22"/>
-    <tableColumn id="23" xr3:uid="{812E0B9C-8CCE-E148-B507-90440E66DF2A}" name="Column23"/>
-    <tableColumn id="24" xr3:uid="{CC178A2F-54A3-BB4C-92E5-6A5B1E995DCF}" name="Column24"/>
-    <tableColumn id="25" xr3:uid="{3A6C73BB-3FE3-DB4D-AA5F-C462B2DB9692}" name="Column25"/>
-    <tableColumn id="26" xr3:uid="{3B6EEE98-B731-0B40-A590-FF6D578AB233}" name="Column26"/>
-    <tableColumn id="27" xr3:uid="{F871901B-A2E4-0441-8A0E-63C8A2A0AD6A}" name="Column27"/>
-    <tableColumn id="28" xr3:uid="{27821564-B870-E045-835B-AF505EB71FE0}" name="Column28"/>
-    <tableColumn id="29" xr3:uid="{F0BB71EC-7692-3F48-8F18-1A92F0C4E451}" name="Column29"/>
-    <tableColumn id="30" xr3:uid="{49678BD8-0CB9-7340-87C3-DD2CE48A1CB9}" name="Column30"/>
-    <tableColumn id="31" xr3:uid="{FEDEBBB1-9D16-4E43-BC4D-92053AB09004}" name="Column31"/>
-    <tableColumn id="32" xr3:uid="{4C91902D-51DA-8F4B-A53A-1627C72C3711}" name="Column32"/>
-    <tableColumn id="33" xr3:uid="{B48267E6-9AA6-6F49-88C3-9A9A4FC72406}" name="Column33"/>
-    <tableColumn id="34" xr3:uid="{632B8ACA-D736-C44A-B0AF-74499431A8EA}" name="Column34"/>
-    <tableColumn id="35" xr3:uid="{F242AF41-D4A0-E941-9646-3B6FB907F1E0}" name="Column35"/>
-    <tableColumn id="36" xr3:uid="{40334EAD-1588-874A-A217-ADD9CABBF21C}" name="Column36"/>
-    <tableColumn id="37" xr3:uid="{B6DCA493-46D7-8046-AE2C-4D567F6243B6}" name="Column37"/>
-    <tableColumn id="38" xr3:uid="{7B9B0B17-2FCD-B24A-8DC0-7DB0FA73DEF2}" name="Column38"/>
-    <tableColumn id="39" xr3:uid="{9FD68918-EED3-E44B-BF2D-58C74A4F9BA7}" name="Column39"/>
-    <tableColumn id="40" xr3:uid="{FC789960-6FE2-7F41-B8D4-AF6A6514D726}" name="Column40"/>
-    <tableColumn id="41" xr3:uid="{BD7C520D-9586-2F43-90A8-16BDB9BC9A5E}" name="Column41"/>
-    <tableColumn id="42" xr3:uid="{9912E04F-9AE4-D743-96D3-C59483F091A6}" name="Column42"/>
-    <tableColumn id="43" xr3:uid="{60A9256D-4308-1D4E-965E-8BA24F812FD9}" name="Column43"/>
-    <tableColumn id="44" xr3:uid="{4BBA08CE-A6F5-CB4A-84A3-64718F37B573}" name="Column44"/>
-    <tableColumn id="45" xr3:uid="{72A16075-D9A6-A74D-ABB6-251DC4264C06}" name="Column45"/>
-    <tableColumn id="46" xr3:uid="{88FC4AB2-6023-3549-9E55-11127A35C253}" name="Column46"/>
-    <tableColumn id="47" xr3:uid="{91CA82F0-E52F-C64A-A100-10CF44844B68}" name="Column47"/>
-    <tableColumn id="48" xr3:uid="{88E7CD82-90D4-C64F-AFEA-FE6B009E445A}" name="Column48"/>
-    <tableColumn id="49" xr3:uid="{8502C906-C79E-724B-B77A-112610DDB8B6}" name="Column49"/>
-    <tableColumn id="50" xr3:uid="{2C2CAF91-CE5F-B947-8EBB-000BB1EA8E53}" name="Column50"/>
-    <tableColumn id="51" xr3:uid="{95153B72-8ABA-7D41-BFF2-7545F003137D}" name="Column51"/>
-    <tableColumn id="52" xr3:uid="{0631D741-325C-D44D-9FB8-95566C154AA0}" name="Column52"/>
-    <tableColumn id="53" xr3:uid="{5CBDF9D4-FD6D-3748-928E-394ABBA59A4A}" name="Column53"/>
-    <tableColumn id="54" xr3:uid="{4036B805-02F4-1D49-B35A-339459127DDB}" name="Column54"/>
-    <tableColumn id="55" xr3:uid="{40724A36-9670-BF46-B731-FB42FB747E7E}" name="Column55"/>
-    <tableColumn id="56" xr3:uid="{CA362D54-BAB0-8341-905D-EEF6DDC056F7}" name="Column56"/>
-    <tableColumn id="57" xr3:uid="{870DF594-5297-364E-BAA7-428160B377BF}" name="Column57"/>
-    <tableColumn id="58" xr3:uid="{C2E16D43-43FC-7F47-B2F9-3891F4E4B18C}" name="Column58"/>
-    <tableColumn id="59" xr3:uid="{196771EA-9D96-5849-A76B-2A6BBB240218}" name="Column59"/>
-    <tableColumn id="60" xr3:uid="{A7290D50-4F1A-894A-8916-7BB6E69D208E}" name="Column60"/>
-    <tableColumn id="61" xr3:uid="{7FD3C27D-DC65-2644-AB92-43E9C9EAB5C8}" name="Column61"/>
-    <tableColumn id="62" xr3:uid="{D9E8C8A7-1368-A345-98D0-1D6F58D2EA50}" name="Column62"/>
-    <tableColumn id="63" xr3:uid="{B9FC693E-A18F-9F42-AD5C-3592FE202D9C}" name="Column63"/>
-    <tableColumn id="64" xr3:uid="{EE7C7624-29AF-AA4F-962E-6F469470626C}" name="Column64"/>
-    <tableColumn id="65" xr3:uid="{9300F9AF-0A0F-EF40-8B96-49BEB4A573F8}" name="Column65"/>
-    <tableColumn id="66" xr3:uid="{5F4C419A-3F6C-A44F-B617-320A24BE6940}" name="Column66"/>
-    <tableColumn id="67" xr3:uid="{3289A9AA-2FA5-B242-A204-21BB673FC2BD}" name="Column67"/>
-    <tableColumn id="68" xr3:uid="{86097665-E185-E54E-8A16-188F17439FB7}" name="Column68"/>
-    <tableColumn id="69" xr3:uid="{BE9A5E43-C665-6149-BBC8-B847ACE03B9A}" name="Column69"/>
-    <tableColumn id="70" xr3:uid="{41E2F0F9-DD3D-FB45-990E-6827BDA5D7A3}" name="Column70"/>
-    <tableColumn id="71" xr3:uid="{0BE6A307-1FD4-5E4B-A2F3-4C34ACEAB1C2}" name="Column71"/>
-    <tableColumn id="72" xr3:uid="{5F006376-34EF-644C-B768-C48E095C05BC}" name="Column72"/>
-    <tableColumn id="73" xr3:uid="{556671AB-E837-F249-951A-23E1469F8AAF}" name="Column73"/>
-    <tableColumn id="74" xr3:uid="{7FD0EB5E-C86C-324A-98DC-A123510F2C50}" name="Column74"/>
-    <tableColumn id="75" xr3:uid="{C7B3539C-89A5-EE4D-800B-485E3FAEA02C}" name="Column75"/>
-    <tableColumn id="76" xr3:uid="{713DF39D-0195-3F43-ACA3-16D833F81003}" name="Column76"/>
-    <tableColumn id="77" xr3:uid="{E9D73DCB-B2C4-E740-B541-51CF1811BA61}" name="Column77"/>
-    <tableColumn id="78" xr3:uid="{C2E841C7-7E64-F140-8834-C1C540AD3974}" name="Column78"/>
-    <tableColumn id="79" xr3:uid="{F636A61E-7D38-C64F-897F-677881DE2966}" name="Column79"/>
-    <tableColumn id="80" xr3:uid="{F067C045-245F-FC48-9C05-1361B215C970}" name="Column80"/>
-    <tableColumn id="81" xr3:uid="{64FFD82C-4DF1-814C-A9F6-D0C9E6EC0B60}" name="Column81"/>
-    <tableColumn id="82" xr3:uid="{86AD5C42-176A-8441-9B13-C63E010515FC}" name="Column82"/>
-    <tableColumn id="83" xr3:uid="{FF8FB93F-1F0D-0E4A-AC18-ABCB777D02F3}" name="Column83"/>
-    <tableColumn id="84" xr3:uid="{6400EF8C-9CD6-0F49-9E23-467B7AFC01A4}" name="Column84"/>
-    <tableColumn id="85" xr3:uid="{26E7928D-D5C8-4446-BABB-37F6EBC3878B}" name="Column85"/>
-    <tableColumn id="86" xr3:uid="{55673737-1D8B-A848-B0A8-BEF363EF0540}" name="Column86"/>
-    <tableColumn id="87" xr3:uid="{CEEA895A-269D-7649-8E07-06FF70A1585D}" name="Column87"/>
-    <tableColumn id="88" xr3:uid="{B723BB1D-5956-7548-A110-58ADB7DC2D55}" name="Column88"/>
-    <tableColumn id="89" xr3:uid="{AFAEC190-78A8-D141-8274-3C341425169A}" name="Column89"/>
-    <tableColumn id="90" xr3:uid="{A4655EE0-F86E-7A47-A7AA-0D13247993EF}" name="Column90"/>
-    <tableColumn id="91" xr3:uid="{2B4ED9E9-5C5F-3341-9CBF-C34CD39DF961}" name="Column91"/>
-    <tableColumn id="92" xr3:uid="{363F42A1-B62A-8C40-93D1-1B625FE84E57}" name="Column92"/>
-    <tableColumn id="93" xr3:uid="{407223F6-0218-B349-B8FC-C92D8508744C}" name="Column93"/>
-    <tableColumn id="94" xr3:uid="{76B5EE29-DD63-E846-B9DE-EBD2F6E34F81}" name="Column94"/>
-    <tableColumn id="95" xr3:uid="{0DFA064C-62E4-4040-B5CC-071082F79D70}" name="Column95"/>
-    <tableColumn id="96" xr3:uid="{6C26AFE2-8E1A-D14B-9B57-B728055ED834}" name="Column96"/>
-    <tableColumn id="97" xr3:uid="{25A3A0B3-5873-F84E-8EC8-ED1C6983EA59}" name="Column97"/>
-    <tableColumn id="98" xr3:uid="{B7FF46C0-C3E2-AC40-AD50-64A721294B12}" name="Column98"/>
-    <tableColumn id="99" xr3:uid="{C4126828-BA38-9C44-8D1D-BA96588B226B}" name="Column99"/>
-    <tableColumn id="100" xr3:uid="{D8ED2E09-8902-DB48-A16F-3071DDA17AEF}" name="Column100"/>
-    <tableColumn id="101" xr3:uid="{AEC5819F-01CD-C249-9744-9F315A4ACB91}" name="Column101"/>
-    <tableColumn id="102" xr3:uid="{48D4EC22-2FCC-DE43-9296-0DEDDBB1F15B}" name="Column102"/>
-    <tableColumn id="103" xr3:uid="{1ED6FAC1-96F4-364D-B6A6-6C1BBB49322F}" name="Column103"/>
-    <tableColumn id="104" xr3:uid="{7E4E34DB-6CC3-3A4D-8AC3-4F1F905EAC5B}" name="Column104"/>
-    <tableColumn id="105" xr3:uid="{B445EC81-1C8D-9F4A-9214-B453BCF568A4}" name="Column105"/>
-    <tableColumn id="106" xr3:uid="{D9239FEC-32DC-F345-AAE9-AE68463F453E}" name="Column106"/>
-    <tableColumn id="107" xr3:uid="{B66947FC-85E2-0243-AF8F-17E64361C678}" name="Column107"/>
-    <tableColumn id="108" xr3:uid="{CE0A2B7B-0D0E-D644-9342-01B4AE76282D}" name="Column108"/>
-    <tableColumn id="109" xr3:uid="{91D826D1-1D24-4745-AE1B-EFCD2C7ECC9C}" name="Column109"/>
-    <tableColumn id="110" xr3:uid="{E3E4A41E-C571-6445-9CD8-5F43DDA785EC}" name="Column110"/>
-    <tableColumn id="111" xr3:uid="{8FF002E0-93E0-D740-9DEF-D9D765526DBB}" name="Column111"/>
-    <tableColumn id="112" xr3:uid="{A5D0B81D-4B71-DF41-9E1F-A176C02BE15D}" name="Column112"/>
-    <tableColumn id="113" xr3:uid="{2685CFFF-E424-6E4D-AA05-ABF33D82102B}" name="Column113"/>
-    <tableColumn id="114" xr3:uid="{9E0DE52E-098D-C248-9602-3C1974EDC54E}" name="Column114"/>
-    <tableColumn id="115" xr3:uid="{6A378A83-9DA5-2641-85C8-645B672EF066}" name="Column115"/>
-    <tableColumn id="116" xr3:uid="{E0F830BF-55CC-FD48-A6DC-AB24D9B91B75}" name="Column116"/>
-    <tableColumn id="117" xr3:uid="{2F5A5322-4224-7648-A2AA-810920EA1B02}" name="Column117"/>
-    <tableColumn id="118" xr3:uid="{3F9BA3EC-8901-1648-9CC5-ED58EC29EE14}" name="Column118"/>
-    <tableColumn id="119" xr3:uid="{EA19EB9C-3937-514F-A908-C55D4481DE65}" name="Column119"/>
-    <tableColumn id="120" xr3:uid="{48FA81E5-03EE-324F-B536-2C0C4526C4C5}" name="Column120"/>
-    <tableColumn id="121" xr3:uid="{5B3C4693-B293-1945-848B-FF92E6814123}" name="Column121"/>
-    <tableColumn id="122" xr3:uid="{3AD41FF6-7D02-A147-A5DE-8636B4C1C90C}" name="Column122"/>
-    <tableColumn id="123" xr3:uid="{F1C0374F-E084-6943-B9C0-2FE1CCC70A0F}" name="Column123"/>
-    <tableColumn id="124" xr3:uid="{F924F29F-AA75-9A48-B754-5034F8F747BD}" name="Column124"/>
-    <tableColumn id="125" xr3:uid="{7B1DCE66-36B9-9B40-A533-21894AFB02A1}" name="Column125"/>
-    <tableColumn id="126" xr3:uid="{6D83F703-9749-F04B-99AE-D1EF4144F846}" name="Column126"/>
-    <tableColumn id="127" xr3:uid="{5EAA9BC1-BEEF-F345-BA3A-92756138002B}" name="Column127"/>
-    <tableColumn id="128" xr3:uid="{98633A26-71D3-584F-8F00-7EE608007B6E}" name="Column128"/>
-    <tableColumn id="129" xr3:uid="{E4FFFDB1-29CC-894B-94DA-B95324FF79D6}" name="Column129"/>
-    <tableColumn id="130" xr3:uid="{68513FC7-2954-BB4C-8373-60DB4DCD371B}" name="Column130"/>
-    <tableColumn id="131" xr3:uid="{CC5045F4-397C-D945-876E-364E851A364F}" name="Column131"/>
-    <tableColumn id="132" xr3:uid="{031FA97A-CEF0-3645-AA29-8FFAF35A8233}" name="Column132"/>
-    <tableColumn id="133" xr3:uid="{42349CCE-C597-CA44-9C87-035F4B60A824}" name="Column133"/>
-    <tableColumn id="134" xr3:uid="{11DA234D-BA7D-B94A-8959-D75F255D84C1}" name="Column134"/>
-    <tableColumn id="135" xr3:uid="{6324EA22-78BF-E642-869B-8253C210372F}" name="Column135"/>
-    <tableColumn id="136" xr3:uid="{8BD48F93-AC2B-6A40-B029-8EE9E489CEEC}" name="Column136"/>
-    <tableColumn id="137" xr3:uid="{9BAD2EE9-C5BA-6A4F-A189-46E4C618E4DF}" name="Column137"/>
-    <tableColumn id="138" xr3:uid="{30AD86AD-D596-6D4C-8051-536637496235}" name="Column138"/>
-    <tableColumn id="139" xr3:uid="{209466A7-B9A8-D048-BFE4-9AE10015D75E}" name="Column139"/>
-    <tableColumn id="140" xr3:uid="{7346AF9F-A422-5143-9A04-CE36D3C4BB4B}" name="Column140"/>
-    <tableColumn id="141" xr3:uid="{3A05A9E1-4D6C-F14C-AF8F-57CB5B1256B9}" name="Column141"/>
-    <tableColumn id="142" xr3:uid="{6F76B417-305E-8241-81C6-9B2DA4E3652D}" name="Column142"/>
-    <tableColumn id="143" xr3:uid="{531FA4C7-5D9F-2246-BDC3-36C9D75C5F68}" name="Column143"/>
-    <tableColumn id="144" xr3:uid="{639B1BC0-11D9-1249-A1EE-2AE9612C18BC}" name="Column144"/>
-    <tableColumn id="145" xr3:uid="{5616514E-C2BD-2B4E-89A4-972FA83EF22F}" name="Column145"/>
-    <tableColumn id="146" xr3:uid="{441D0728-EBEB-734E-907C-D9727449F405}" name="Column146"/>
-    <tableColumn id="147" xr3:uid="{01CDFE45-958A-D04A-A1A1-5532A41FC191}" name="Column147"/>
-    <tableColumn id="148" xr3:uid="{4549AB3E-D7D3-5747-8C35-CAD26A043CF5}" name="Column148"/>
-    <tableColumn id="149" xr3:uid="{74EC6F73-01EE-7D48-9A40-5248407344E8}" name="Column149"/>
-    <tableColumn id="150" xr3:uid="{E75C56A2-1744-A145-8017-D6F02621B0D3}" name="Column150"/>
-    <tableColumn id="151" xr3:uid="{379D3DFF-431F-7246-BA87-A85A2DB9FE3F}" name="Column151"/>
-    <tableColumn id="152" xr3:uid="{DFC3E3DF-1927-1543-AEC1-7FEA9E3B538A}" name="Column152"/>
-    <tableColumn id="153" xr3:uid="{2528E8BA-27F1-9E42-BFDB-F4FE30212308}" name="Column153"/>
-    <tableColumn id="154" xr3:uid="{A7D6A4C4-8DEF-1948-8E89-FF6524A83BE6}" name="Column154"/>
-    <tableColumn id="155" xr3:uid="{427515C7-50ED-4C49-B92C-6E9EB35D7BDE}" name="Column155"/>
-    <tableColumn id="156" xr3:uid="{37534AAD-A44B-8446-85FC-F36DF3554F19}" name="Column156"/>
-    <tableColumn id="157" xr3:uid="{73CF3E73-3F9E-F143-97D3-10D3192DB78F}" name="Column157"/>
-    <tableColumn id="158" xr3:uid="{86FDBD3E-95E5-4B48-AA29-5EC378F271BA}" name="Column158"/>
-    <tableColumn id="159" xr3:uid="{0B969B82-22A4-DE46-A194-3490E71D441F}" name="Column159"/>
-    <tableColumn id="160" xr3:uid="{09A4D414-62E5-6D42-98C4-54C0E14CB865}" name="Column160"/>
-    <tableColumn id="161" xr3:uid="{0EFB3D4F-851D-9E48-8381-A1B00CB7C1C0}" name="Column161"/>
-    <tableColumn id="162" xr3:uid="{1A58E513-5013-2947-98C6-C8601ED5E561}" name="Column162"/>
-    <tableColumn id="163" xr3:uid="{A5E5712A-94E5-ED4F-A798-9BBF10F6D526}" name="Column163"/>
-    <tableColumn id="164" xr3:uid="{A290F54E-3AC7-7549-89BE-70894EFF6DAA}" name="Column164"/>
-    <tableColumn id="165" xr3:uid="{0FC44C57-149D-0144-9B9E-D73980D04AD7}" name="Column165"/>
-    <tableColumn id="166" xr3:uid="{4DDFE0E7-6D86-9A4F-B5A2-3EB00C78AB52}" name="Column166"/>
-    <tableColumn id="167" xr3:uid="{18695A0F-C94B-1544-B9AF-5495F858F207}" name="Column167"/>
-    <tableColumn id="168" xr3:uid="{E06F6878-823A-C846-A6C5-F1B1CCCD4D89}" name="Column168"/>
-    <tableColumn id="169" xr3:uid="{B293F9EB-54CD-904B-8E3E-857E9EB3661D}" name="Column169"/>
-    <tableColumn id="170" xr3:uid="{B246EF3C-7424-FE40-A850-67215399F90C}" name="Column170"/>
-    <tableColumn id="171" xr3:uid="{F4FB9E9C-0B90-AC47-9DF2-83D7033CDAF0}" name="Column171"/>
-    <tableColumn id="172" xr3:uid="{1E8E25A8-93D2-CE48-BA0F-D2598AEC4601}" name="Column172"/>
-    <tableColumn id="173" xr3:uid="{DEBD88B1-2886-3F43-8FB4-58FAB72DFFD3}" name="Column173"/>
-    <tableColumn id="174" xr3:uid="{6788027C-EA68-1041-9C90-6F42B533DC29}" name="Column174"/>
-    <tableColumn id="175" xr3:uid="{29F7CA74-5BAA-2A49-B3BD-868B184BD019}" name="Column175"/>
-    <tableColumn id="176" xr3:uid="{2B174F38-3BBE-C741-AE5F-9AE83ECCA57F}" name="Column176"/>
-    <tableColumn id="177" xr3:uid="{672174B1-77A7-564F-9073-9353C71A4C1C}" name="Column177"/>
-    <tableColumn id="178" xr3:uid="{5F611390-B28D-104A-B4BD-3609803D4D3C}" name="Column178"/>
-    <tableColumn id="179" xr3:uid="{313B6A74-2095-8046-81E8-4E1621D01D0C}" name="Column179"/>
-    <tableColumn id="180" xr3:uid="{B0329C08-F3C8-E74C-A8E9-4A70BD2E42B6}" name="Column180"/>
-    <tableColumn id="181" xr3:uid="{11B2383C-B773-F348-AB55-A2B104687953}" name="Column181"/>
-    <tableColumn id="182" xr3:uid="{0A1BBC57-6DBA-BD42-99EC-D434A97DDA72}" name="Column182"/>
-    <tableColumn id="183" xr3:uid="{CF528127-7F0E-AD41-9E3D-4805322D832F}" name="Column183"/>
-    <tableColumn id="184" xr3:uid="{D538E8FB-E6E3-3441-A29C-4F8975D072E1}" name="Column184"/>
-    <tableColumn id="185" xr3:uid="{7F98AB69-9A2E-D147-B6CA-B2681D88F0C1}" name="Column185"/>
-    <tableColumn id="186" xr3:uid="{E7E3ADBD-E4DB-E342-A1A4-0BC90B46E2FF}" name="Column186"/>
-    <tableColumn id="187" xr3:uid="{B6AA3A92-FCF1-724D-B05F-42D343910C0E}" name="Column187"/>
-    <tableColumn id="188" xr3:uid="{06CEA01E-74AA-294D-AF2D-070742E89BEA}" name="Column188"/>
-    <tableColumn id="189" xr3:uid="{1046854E-55CA-8842-9B64-33BF016F3F61}" name="Column189"/>
-    <tableColumn id="190" xr3:uid="{30D2180B-CBE9-3147-9CB5-4D28CA8AD413}" name="Column190"/>
-    <tableColumn id="191" xr3:uid="{6E3080E9-291F-8F4B-A805-BE8F8B6A36DA}" name="Column191"/>
-    <tableColumn id="192" xr3:uid="{668A2EF8-FFC0-A247-BB89-8530C6DB4131}" name="Column192"/>
-    <tableColumn id="193" xr3:uid="{E850F0B6-B4F9-B04C-A22B-2E4DBFE3E6DE}" name="Column193"/>
-    <tableColumn id="194" xr3:uid="{72DED2C9-630A-1242-B734-BE5688B1BD93}" name="Column194"/>
-    <tableColumn id="195" xr3:uid="{3BA4F179-74C0-E64E-8EFD-B9AC2611437C}" name="Column195"/>
-    <tableColumn id="196" xr3:uid="{91C536CB-CD80-AB41-B743-9CC2CFD0B12F}" name="Column196"/>
-    <tableColumn id="197" xr3:uid="{577E0239-7820-A948-96F3-108A42CF52DC}" name="Column197"/>
-    <tableColumn id="198" xr3:uid="{C5B6EEAB-D57D-1543-88C9-AFE8B8292BA1}" name="Column198"/>
-    <tableColumn id="199" xr3:uid="{480EA958-52E7-8745-9588-404FA63408E6}" name="Column199"/>
-    <tableColumn id="200" xr3:uid="{BCF06DA7-A94C-9444-BCC1-36A2A7F99D33}" name="Column200"/>
-    <tableColumn id="201" xr3:uid="{B25DC0AE-7A63-E44D-8F27-5ADC665A07A8}" name="Column201"/>
-    <tableColumn id="202" xr3:uid="{356FF192-6A18-B145-89F8-A092C4CC756E}" name="Column202"/>
-    <tableColumn id="203" xr3:uid="{967958F5-0479-614D-B7E2-546319379A70}" name="Column203"/>
-    <tableColumn id="204" xr3:uid="{4DD7688E-C21D-7B4E-A2BD-AE52DDD905E5}" name="Column204"/>
-    <tableColumn id="205" xr3:uid="{BDF4C8DA-0C00-C04B-80BC-35BFD0EC33B1}" name="Column205"/>
-    <tableColumn id="206" xr3:uid="{03CB25F6-925B-F646-AC89-6B37645F1694}" name="Column206"/>
-    <tableColumn id="207" xr3:uid="{6A7B9B75-364C-584A-8B41-DFC140E43458}" name="Column207"/>
-    <tableColumn id="208" xr3:uid="{37192B7C-A78B-8E4A-9187-830849337A58}" name="Column208"/>
-    <tableColumn id="209" xr3:uid="{62510FA6-997E-A143-9C95-BA708C84102C}" name="Column209"/>
-    <tableColumn id="210" xr3:uid="{ED2D9940-B633-A84A-972E-0275BC70B332}" name="Column210"/>
-    <tableColumn id="211" xr3:uid="{F0FF12E8-0220-A240-A75A-AE4007647699}" name="Column211"/>
-    <tableColumn id="212" xr3:uid="{37E06068-3EC3-AD43-8F04-97FED5DEBED7}" name="Column212"/>
-    <tableColumn id="213" xr3:uid="{25F9D627-4F7A-7840-84D5-A6DBAF89AA4A}" name="Column213"/>
-    <tableColumn id="214" xr3:uid="{F0F3E641-FABA-6442-8CD0-7F37611B17F4}" name="Column214"/>
-    <tableColumn id="215" xr3:uid="{F97E2C84-3052-044C-868E-6CF2FBF0AB94}" name="Column215"/>
-    <tableColumn id="216" xr3:uid="{233C6846-1294-E14D-9939-2B42B429151F}" name="Column216"/>
-    <tableColumn id="217" xr3:uid="{97A8FAB2-1E3D-804E-A88C-47A90D2CCDFE}" name="Column217"/>
-    <tableColumn id="218" xr3:uid="{95A81B0E-7CD4-7F4C-8695-BE583FC2FFC0}" name="Column218"/>
-    <tableColumn id="219" xr3:uid="{D181819C-88B5-994D-A198-30307CE18779}" name="Column219"/>
-    <tableColumn id="220" xr3:uid="{8E803037-3D82-FE4E-A0DC-A06978196AA9}" name="Column220"/>
-    <tableColumn id="221" xr3:uid="{58E0476F-500A-0D46-8D31-FA22632F2B81}" name="Column221"/>
-    <tableColumn id="222" xr3:uid="{27956F27-56AE-1D44-A581-471212439496}" name="Column222"/>
-    <tableColumn id="223" xr3:uid="{DC1DC044-0E05-9C40-8854-D09E419F651B}" name="Column223"/>
-    <tableColumn id="224" xr3:uid="{AF51C383-B801-1A41-8F32-FF242C665887}" name="Column224"/>
-    <tableColumn id="225" xr3:uid="{8E84E0FF-D1C3-2E4C-A70A-C0FB50BFBD4D}" name="Column225"/>
-    <tableColumn id="226" xr3:uid="{4354F0A0-CD7E-2342-A430-79C5FB5736AB}" name="Column226"/>
-    <tableColumn id="227" xr3:uid="{6893FB24-F94E-2D44-8DFE-5DBFCB7A4BDF}" name="Column227"/>
-    <tableColumn id="228" xr3:uid="{709AFCE5-99E3-9442-B8C4-6BAF3B3BFBBB}" name="Column228"/>
-    <tableColumn id="229" xr3:uid="{87E51AD7-2FB5-FE4B-84D9-0159D24B73D0}" name="Column229"/>
-    <tableColumn id="230" xr3:uid="{41098BD7-4485-D640-82AF-55BE8FA5954B}" name="Column230"/>
-    <tableColumn id="231" xr3:uid="{BA47B679-12FD-884B-89C6-0924943E4C7A}" name="Column231"/>
-    <tableColumn id="232" xr3:uid="{9D2F0974-1C4C-754F-B441-9FDA04BA777A}" name="Column232"/>
-    <tableColumn id="233" xr3:uid="{9306BB84-7D85-4849-9A11-F83DCBBED28F}" name="Column233"/>
-    <tableColumn id="234" xr3:uid="{1DEB5D32-3816-054C-8E83-377405CB1309}" name="Column234"/>
-    <tableColumn id="235" xr3:uid="{85765FF5-5969-AD49-9B27-51812D7A6964}" name="Column235"/>
-    <tableColumn id="236" xr3:uid="{46856801-7CB0-D746-8FA8-E58975C9A7A5}" name="Column236"/>
-    <tableColumn id="237" xr3:uid="{85DACC2D-5FAE-D841-A7CB-C3D9C7F50D65}" name="Column237"/>
-    <tableColumn id="238" xr3:uid="{8D16FE7A-16A7-DF49-AFF1-F024B21918D4}" name="Column238"/>
-    <tableColumn id="239" xr3:uid="{983920CF-8FC7-6147-83A8-BBBDD0848368}" name="Column239"/>
-    <tableColumn id="240" xr3:uid="{F4B4EBD3-91E5-E648-90D0-45622487180A}" name="Column240"/>
-    <tableColumn id="241" xr3:uid="{895424D2-6C00-2847-98AE-3A213A2B9D01}" name="Column241"/>
-    <tableColumn id="242" xr3:uid="{D0443C2C-BAE1-4043-B7CB-D8224792DC62}" name="Column242"/>
-    <tableColumn id="243" xr3:uid="{57DA2958-4A31-A940-81C9-82B7725F2A57}" name="Column243"/>
-    <tableColumn id="244" xr3:uid="{3EC71284-32A5-D748-BAF0-78F4075FC65F}" name="Column244"/>
-    <tableColumn id="245" xr3:uid="{859CF0AA-4410-3D49-A7C3-55913CBCD46B}" name="Column245"/>
-    <tableColumn id="246" xr3:uid="{CDD91B3A-D4EB-3C4A-86DA-9BC964B05957}" name="Column246"/>
-    <tableColumn id="247" xr3:uid="{0902D953-6F16-474B-9B7A-F48B91E30164}" name="Column247"/>
-    <tableColumn id="248" xr3:uid="{D7B7E934-74C2-5743-A5EA-E36BE783B574}" name="Column248"/>
-    <tableColumn id="249" xr3:uid="{F2F98AB1-A785-004F-950D-AE1471EF8994}" name="Column249"/>
-    <tableColumn id="250" xr3:uid="{0F120751-B7DD-2E4C-94CC-3B3F2AC5B12E}" name="Column250"/>
-    <tableColumn id="251" xr3:uid="{BF304950-8F0A-EE41-BD28-7C84DAF254A5}" name="Column251"/>
-    <tableColumn id="252" xr3:uid="{551F40C4-4CE2-3B4A-9E13-31DE45D13B12}" name="Column252"/>
-    <tableColumn id="253" xr3:uid="{366EA4A7-BE2B-F046-B27F-9659886E81D2}" name="Column253"/>
-    <tableColumn id="254" xr3:uid="{2AEDF4CB-5C89-D24D-8899-3D90670446C3}" name="Column254"/>
-    <tableColumn id="255" xr3:uid="{AEE7062A-6F43-D644-AB44-E0D7B533392F}" name="Column255"/>
-    <tableColumn id="256" xr3:uid="{EAAC73A6-8CC4-E743-BAA0-850B073802CA}" name="Column256"/>
-    <tableColumn id="257" xr3:uid="{12D6877E-C3B7-064E-BB66-3F8DDA264F20}" name="Column257"/>
-    <tableColumn id="258" xr3:uid="{72884C81-F2A3-B04C-A3A1-0669FB4F5A24}" name="Column258"/>
-    <tableColumn id="259" xr3:uid="{6902AF7A-3E0C-A54A-8B15-C56FE1BF4162}" name="Column259"/>
-    <tableColumn id="260" xr3:uid="{AFAA3100-9760-F34A-919C-9531295EDBF8}" name="Column260"/>
-    <tableColumn id="261" xr3:uid="{E02C6F96-F471-424B-8936-178D754C80FE}" name="Column261"/>
-    <tableColumn id="262" xr3:uid="{3717D6C0-BFEF-9648-B898-55F468DAF371}" name="Column262"/>
-    <tableColumn id="263" xr3:uid="{A3047FDE-8618-2D42-AC01-97ED4771C8CA}" name="Column263"/>
-    <tableColumn id="264" xr3:uid="{4F723455-E0AC-4B49-9573-7DE5A4B7AC43}" name="Column264"/>
-    <tableColumn id="265" xr3:uid="{6EFD2CEB-F27C-7442-A511-84137F9A0D9F}" name="Column265"/>
-    <tableColumn id="266" xr3:uid="{EBE7B43E-539C-C747-B246-812EDA6EC6DA}" name="Column266"/>
-    <tableColumn id="267" xr3:uid="{2A33E4F6-8978-F544-BA97-8EAC9AA2A7DF}" name="Column267"/>
-    <tableColumn id="268" xr3:uid="{15FA955D-60DE-054E-A323-12287ED1DE61}" name="Column268"/>
-    <tableColumn id="269" xr3:uid="{4068DDD5-EF12-8F4A-9BF1-1781059D45DB}" name="Column269"/>
-    <tableColumn id="270" xr3:uid="{EF96D89E-5A2B-F141-A146-C92051854CB8}" name="Column270"/>
-    <tableColumn id="271" xr3:uid="{012D5625-A98E-714E-BDBD-AC0F206B10CD}" name="Column271"/>
-    <tableColumn id="272" xr3:uid="{632A7680-5D3C-3D4D-99F7-B24EB1E0FA08}" name="Column272"/>
-    <tableColumn id="273" xr3:uid="{CDD4559E-FEC2-004A-A83B-319FD75B37A7}" name="Column273"/>
-    <tableColumn id="274" xr3:uid="{E31B51A7-7E8D-CD4D-8BA4-A30B994E9855}" name="Column274"/>
-    <tableColumn id="275" xr3:uid="{DCBE9B74-C6C1-4644-B7FB-7FD7FB60E167}" name="Column275"/>
-    <tableColumn id="276" xr3:uid="{43321979-2945-0842-86F7-43E29D06782B}" name="Column276"/>
-    <tableColumn id="277" xr3:uid="{836C7FD6-6627-3347-948A-96EE6CFC2DCE}" name="Column277"/>
-    <tableColumn id="278" xr3:uid="{6A654B6C-8B9B-A640-BE4F-CCF8C26086AE}" name="Column278"/>
-    <tableColumn id="279" xr3:uid="{DCD1A0F5-1912-4E4A-B238-266D5B8BC823}" name="Column279"/>
-    <tableColumn id="280" xr3:uid="{72B482AF-97EC-8745-8181-BBB78788E4CE}" name="Column280"/>
-    <tableColumn id="281" xr3:uid="{A44066D5-2B86-474B-8D28-6B7BEB5EE002}" name="Column281"/>
-    <tableColumn id="282" xr3:uid="{F4B04099-548A-3447-9E1B-6F0E80928A0A}" name="Column282"/>
-    <tableColumn id="283" xr3:uid="{1577C538-F1E5-EB48-9027-AB1D0CD33097}" name="Column283"/>
-    <tableColumn id="284" xr3:uid="{FCE9E067-5A31-4C42-BCE8-0A0065405CA9}" name="Column284"/>
-    <tableColumn id="285" xr3:uid="{516679A5-6170-3349-81C8-A4FB979A3A95}" name="Column285"/>
-    <tableColumn id="286" xr3:uid="{98DD3C5A-A1DB-B14A-A328-BED6EDAED772}" name="Column286"/>
-    <tableColumn id="287" xr3:uid="{021CD4DC-1694-DA4F-B289-1070BBC7F1E4}" name="Column287"/>
-    <tableColumn id="288" xr3:uid="{59DE7D82-8946-F44D-9806-71FD335A1EE3}" name="Column288"/>
-    <tableColumn id="289" xr3:uid="{BE3D6524-01B2-7A4A-9F80-83CE7F26147C}" name="Column289"/>
-    <tableColumn id="290" xr3:uid="{E9C955D8-5C4A-284C-A7D2-B88F8AC14263}" name="Column290"/>
-    <tableColumn id="291" xr3:uid="{ADB9D350-E76C-1A49-A7DC-172DAE2F3DA5}" name="Column291"/>
-    <tableColumn id="292" xr3:uid="{EAC67032-E975-F448-9745-6DCBB24140A8}" name="Column292"/>
-    <tableColumn id="293" xr3:uid="{248FE423-A165-3C48-B6E0-4D7D1B616418}" name="Column293"/>
-    <tableColumn id="294" xr3:uid="{4A7F942C-CFFC-1242-A0B0-3B6A94356F2D}" name="Column294"/>
-    <tableColumn id="295" xr3:uid="{F7D218EA-71EC-E64A-BC4B-DFE783B71F86}" name="Column295"/>
-    <tableColumn id="296" xr3:uid="{05ACB36A-F4ED-FE4D-B7C6-A852B0B69028}" name="Column296"/>
-    <tableColumn id="297" xr3:uid="{DECEEC0B-0304-5248-9C3C-91414093C2ED}" name="Column297"/>
-    <tableColumn id="298" xr3:uid="{AEDBD4F1-C628-9146-8B0A-21102F4F15EA}" name="Column298"/>
-    <tableColumn id="299" xr3:uid="{0C003C36-FE7C-DF49-AD62-D0D9E3FE8CB0}" name="Column299"/>
-    <tableColumn id="300" xr3:uid="{BCB38F14-AC01-254E-90E7-BA552BE1E8D9}" name="Column300"/>
-    <tableColumn id="301" xr3:uid="{E76D84EE-7B13-5F44-ABB5-F701EA328379}" name="Column301"/>
-    <tableColumn id="302" xr3:uid="{A01B0496-DCF4-BD44-AB2C-2BC7042FB568}" name="Column302"/>
-    <tableColumn id="303" xr3:uid="{DEC2D181-B1B3-AC41-97BE-E4F1B1B7ACBE}" name="Column303"/>
-    <tableColumn id="304" xr3:uid="{D38DBAA1-5C30-8645-9E77-FE555F64F614}" name="Column304"/>
-    <tableColumn id="305" xr3:uid="{A7E1C1A0-4951-5F49-B784-5218E1772D4E}" name="Column305"/>
-    <tableColumn id="306" xr3:uid="{0F19BD21-972B-CC46-A800-563E42BE1FF3}" name="Column306"/>
-    <tableColumn id="307" xr3:uid="{F433AB44-1E73-044A-B38A-5EE9989C5991}" name="Column307"/>
-    <tableColumn id="308" xr3:uid="{0AA1460C-AA61-D948-9C00-ED2448DBDBD9}" name="Column308"/>
-    <tableColumn id="309" xr3:uid="{835E1700-E3AA-954A-A2EE-6FC458533D51}" name="Column309"/>
-    <tableColumn id="310" xr3:uid="{624CFA4E-02A9-704D-AAA9-0CBED3BBEDB4}" name="Column310"/>
-    <tableColumn id="311" xr3:uid="{98876D5A-C40C-9D49-9844-0EEE66B315A8}" name="Column311"/>
-    <tableColumn id="312" xr3:uid="{D4642A88-C4C9-864F-82D4-F8A4BB9A613C}" name="Column312"/>
-    <tableColumn id="313" xr3:uid="{1776F9F7-E77E-EC4C-9824-827C77F83BDE}" name="Column313"/>
-    <tableColumn id="314" xr3:uid="{4B7B6E22-065A-3947-B116-89D14BAB839B}" name="Column314"/>
-    <tableColumn id="315" xr3:uid="{696BE0F3-A87F-044E-81D8-D1576A5F9005}" name="Column315"/>
-    <tableColumn id="316" xr3:uid="{4F2C1532-6201-B340-BFE2-4EC4C58EE4A2}" name="Column316"/>
-    <tableColumn id="317" xr3:uid="{0E91AD02-955A-4D4C-A5A5-CBBDE89D09D7}" name="Column317"/>
-    <tableColumn id="318" xr3:uid="{E14EE40C-F2DE-1C47-A7C9-A996D0CB3EA9}" name="Column318"/>
-    <tableColumn id="319" xr3:uid="{6E281997-E5F3-6944-8D00-57E453BB5A32}" name="Column319"/>
-    <tableColumn id="320" xr3:uid="{E79DD9B5-FCB9-0844-B2E3-EBE809BD8FBD}" name="Column320"/>
-    <tableColumn id="321" xr3:uid="{13C66741-3E0F-5D4A-AB9A-8A768CA4C34E}" name="Column321"/>
-    <tableColumn id="322" xr3:uid="{19351D28-E7EF-954C-8A18-CFE7D29C8770}" name="Column322"/>
-    <tableColumn id="323" xr3:uid="{9B5B24B5-F493-0349-B9E4-2D7C59339029}" name="Column323"/>
-    <tableColumn id="324" xr3:uid="{D67776A1-024A-9E40-8A0E-5C26B091E06C}" name="Column324"/>
-    <tableColumn id="325" xr3:uid="{F6698705-BCCC-4B4D-9B92-D4271B238ED5}" name="Column325"/>
-    <tableColumn id="326" xr3:uid="{04486121-A571-AA47-B97C-E3E261331590}" name="Column326"/>
-    <tableColumn id="327" xr3:uid="{B5622E0C-4190-3C41-9E52-85CC9329BA24}" name="Column327"/>
-    <tableColumn id="328" xr3:uid="{CD743439-E227-0049-A23E-C74ED5FDC39C}" name="Column328"/>
-    <tableColumn id="329" xr3:uid="{732D331B-A39A-244A-8AD5-16DA68D495E4}" name="Column329"/>
-    <tableColumn id="330" xr3:uid="{FCC8CB40-FDDB-1D40-A9CA-D36EC63B8E54}" name="Column330"/>
-    <tableColumn id="331" xr3:uid="{A8CDEB81-D0AE-034F-BA5E-20051F7557DD}" name="Column331"/>
-    <tableColumn id="332" xr3:uid="{3765F76D-9997-2B4F-BF7F-9B21F1376767}" name="Column332"/>
-    <tableColumn id="333" xr3:uid="{365FB64D-F869-F04A-B420-4E039DEDC04E}" name="Column333"/>
-    <tableColumn id="334" xr3:uid="{0271388A-E3BB-3948-910B-8B743F4BF8B6}" name="Column334"/>
-    <tableColumn id="335" xr3:uid="{CB6ED360-5CC0-FA4B-895B-CBD318A4BC8D}" name="Column335"/>
-    <tableColumn id="336" xr3:uid="{D04BF3C1-528F-9944-A80B-5CB09475CB13}" name="Column336"/>
-    <tableColumn id="337" xr3:uid="{9ACC65F0-226B-B14F-BCDA-EC3574D92D3C}" name="Column337"/>
-    <tableColumn id="338" xr3:uid="{686D5A49-8460-764A-ACD2-E86E6A1A7817}" name="Column338"/>
-    <tableColumn id="339" xr3:uid="{9CEF9B2D-8A06-884B-A468-ACCC0241BBD2}" name="Column339"/>
-    <tableColumn id="340" xr3:uid="{1DDBABEB-5096-6E4F-8506-C7BF89B01F4B}" name="Column340"/>
-    <tableColumn id="341" xr3:uid="{CA35C3DE-C891-E44E-90D4-71B5A69A0FCF}" name="Column341"/>
-    <tableColumn id="342" xr3:uid="{A5456F26-B502-7645-BA70-767BFF189C2E}" name="Column342"/>
-    <tableColumn id="343" xr3:uid="{BF0D13A8-9B50-324C-943C-518F536923A5}" name="Column343"/>
-    <tableColumn id="344" xr3:uid="{C0FA022F-98CF-FB46-9FCB-70045CDA491D}" name="Column344"/>
-    <tableColumn id="345" xr3:uid="{6919041D-F4B6-D14F-A362-D40EA062AE86}" name="Column345"/>
-    <tableColumn id="346" xr3:uid="{BB8C3F2D-D38B-5242-B552-C676B1874C14}" name="Column346"/>
-    <tableColumn id="347" xr3:uid="{4A66ACFC-2424-D940-8A7C-36F68D59C6A1}" name="Column347"/>
-    <tableColumn id="348" xr3:uid="{089530AD-9B4F-BD40-9F83-89444B3BEE0A}" name="Column348"/>
-    <tableColumn id="349" xr3:uid="{574F0E88-A2E5-764C-BC87-A8FAED90A6D9}" name="Column349"/>
-    <tableColumn id="350" xr3:uid="{85D5AB88-5656-E045-8BC5-725EA12AF485}" name="Column350"/>
-    <tableColumn id="351" xr3:uid="{09998F84-E26A-7F48-8961-6ACFDFAD8554}" name="Column351"/>
-    <tableColumn id="352" xr3:uid="{596515AD-FE24-F442-B354-45CB6B2A8426}" name="Column352"/>
-    <tableColumn id="353" xr3:uid="{FA0D5868-67DE-F04D-82CE-9F267E3E8EE8}" name="Column353"/>
-    <tableColumn id="354" xr3:uid="{5F2C30CF-C3BB-2348-8519-6E67F1201C3F}" name="Column354"/>
-    <tableColumn id="355" xr3:uid="{2DD2B12C-A1A8-FC47-B6B3-F3AFBC6F95F6}" name="Column355"/>
-    <tableColumn id="356" xr3:uid="{6AF6B128-A4E2-EB4A-8145-B6AD71F52690}" name="Column356"/>
-    <tableColumn id="357" xr3:uid="{4A2D0492-DA1F-FD4C-9311-419A31A9E202}" name="Column357"/>
-    <tableColumn id="358" xr3:uid="{A4ABCA67-3257-AF4F-9073-5C95C05BD7CB}" name="Column358"/>
-    <tableColumn id="359" xr3:uid="{F31C8B67-D033-A94B-8CF9-C8B776812048}" name="Column359"/>
-    <tableColumn id="360" xr3:uid="{4F99E393-6E12-0A4E-B81F-0AF133B6076A}" name="Column360"/>
-    <tableColumn id="361" xr3:uid="{71F66C3C-ED7A-834B-9B38-2E9D643C262D}" name="Column361"/>
-    <tableColumn id="362" xr3:uid="{3DC6B739-DEA3-294E-B98A-28334324BCD4}" name="Column362"/>
-    <tableColumn id="363" xr3:uid="{51C10014-D861-584D-B7A0-A6B3D27CCCF8}" name="Column363"/>
-    <tableColumn id="364" xr3:uid="{8D6F54C9-D545-AF41-9BF5-D9F7222A3C29}" name="Column364"/>
-    <tableColumn id="365" xr3:uid="{5E16F1C7-49E3-2D4C-9796-143D8AF95677}" name="Column365"/>
-    <tableColumn id="366" xr3:uid="{0814D8A7-1C31-904A-A43A-8E5942F74B16}" name="Column366"/>
-    <tableColumn id="367" xr3:uid="{213FDD1E-F543-CE41-99CD-A44E78411640}" name="Column367"/>
-    <tableColumn id="368" xr3:uid="{8359A8B3-57EF-254A-9C24-40799EC54321}" name="Column368"/>
-    <tableColumn id="369" xr3:uid="{FC8DEE1C-0247-3C46-AFFB-A1B3837F7260}" name="Column369"/>
-    <tableColumn id="370" xr3:uid="{9AF11A9A-EEE2-BD47-AE10-D351F26420E4}" name="Column370"/>
-    <tableColumn id="371" xr3:uid="{CC9DB74E-07C6-2842-8536-59336E94FA1F}" name="Column371"/>
-    <tableColumn id="372" xr3:uid="{4A539BED-4B5A-0A44-9955-998138D8C73A}" name="Column372"/>
-    <tableColumn id="373" xr3:uid="{5038ADEA-D1F2-924F-8C37-5A9A46ACFD2F}" name="Column373"/>
-    <tableColumn id="374" xr3:uid="{B2A8730C-38A7-5D4F-9D5C-7010EAA565C0}" name="Column374"/>
-    <tableColumn id="375" xr3:uid="{5B5D5B4A-254D-044F-A106-7ABBA2C6D194}" name="Column375"/>
-    <tableColumn id="376" xr3:uid="{7BB72BAA-69A4-B848-9D05-D722CC33DD71}" name="Column376"/>
-    <tableColumn id="377" xr3:uid="{159F6C9D-E9E0-7848-9691-5DA29C1C926E}" name="Column377"/>
-    <tableColumn id="378" xr3:uid="{831E872C-151C-7E49-972A-9C25063DD543}" name="Column378"/>
-    <tableColumn id="379" xr3:uid="{28D1952B-1BC6-7B49-BE64-3E67A00A6F83}" name="Column379"/>
-    <tableColumn id="380" xr3:uid="{CEB0CF51-3C77-9E4A-BAA7-FBC05D8BE6D7}" name="Column380"/>
-    <tableColumn id="381" xr3:uid="{942D1033-BBBD-B445-AA54-0B0515CD17D2}" name="Column381"/>
-    <tableColumn id="382" xr3:uid="{98B84735-791D-6640-9072-F299B9764BC9}" name="Column382"/>
-    <tableColumn id="383" xr3:uid="{12720B0A-4DC2-8B40-8C20-DDB2CBC7B027}" name="Column383"/>
-    <tableColumn id="384" xr3:uid="{120A2BBD-8789-5F47-A754-43106A4E6F2B}" name="Column384"/>
-    <tableColumn id="385" xr3:uid="{1DFD3769-C98D-DB48-B471-D0EF2D338052}" name="Column385"/>
-    <tableColumn id="386" xr3:uid="{CF148EA4-2C49-1C46-9F30-0164F0EDEF61}" name="Column386"/>
-    <tableColumn id="387" xr3:uid="{53A3BCEC-41B7-4E45-8529-F5309FF9B23E}" name="Column387"/>
-    <tableColumn id="388" xr3:uid="{1FDAA372-FB48-BF46-92E7-A15C2FD05868}" name="Column388"/>
-    <tableColumn id="389" xr3:uid="{4094B52D-EE39-E749-800C-1E4476021FA0}" name="Column389"/>
-    <tableColumn id="390" xr3:uid="{911CC05F-36FA-8B46-8A72-D2C733E14B76}" name="Column390"/>
-    <tableColumn id="391" xr3:uid="{1AE90C28-DF70-8D47-8E7B-445F0E55A686}" name="Column391"/>
-    <tableColumn id="392" xr3:uid="{5148D245-E387-C34D-870D-6512603F8354}" name="Column392"/>
-    <tableColumn id="393" xr3:uid="{F3E06139-CA3F-DB42-92C9-1542F3BF251B}" name="Column393"/>
-    <tableColumn id="394" xr3:uid="{002C4C59-0C80-494D-91BF-3ED06D9772D5}" name="Column394"/>
-    <tableColumn id="395" xr3:uid="{4311CDFF-54BB-1442-8E62-DB3EB6BE7BB6}" name="Column395"/>
-    <tableColumn id="396" xr3:uid="{7451D066-01D9-1840-9492-9BF9977DCA45}" name="Column396"/>
-    <tableColumn id="397" xr3:uid="{2D57398C-724D-234C-92EE-FA1716089CA0}" name="Column397"/>
-    <tableColumn id="398" xr3:uid="{98320CE8-E388-234F-90B6-2929C9F29871}" name="Column398"/>
-    <tableColumn id="399" xr3:uid="{3B213E12-3E5F-B949-B4BB-C3D5D8AE607F}" name="Column399"/>
-    <tableColumn id="400" xr3:uid="{3D948179-E23B-EA4C-8E66-7DFC511CC0D3}" name="Column400"/>
-    <tableColumn id="401" xr3:uid="{097A6740-BE6D-6347-AAC1-AC4F2C9A7D3C}" name="Column401"/>
-    <tableColumn id="402" xr3:uid="{D05DBA3F-0ECD-CE4C-AC42-DE3D3E8FF98D}" name="Column402"/>
-    <tableColumn id="403" xr3:uid="{1E538BE7-02A1-DE45-B308-66331142C9AD}" name="Column403"/>
-    <tableColumn id="404" xr3:uid="{116D480A-0E77-7D4D-9AE2-5A5114288E93}" name="Column404"/>
-    <tableColumn id="405" xr3:uid="{07032E47-1311-124D-B94B-8DF7D4E06FAE}" name="Column405"/>
-    <tableColumn id="406" xr3:uid="{F01C6D4A-0820-C344-BE1F-A0B2BC33FF92}" name="Column406"/>
-    <tableColumn id="407" xr3:uid="{A57D622B-7A24-7447-88D9-BAAFB1F4A7CE}" name="Column407"/>
-    <tableColumn id="408" xr3:uid="{24BF121F-6086-6046-9D59-A6D68B0C6C25}" name="Column408"/>
-    <tableColumn id="409" xr3:uid="{68DE6E05-7ECA-9C4F-BB1C-6BF841B12823}" name="Column409"/>
-    <tableColumn id="410" xr3:uid="{A6EDBD89-4829-9E47-9484-1FF80AA4D0C6}" name="Column410"/>
-    <tableColumn id="411" xr3:uid="{C342B0E9-61D2-F043-8BD4-16D5E1C8C99A}" name="Column411"/>
-    <tableColumn id="412" xr3:uid="{9D74192A-D8E0-F94A-8699-2C86670358CD}" name="Column412"/>
-    <tableColumn id="413" xr3:uid="{8CE03C0F-2F72-0A4D-B10B-B1DC1CA1A44B}" name="Column413"/>
-    <tableColumn id="414" xr3:uid="{99C1F660-BE17-D945-9642-D7D39EB7DD4F}" name="Column414"/>
-    <tableColumn id="415" xr3:uid="{A7AA8960-69F8-EF4A-9B49-D5F26120A903}" name="Column415"/>
-    <tableColumn id="416" xr3:uid="{7893D2A0-9290-C340-95AE-41DDD1A8E6D9}" name="Column416"/>
-    <tableColumn id="417" xr3:uid="{5E0D7C67-43DB-1049-833F-E56C2EBEB070}" name="Column417"/>
-    <tableColumn id="418" xr3:uid="{F8838960-2515-5C47-973C-70457E9A813E}" name="Column418"/>
-    <tableColumn id="419" xr3:uid="{8F5CACEF-2C51-FC4A-B52D-10511A37E39B}" name="Column419"/>
-    <tableColumn id="420" xr3:uid="{D8830D61-FC26-9E47-A43C-E31F9E4EC09E}" name="Column420"/>
-    <tableColumn id="421" xr3:uid="{CA1F9F75-42C8-464E-AC97-7ABCA86F0F4A}" name="Column421"/>
-    <tableColumn id="422" xr3:uid="{298A4FD1-FCBA-F646-8868-AE63E03FAC1D}" name="Column422"/>
-    <tableColumn id="423" xr3:uid="{9842082F-8BD9-C543-B779-FDFECDEE8BCF}" name="Column423"/>
-    <tableColumn id="424" xr3:uid="{C733036D-597F-034A-BB0A-D91507159FE9}" name="Column424"/>
-    <tableColumn id="425" xr3:uid="{89188F6C-CF10-7E48-A2E4-74DB15C2B354}" name="Column425"/>
-    <tableColumn id="426" xr3:uid="{3FAB7F04-6071-EC49-9B05-684AE735D8F3}" name="Column426"/>
-    <tableColumn id="427" xr3:uid="{95F63DE5-B2F4-AC49-8322-D4DAADE32EAD}" name="Column427"/>
-    <tableColumn id="428" xr3:uid="{E0659116-15C7-EE49-B081-64781859A68C}" name="Column428"/>
-    <tableColumn id="429" xr3:uid="{91D9F7FB-6FA3-C444-9ED4-4FB3A51A586D}" name="Column429"/>
-    <tableColumn id="430" xr3:uid="{A2EE6E2B-AEFE-884D-AE30-46ED27AECFE3}" name="Column430"/>
-    <tableColumn id="431" xr3:uid="{F6F6F1B8-092F-3147-8DFE-5A5FD7334938}" name="Column431"/>
-    <tableColumn id="432" xr3:uid="{EA627F35-A2B6-E741-8830-54D0D9493729}" name="Column432"/>
-    <tableColumn id="433" xr3:uid="{BE3281F7-B9CA-CA41-897F-9E3EFCBA49C2}" name="Column433"/>
-    <tableColumn id="434" xr3:uid="{C35CD5E0-759F-9A4A-B7EC-E0B735319E3F}" name="Column434"/>
-    <tableColumn id="435" xr3:uid="{F446BF0C-FC35-4B4D-B95C-9F6DFB878AA2}" name="Column435"/>
-    <tableColumn id="436" xr3:uid="{3184277C-B5E8-FF40-8FAA-74012EF639C1}" name="Column436"/>
-    <tableColumn id="437" xr3:uid="{C9EEEE70-F0D0-C249-BD9C-99AA69A681AF}" name="Column437"/>
-    <tableColumn id="438" xr3:uid="{B1C21D79-3295-174B-9DE1-C3FD97342AEC}" name="Column438"/>
-    <tableColumn id="439" xr3:uid="{B657E495-3D4C-214D-8788-5E9138AB7E6F}" name="Column439"/>
-    <tableColumn id="440" xr3:uid="{7B6ADFD2-FDFA-DD4E-AB24-9592E3FF1139}" name="Column440"/>
-    <tableColumn id="441" xr3:uid="{497FF721-CE2B-E448-A910-9AEBF6B49E7A}" name="Column441"/>
-    <tableColumn id="442" xr3:uid="{7F5C5F69-8D33-F449-B00D-985D1B5E0F12}" name="Column442"/>
-    <tableColumn id="443" xr3:uid="{270FB13E-3E72-6C4E-AA67-112978809A8A}" name="Column443"/>
-    <tableColumn id="444" xr3:uid="{5F775DD0-61FD-B047-B11D-0D0B06D574A7}" name="Column444"/>
-    <tableColumn id="445" xr3:uid="{B9B35E05-B8AD-4945-8A01-A85D7B2C19BA}" name="Column445"/>
-    <tableColumn id="446" xr3:uid="{7459BCAC-A041-464A-97FB-DEFA4EB43B29}" name="Column446"/>
-    <tableColumn id="447" xr3:uid="{C7D71CA8-43D3-1749-BF36-651466099AAF}" name="Column447"/>
-    <tableColumn id="448" xr3:uid="{EF7F0EE0-B3CC-A340-881C-270FF3B4636C}" name="Column448"/>
-    <tableColumn id="449" xr3:uid="{19152C20-3B83-5642-A8E0-E661DA7D2B4F}" name="Column449"/>
-    <tableColumn id="450" xr3:uid="{ADEB9D24-B4CE-F44A-B31B-08096087E734}" name="Column450"/>
-    <tableColumn id="451" xr3:uid="{0E965192-32E4-FF47-A9A0-8C0728BEE3FD}" name="Column451"/>
-    <tableColumn id="452" xr3:uid="{966E5800-1746-A246-8DA5-B9A9F3E3AC86}" name="Column452"/>
-    <tableColumn id="453" xr3:uid="{8751A6D4-94CA-1B42-9BEE-B4A796E13716}" name="Column453"/>
-    <tableColumn id="454" xr3:uid="{EBEA7958-C78E-4F4E-9D99-DF56B10FAF45}" name="Column454"/>
-    <tableColumn id="455" xr3:uid="{E0FC801E-5E33-2043-A61B-287EA4E63744}" name="Column455"/>
-    <tableColumn id="456" xr3:uid="{749C1F23-3B2F-C74C-AE16-1ED5F12AEEC2}" name="Column456"/>
-    <tableColumn id="457" xr3:uid="{BD92C99F-2ABE-F145-8F28-0259299E247D}" name="Column457"/>
-    <tableColumn id="458" xr3:uid="{9BB140E3-B7B6-A84A-8985-E1B9979D3B78}" name="Column458"/>
-    <tableColumn id="459" xr3:uid="{8B450A3A-F157-FE4C-9982-991E4A5C6195}" name="Column459"/>
-    <tableColumn id="460" xr3:uid="{5FC829CE-F6C0-4741-B308-ECDE6AA01318}" name="Column460"/>
-    <tableColumn id="461" xr3:uid="{10628846-BE7C-6442-8277-EA8B6CD06105}" name="Column461"/>
-    <tableColumn id="462" xr3:uid="{FBC7E4C4-5E67-804B-8D0E-1F2A86548C88}" name="Column462"/>
-    <tableColumn id="463" xr3:uid="{9894011D-1F7A-6E4E-9B49-9C6AE6B9B886}" name="Column463"/>
-    <tableColumn id="464" xr3:uid="{2AD71082-3744-5647-8BE0-C8200EA6075A}" name="Column464"/>
-    <tableColumn id="465" xr3:uid="{A05F63C6-9424-D446-906E-9162613F144E}" name="Column465"/>
-    <tableColumn id="466" xr3:uid="{9B0DB127-4C09-A14E-9A36-9DDB3D0C1E8B}" name="Column466"/>
-    <tableColumn id="467" xr3:uid="{13FE8AA4-2E34-1D43-BFDC-8F451D6611B8}" name="Column467"/>
-    <tableColumn id="468" xr3:uid="{270D349C-BA6B-2244-8FAA-A6E4CEAC904A}" name="Column468"/>
-    <tableColumn id="469" xr3:uid="{DC1C1862-99E8-2F4A-ACD7-19C16613E63B}" name="Column469"/>
-    <tableColumn id="470" xr3:uid="{951043DE-E0D2-DE46-8738-F7075CA556AB}" name="Column470"/>
-    <tableColumn id="471" xr3:uid="{857D27B2-C8A2-FA48-BD9E-9A6EE6738993}" name="Column471"/>
-    <tableColumn id="472" xr3:uid="{6BC92938-E5CD-C24C-B5D6-53D2EDD41A02}" name="Column472"/>
-    <tableColumn id="473" xr3:uid="{653C963F-8DFF-D844-83F9-BB5FE836FC9D}" name="Column473"/>
-    <tableColumn id="474" xr3:uid="{F5B4EF78-3131-8D48-9D25-D2CF054A0D5A}" name="Column474"/>
-    <tableColumn id="475" xr3:uid="{4F802C08-06B2-E94E-BA14-2BA64551018A}" name="Column475"/>
-    <tableColumn id="476" xr3:uid="{D929AB58-5523-834C-89DB-8AF12035FF04}" name="Column476"/>
-    <tableColumn id="477" xr3:uid="{F71FB958-0D66-A442-9AFC-831DBDB7C5A9}" name="Column477"/>
-    <tableColumn id="478" xr3:uid="{D9D89F13-03A1-9844-A0A9-486A93DCBA41}" name="Column478"/>
-    <tableColumn id="479" xr3:uid="{CCCDFE27-3B00-C34D-8FD8-C717424C1518}" name="Column479"/>
-    <tableColumn id="480" xr3:uid="{8C3A5724-98F8-1A4B-8256-FBA5558854DA}" name="Column480"/>
-    <tableColumn id="481" xr3:uid="{FD1819A3-2C23-2B4D-B18B-B32DEB6EAC5C}" name="Column481"/>
-    <tableColumn id="482" xr3:uid="{02753D9A-093C-D84C-98C9-A78C053FB9B3}" name="Column482"/>
-    <tableColumn id="483" xr3:uid="{65788BF0-CE3A-4044-95BF-AF1F18769A94}" name="Column483"/>
-    <tableColumn id="484" xr3:uid="{F0E2BB13-CFA6-894E-BF5D-A9AB1AE50D87}" name="Column484"/>
-    <tableColumn id="485" xr3:uid="{FF6EAA8D-8542-1A4F-A381-B41F9EC8015B}" name="Column485"/>
-    <tableColumn id="486" xr3:uid="{016C712A-6701-2D46-ACC7-7F2CF0FB6C1F}" name="Column486"/>
-    <tableColumn id="487" xr3:uid="{23F99F1E-DBEA-984C-96C2-D6B872CA5CC8}" name="Column487"/>
-    <tableColumn id="488" xr3:uid="{308949CD-BD7B-8A40-BD76-F7A439E00664}" name="Column488"/>
-    <tableColumn id="489" xr3:uid="{2D87E016-5F21-DC45-BB16-5F60F19E9492}" name="Column489"/>
-    <tableColumn id="490" xr3:uid="{B7FD6A81-D0A8-3448-900E-18E55F2470CD}" name="Column490"/>
-    <tableColumn id="491" xr3:uid="{830FDE5F-5766-AC4C-8F69-81312DC81057}" name="Column491"/>
-    <tableColumn id="492" xr3:uid="{2CC846A4-697D-234B-8163-61E77E3316E2}" name="Column492"/>
-    <tableColumn id="493" xr3:uid="{E67EC998-9FF8-4D42-AB43-88DD84639F57}" name="Column493"/>
-    <tableColumn id="494" xr3:uid="{2D7DA18A-7DE5-154D-93EF-8370ABC3CE26}" name="Column494"/>
-    <tableColumn id="495" xr3:uid="{73CE4F16-9367-2244-A20E-FE0684D48C1E}" name="Column495"/>
-    <tableColumn id="496" xr3:uid="{5EB47836-68E3-1644-9BB4-AA7B57F358E0}" name="Column496"/>
-    <tableColumn id="497" xr3:uid="{B594BB0A-ECC1-5846-B5CD-C7DCC5BE89DA}" name="Column497"/>
-    <tableColumn id="498" xr3:uid="{BA8C9478-5E10-1043-92EA-762CE0EC7116}" name="Column498"/>
-    <tableColumn id="499" xr3:uid="{F7FDBF0E-F3D5-824A-A443-BF5398D33379}" name="Column499"/>
-    <tableColumn id="500" xr3:uid="{929A1377-5289-E64D-84F8-1312003E0316}" name="Column500"/>
-    <tableColumn id="501" xr3:uid="{59FBF679-918B-C64B-9A7B-DBDBD6187F5A}" name="Column501"/>
-    <tableColumn id="502" xr3:uid="{A5EA7DF4-60EB-A642-9C26-7F3037D51EA3}" name="Column502"/>
-    <tableColumn id="503" xr3:uid="{40CEB71E-2177-994D-8F74-DD495F486FFA}" name="Column503"/>
-    <tableColumn id="504" xr3:uid="{CEC70E76-BD04-0442-ABBF-9EA0A11A848D}" name="Column504"/>
-    <tableColumn id="505" xr3:uid="{019D4348-F11A-AC48-A72C-B0674CF69360}" name="Column505"/>
-    <tableColumn id="506" xr3:uid="{626105E9-26F1-4845-BFFB-D323B25AF109}" name="Column506"/>
-    <tableColumn id="507" xr3:uid="{1E7E93DF-5DD6-7A4B-83F1-4858F57DAF23}" name="Column507"/>
-    <tableColumn id="508" xr3:uid="{6DB60D05-0FD7-5E49-BBF1-3D119D55A1EA}" name="Column508"/>
-    <tableColumn id="509" xr3:uid="{7785E91D-5262-5A4B-BFC7-FB82D76B0FAD}" name="Column509"/>
-    <tableColumn id="510" xr3:uid="{333B913A-4E54-2745-9574-27B1B4128595}" name="Column510"/>
-    <tableColumn id="511" xr3:uid="{A680A827-A01D-8F44-AD52-3BE3A42624A0}" name="Column511"/>
-    <tableColumn id="512" xr3:uid="{D4448A45-338F-4A41-8C36-32FBBAE65CAE}" name="Column512"/>
-    <tableColumn id="513" xr3:uid="{26890C7A-CE3B-0640-AEA3-3690E4DC4E78}" name="Column513"/>
-    <tableColumn id="514" xr3:uid="{911A7410-14AC-0749-86D7-91907EA2CEC9}" name="Column514"/>
-    <tableColumn id="515" xr3:uid="{76264B05-253C-CD4B-9FF9-2C6AC08FBFEB}" name="Column515"/>
-    <tableColumn id="516" xr3:uid="{CDFEB0F1-EFD6-804C-8C05-CA0EC9AAB256}" name="Column516"/>
-    <tableColumn id="517" xr3:uid="{04AB66A7-6F51-CF47-AEA3-9C64FC30E42F}" name="Column517"/>
-    <tableColumn id="518" xr3:uid="{457BABAA-BA3A-9A4D-BB9D-FC5F06A51D97}" name="Column518"/>
-    <tableColumn id="519" xr3:uid="{96434998-15CF-DB4D-B2AA-547C0FE16410}" name="Column519"/>
-    <tableColumn id="520" xr3:uid="{2F11FBEC-DB0D-CD41-82E3-D7F6D1717550}" name="Column520"/>
-    <tableColumn id="521" xr3:uid="{BA90CA78-22F1-CD48-8D45-A05BB088BCE5}" name="Column521"/>
-    <tableColumn id="522" xr3:uid="{B2AA40B7-CF7D-0345-9F08-26A05863279C}" name="Column522"/>
-    <tableColumn id="523" xr3:uid="{C744A171-69F9-EA48-8175-F1613E2CCDDC}" name="Column523"/>
-    <tableColumn id="524" xr3:uid="{52482B61-CABB-FB4C-BF28-FAEE70E3741D}" name="Column524"/>
-    <tableColumn id="525" xr3:uid="{1D3CB450-5C44-B84B-AC5E-1802E244388A}" name="Column525"/>
-    <tableColumn id="526" xr3:uid="{155C9464-4EE1-284C-8365-C6A79178BEB8}" name="Column526"/>
-    <tableColumn id="527" xr3:uid="{942F733B-8A2F-9C4B-AE02-3282C28C3980}" name="Column527"/>
-    <tableColumn id="528" xr3:uid="{8218A94C-BC3D-8A43-BB80-6C2D484506D8}" name="Column528"/>
-    <tableColumn id="529" xr3:uid="{8C671244-F614-B14B-9554-38AB303BFED3}" name="Column529"/>
-    <tableColumn id="530" xr3:uid="{02A03D12-E68B-8041-AA22-EB4E1183FC8A}" name="Column530"/>
-    <tableColumn id="531" xr3:uid="{500D45EB-4925-9F4A-B5A4-53F0C41E5CF6}" name="Column531"/>
-    <tableColumn id="532" xr3:uid="{8C23EC9B-A194-FA40-9AD1-AF1DD4DFFFC7}" name="Column532"/>
-    <tableColumn id="533" xr3:uid="{9A601493-6F92-4A4A-81BF-919CA480CD61}" name="Column533"/>
-    <tableColumn id="534" xr3:uid="{B6CBD5AB-2274-FA45-B07E-1C1534C75168}" name="Column534"/>
-    <tableColumn id="535" xr3:uid="{3C9EBBED-E64F-3349-B936-F0467F820D32}" name="Column535"/>
-    <tableColumn id="536" xr3:uid="{17DA33BF-86B9-DA45-816C-8F78E02AFFF1}" name="Column536"/>
-    <tableColumn id="537" xr3:uid="{9DC4DF5E-325E-8443-92A3-6753AC55A10A}" name="Column537"/>
-    <tableColumn id="538" xr3:uid="{945B374C-AE29-5741-A755-B9EF212D9073}" name="Column538"/>
-    <tableColumn id="539" xr3:uid="{D37761F2-D25E-5B47-8716-0783070F411F}" name="Column539"/>
-    <tableColumn id="540" xr3:uid="{566C510C-1E16-E74F-AEC5-E508D9DF007F}" name="Column540"/>
-    <tableColumn id="541" xr3:uid="{B96DC4A5-C424-EA4E-A2C4-25EFAC598164}" name="Column541"/>
-    <tableColumn id="542" xr3:uid="{C5F21182-BB1F-A846-A120-2D23CA20126F}" name="Column542"/>
-    <tableColumn id="543" xr3:uid="{18159B21-2AD8-4A42-9F21-BDE3A0F84949}" name="Column543"/>
-    <tableColumn id="544" xr3:uid="{BC8CB431-0EDF-9A4E-9FF1-F31873CB62E6}" name="Column544"/>
-    <tableColumn id="545" xr3:uid="{E6258164-B339-114A-ADA7-22D08727CB47}" name="Column545"/>
-    <tableColumn id="546" xr3:uid="{677781C6-A51D-3747-8E11-A7EABBD5E8AF}" name="Column546"/>
-    <tableColumn id="547" xr3:uid="{0F9D4FEF-9AA3-CD46-8B73-4927EA16AD2C}" name="Column547"/>
-    <tableColumn id="548" xr3:uid="{E68BCF77-3BD9-DD47-B2FB-CA11B55A01CF}" name="Column548"/>
-    <tableColumn id="549" xr3:uid="{A9F1DB67-F4F9-A742-B1BB-1CC16071B8F0}" name="Column549"/>
-    <tableColumn id="550" xr3:uid="{39672DC0-4620-4545-8DDE-01A7B368593C}" name="Column550"/>
-    <tableColumn id="551" xr3:uid="{524392CA-4CE3-CA48-BFF2-058AD2364F37}" name="Column551"/>
-    <tableColumn id="552" xr3:uid="{A4BA574C-2143-5E4A-8CA2-3ACA43459E86}" name="Column552"/>
-    <tableColumn id="553" xr3:uid="{C408DDAC-69E7-7E49-8E27-C4C07745FAE3}" name="Column553"/>
-    <tableColumn id="554" xr3:uid="{534DB64C-D9AA-CA45-89FD-F6AD3561C909}" name="Column554"/>
-    <tableColumn id="555" xr3:uid="{69B093DE-3160-FD48-9C10-87AFC98CA8C8}" name="Column555"/>
-    <tableColumn id="556" xr3:uid="{CA9F0E91-9809-F447-8BB2-D1DD5D0B836A}" name="Column556"/>
-    <tableColumn id="557" xr3:uid="{00E90938-081C-5541-A619-B2A0FE1B14A6}" name="Column557"/>
-    <tableColumn id="558" xr3:uid="{C96A0A10-8F19-474C-9AE5-DB15D2F72BAA}" name="Column558"/>
-    <tableColumn id="559" xr3:uid="{5248EA1C-9F26-8348-ACFA-5BE1335D4472}" name="Column559"/>
-    <tableColumn id="560" xr3:uid="{AFE1B4AE-4F85-7B40-A175-4F00BFA729FC}" name="Column560"/>
-    <tableColumn id="561" xr3:uid="{C157F759-DDEC-9E4D-A9AD-77BAED700AAB}" name="Column561"/>
-    <tableColumn id="562" xr3:uid="{8CBBEB18-1AE2-F347-8836-3ECC09E28CB4}" name="Column562"/>
-    <tableColumn id="563" xr3:uid="{C2F410B5-C5E1-9749-954F-54A514A241F4}" name="Column563"/>
-    <tableColumn id="564" xr3:uid="{5264CFAE-89D6-D149-ADAB-2EF3E15AA7FF}" name="Column564"/>
-    <tableColumn id="565" xr3:uid="{909785D8-30DC-3741-9312-75030CD38B39}" name="Column565"/>
-    <tableColumn id="566" xr3:uid="{598F2081-2840-3542-B8AC-9E83E9F09F44}" name="Column566"/>
-    <tableColumn id="567" xr3:uid="{9FEF7FAE-FF66-204E-AF58-DE6800DA8A31}" name="Column567"/>
-    <tableColumn id="568" xr3:uid="{81DF1F59-B899-7344-B149-2A261F2FAD1F}" name="Column568"/>
-    <tableColumn id="569" xr3:uid="{4E6E7692-EC56-4E48-8A4D-9341E7681BF2}" name="Column569"/>
-    <tableColumn id="570" xr3:uid="{F62217CB-EE60-5243-A69F-1C6FA301607F}" name="Column570"/>
-    <tableColumn id="571" xr3:uid="{03C4231A-C418-B54A-B521-B959D8249EDE}" name="Column571"/>
-    <tableColumn id="572" xr3:uid="{7642794C-2CE0-644A-9835-13D11A363B35}" name="Column572"/>
-    <tableColumn id="573" xr3:uid="{F866EA88-3CF6-1942-9AA9-12ADB832B450}" name="Column573"/>
-    <tableColumn id="574" xr3:uid="{876C299B-0334-3740-9708-4180C55B8377}" name="Column574"/>
-    <tableColumn id="575" xr3:uid="{BF83F38D-3A3D-3A44-B9C7-4BE5A65DE31E}" name="Column575"/>
-    <tableColumn id="576" xr3:uid="{6E0A6FB7-AA1E-434D-9749-87B7A89F034E}" name="Column576"/>
-    <tableColumn id="577" xr3:uid="{773E6C9B-A336-9E47-B4DB-38AE1AA50050}" name="Column577"/>
-    <tableColumn id="578" xr3:uid="{4F1830EF-C6EB-4848-88F4-EB35000F78E9}" name="Column578"/>
-    <tableColumn id="579" xr3:uid="{ECC6F48A-56B8-1644-A4DD-FC31499FB7CE}" name="Column579"/>
-    <tableColumn id="580" xr3:uid="{FE942F8D-D719-D644-9C49-199AFC688006}" name="Column580"/>
-    <tableColumn id="581" xr3:uid="{14F982DF-F8EC-C640-9525-2CCFE8671C07}" name="Column581"/>
-    <tableColumn id="582" xr3:uid="{EF7367E8-C850-9A4B-9935-188E94BBEA73}" name="Column582"/>
-    <tableColumn id="583" xr3:uid="{9DEB5C34-12FB-9D43-9C65-E39D6F8F2E5A}" name="Column583"/>
-    <tableColumn id="584" xr3:uid="{CD60503A-5F08-7D40-BC8D-669407F795A0}" name="Column584"/>
-    <tableColumn id="585" xr3:uid="{8E1E9245-6B5A-9341-9A39-6B1CDFDEEC73}" name="Column585"/>
-    <tableColumn id="586" xr3:uid="{9726C6F7-4665-174F-AC63-BBFDDA0C540B}" name="Column586"/>
-    <tableColumn id="587" xr3:uid="{B9D38AC1-8211-AC45-8471-ED2833B8DF01}" name="Column587"/>
-    <tableColumn id="588" xr3:uid="{D1F0A67F-ED87-C843-BCC4-B13779359125}" name="Column588"/>
-    <tableColumn id="589" xr3:uid="{9BC92AEC-1B80-9A48-8070-A620BA296EA9}" name="Column589"/>
-    <tableColumn id="590" xr3:uid="{2ACE5DCA-181B-6C49-9811-AA2091ADEF77}" name="Column590"/>
-    <tableColumn id="591" xr3:uid="{D0655546-92BA-F842-BF5F-2336425B7331}" name="Column591"/>
-    <tableColumn id="592" xr3:uid="{C6C42C39-DC67-784D-8F02-039E5416AA61}" name="Column592"/>
-    <tableColumn id="593" xr3:uid="{05E36C1D-59B2-4144-8B11-F40DECFEB754}" name="Column593"/>
-    <tableColumn id="594" xr3:uid="{745B872D-CB83-084E-8562-5ACB9017B472}" name="Column594"/>
-    <tableColumn id="595" xr3:uid="{AD31ADD5-E140-B042-BBCF-A4EE7EE3A295}" name="Column595"/>
-    <tableColumn id="596" xr3:uid="{E3C6B975-ACF0-0143-92B0-B0F1661175A7}" name="Column596"/>
-    <tableColumn id="597" xr3:uid="{8D85B79D-DD4E-1645-AF51-2C2DB6A75991}" name="Column597"/>
-    <tableColumn id="598" xr3:uid="{20E9BD0A-7503-ED41-B536-1BFEA61B6C06}" name="Column598"/>
-    <tableColumn id="599" xr3:uid="{25469F41-E29C-0C4B-B513-275ED9817D8F}" name="Column599"/>
-    <tableColumn id="600" xr3:uid="{562F6D26-C1EB-054F-929F-0D0953502B74}" name="Column600"/>
-    <tableColumn id="601" xr3:uid="{4B60B4F1-C43F-F842-8716-D0F418138838}" name="Column601"/>
-    <tableColumn id="602" xr3:uid="{6AF66C86-C852-2D41-B3D9-AE83A15292BF}" name="Column602"/>
-    <tableColumn id="603" xr3:uid="{E6ED8B6B-A501-7E45-B4A2-D2E89E6548C5}" name="Column603"/>
-    <tableColumn id="604" xr3:uid="{DEBA6D2F-5861-E947-A77B-7D9D5A7180BA}" name="Column604"/>
-    <tableColumn id="605" xr3:uid="{C78A0B4E-B9F2-5C48-996E-7AB15962A8D7}" name="Column605"/>
-    <tableColumn id="606" xr3:uid="{EFCA16D2-A2F2-4A40-BFF9-EA9CAAF5397E}" name="Column606"/>
-    <tableColumn id="607" xr3:uid="{ED65BF4C-C0ED-5249-8F94-F1964E655780}" name="Column607"/>
-    <tableColumn id="608" xr3:uid="{7A1D5612-22A6-B844-83F9-B1D870612FD9}" name="Column608"/>
-    <tableColumn id="609" xr3:uid="{28F3A281-BD70-8C42-9E6A-BEBCC55303D3}" name="Column609"/>
-    <tableColumn id="610" xr3:uid="{D5510C3A-49A9-DC43-B829-65C0C5429941}" name="Column610"/>
-    <tableColumn id="611" xr3:uid="{FA8C3CFC-F63F-044A-84C4-90B470456026}" name="Column611"/>
-    <tableColumn id="612" xr3:uid="{F83F55FB-0198-1546-ADFD-ED6B1255BD5C}" name="Column612"/>
-    <tableColumn id="613" xr3:uid="{9E6ADADF-B3B2-9140-9F96-74F6A5034F6F}" name="Column613"/>
-    <tableColumn id="614" xr3:uid="{E603118C-0A5D-5C41-AD7D-E871E0DC9A6F}" name="Column614"/>
-    <tableColumn id="615" xr3:uid="{38DE0250-6E83-1740-86B4-D5A201550467}" name="Column615"/>
-    <tableColumn id="616" xr3:uid="{5EEF450E-46FD-8F4F-B775-3F92B7D240F5}" name="Column616"/>
-    <tableColumn id="617" xr3:uid="{7BC72822-7F97-8544-986B-54BEC2C2B646}" name="Column617"/>
-    <tableColumn id="618" xr3:uid="{47D11AD6-2B89-C849-9E30-AD7E8218FD0A}" name="Column618"/>
-    <tableColumn id="619" xr3:uid="{94820279-21DC-BD4F-8E33-7CD8C45D02F5}" name="Column619"/>
-    <tableColumn id="620" xr3:uid="{C3E041CC-FE71-B043-A075-9D666B2B1919}" name="Column620"/>
-    <tableColumn id="621" xr3:uid="{D0A908A5-0720-7447-A690-541EBCD70A19}" name="Column621"/>
-    <tableColumn id="622" xr3:uid="{1AE9F1D3-52DA-A144-B4FD-B6BB69C6E26C}" name="Column622"/>
-    <tableColumn id="623" xr3:uid="{1DC0990B-9D28-3741-B46F-1F589EEB7D3E}" name="Column623"/>
-    <tableColumn id="624" xr3:uid="{53B1D72D-0DF7-014C-94E9-F34824FB1859}" name="Column624"/>
-    <tableColumn id="625" xr3:uid="{6F76BD1B-16C6-AF4E-AF41-2B9EE7BB7028}" name="Column625"/>
-    <tableColumn id="626" xr3:uid="{E2D14953-EAE5-9346-98C8-E98D99CCEAF3}" name="Column626"/>
-    <tableColumn id="627" xr3:uid="{17AFDC7B-1BDD-094A-9E16-7C3B9E365CB0}" name="Column627"/>
-    <tableColumn id="628" xr3:uid="{FC21D2BF-C9A7-164E-B3E5-858329B44EF1}" name="Column628"/>
-    <tableColumn id="629" xr3:uid="{65C046B7-D716-8C41-BF42-BE5A63E16E8D}" name="Column629"/>
-    <tableColumn id="630" xr3:uid="{41390846-0E23-2A46-ADC4-ADD45C5E50C0}" name="Column630"/>
-    <tableColumn id="631" xr3:uid="{9DDF5BB8-AD11-D849-8296-949705552C3E}" name="Column631"/>
-    <tableColumn id="632" xr3:uid="{8D1F6C4B-2F01-FC41-840E-D26B21B81910}" name="Column632"/>
-    <tableColumn id="633" xr3:uid="{2B53AFBC-A3F4-8F43-AF14-80CAE505B5F8}" name="Column633"/>
-    <tableColumn id="634" xr3:uid="{A194F1CF-652A-7848-9150-FBFB9F606B82}" name="Column634"/>
-    <tableColumn id="635" xr3:uid="{F4D5D2A9-42A2-2741-A772-2648056AB6BB}" name="Column635"/>
-    <tableColumn id="636" xr3:uid="{A3845337-38DA-2E42-B5F4-F4B350BB0CDA}" name="Column636"/>
-    <tableColumn id="637" xr3:uid="{8CF0FFF0-CD82-DE4A-A3B5-8F01138189F3}" name="Column637"/>
-    <tableColumn id="638" xr3:uid="{2D4504BC-43D4-C145-BE29-A7CFE8FDA9D9}" name="Column638"/>
-    <tableColumn id="639" xr3:uid="{FFDCF004-E68F-0742-9DD5-0159E0EEB205}" name="Column639"/>
-    <tableColumn id="640" xr3:uid="{7042EB42-0CC2-1C45-8DF8-2E007AAE317F}" name="Column640"/>
-    <tableColumn id="641" xr3:uid="{70A97EE8-0C61-7149-AC30-D4B223E648A5}" name="Column641"/>
-    <tableColumn id="642" xr3:uid="{ED69C0AE-DEFE-D34F-B9AD-23825799F91F}" name="Column642"/>
-    <tableColumn id="643" xr3:uid="{81DB6EB8-428C-F243-89BB-A8D16AD901E8}" name="Column643"/>
-    <tableColumn id="644" xr3:uid="{06C8C59F-1FB2-2344-8AB9-CCC361B28ECC}" name="Column644"/>
-    <tableColumn id="645" xr3:uid="{8D0BAC38-841E-F24D-B81B-D487A8CA06FF}" name="Column645"/>
-    <tableColumn id="646" xr3:uid="{D8DBA58D-8A91-6D43-B79B-7B87E9059408}" name="Column646"/>
-    <tableColumn id="647" xr3:uid="{BE7F08E5-8EE5-7F4C-B7E1-B7568BFD465A}" name="Column647"/>
-    <tableColumn id="648" xr3:uid="{6D35A6E9-E8A5-1B4C-8ED2-E378BA8AC373}" name="Column648"/>
-    <tableColumn id="649" xr3:uid="{9BA7F670-4A41-8148-8CDA-D7ABD7BCBEEE}" name="Column649"/>
-    <tableColumn id="650" xr3:uid="{5C92A491-DAB8-5D42-B3E9-A007311A6F15}" name="Column650"/>
-    <tableColumn id="651" xr3:uid="{BCAD931D-DB8B-5944-9A95-B95852A31451}" name="Column651"/>
-    <tableColumn id="652" xr3:uid="{B6879A36-FA64-6140-9965-02EA9FC91BC2}" name="Column652"/>
-    <tableColumn id="653" xr3:uid="{84AB8032-43BB-714D-A80F-2A441201E4A6}" name="Column653"/>
-    <tableColumn id="654" xr3:uid="{8752AB52-9499-CC44-9837-1DD9813F7F86}" name="Column654"/>
-    <tableColumn id="655" xr3:uid="{76BD671C-AECD-1E49-949E-8E29FDA87998}" name="Column655"/>
-    <tableColumn id="656" xr3:uid="{8503559C-5340-D247-AEC1-AF16D40379D8}" name="Column656"/>
-    <tableColumn id="657" xr3:uid="{46FFDA1B-9ADB-2048-948E-16A84CE5F69C}" name="Column657"/>
-    <tableColumn id="658" xr3:uid="{A4EB762B-DA02-5E45-B9AF-6509DB82EAB0}" name="Column658"/>
-    <tableColumn id="659" xr3:uid="{C41960B2-2F62-114C-AEB7-6ED2930428F1}" name="Column659"/>
-    <tableColumn id="660" xr3:uid="{D8EC77E4-33FB-0C4F-83BC-2055D132E1A1}" name="Column660"/>
-    <tableColumn id="661" xr3:uid="{669EC12C-28E5-F245-B69F-B95F3A9A30A0}" name="Column661"/>
-    <tableColumn id="662" xr3:uid="{7BA40172-D034-0D4B-B520-EF4BE742F95D}" name="Column662"/>
-    <tableColumn id="663" xr3:uid="{C50569A9-39F1-924A-A8A7-B3284B60F0B3}" name="Column663"/>
-    <tableColumn id="664" xr3:uid="{981D290E-859F-824A-8417-F327A58B16C4}" name="Column664"/>
-    <tableColumn id="665" xr3:uid="{6C9EA16A-0038-1547-960E-45DE52A78E2D}" name="Column665"/>
-    <tableColumn id="666" xr3:uid="{B960FC68-FE51-4E42-B52D-5B2CBFAB0B19}" name="Column666"/>
-    <tableColumn id="667" xr3:uid="{0DC5618B-8E45-AC45-87B9-F508162BCF1F}" name="Column667"/>
-    <tableColumn id="668" xr3:uid="{02490880-80FD-7441-9B7C-380A5641F8FA}" name="Column668"/>
-    <tableColumn id="669" xr3:uid="{F94DCFB0-A60E-D24E-8A77-60821520FC88}" name="Column669"/>
-    <tableColumn id="670" xr3:uid="{A266BC9D-735B-564F-A162-8A07B15AB0F7}" name="Column670"/>
-    <tableColumn id="671" xr3:uid="{926669A9-2029-6146-9062-F444C3EC32EC}" name="Column671"/>
-    <tableColumn id="672" xr3:uid="{8A49FBA5-2FAB-3F49-B156-9FA9441AD456}" name="Column672"/>
-    <tableColumn id="673" xr3:uid="{C327603F-A1E8-CB4D-A1DE-D02C7D9CB069}" name="Column673"/>
-    <tableColumn id="674" xr3:uid="{B5B406BA-E6CB-B143-8563-177F43576ED4}" name="Column674"/>
-    <tableColumn id="675" xr3:uid="{B696D4DA-B869-A948-8453-0B0D5F07075A}" name="Column675"/>
-    <tableColumn id="676" xr3:uid="{2B1F9517-8494-0549-9351-5DDF234994F4}" name="Column676"/>
-    <tableColumn id="677" xr3:uid="{EF6BB16C-251B-8A45-9A0D-3E7F3F28359F}" name="Column677"/>
-    <tableColumn id="678" xr3:uid="{A99A9A5C-236D-E746-8266-B55447F22FFC}" name="Column678"/>
-    <tableColumn id="679" xr3:uid="{A0244BAC-8F5F-B84A-8C7B-E6C7114D0099}" name="Column679"/>
-    <tableColumn id="680" xr3:uid="{2CAA235E-F97F-EB40-AE4F-8FB5F173182C}" name="Column680"/>
-    <tableColumn id="681" xr3:uid="{A1FE2BF0-8CC3-7442-8554-59C96F3CE63B}" name="Column681"/>
-    <tableColumn id="682" xr3:uid="{C3059F91-1F6A-4E48-823A-B2D6AF4B713A}" name="Column682"/>
-    <tableColumn id="683" xr3:uid="{DD787341-2681-A942-B5DC-CBD781B0B592}" name="Column683"/>
-    <tableColumn id="684" xr3:uid="{D8B216A4-6A0E-FB4D-AF02-EEE19A2DF637}" name="Column684"/>
-    <tableColumn id="685" xr3:uid="{53AC7E4A-94D7-1240-921E-F21FADBAB07A}" name="Column685"/>
-    <tableColumn id="686" xr3:uid="{92D26334-2D1F-714D-9158-18F3885D03BA}" name="Column686"/>
-    <tableColumn id="687" xr3:uid="{5ED9F0EA-E3D8-ED4D-BB36-B9B94D53377A}" name="Column687"/>
-    <tableColumn id="688" xr3:uid="{B8E9B4E4-EDF7-CE42-AFEC-5F402C295312}" name="Column688"/>
-    <tableColumn id="689" xr3:uid="{5320E925-3321-E049-A3E7-A19D9DF2E417}" name="Column689"/>
-    <tableColumn id="690" xr3:uid="{498F5F0A-9F2D-6547-B74E-D03389CC535B}" name="Column690"/>
-    <tableColumn id="691" xr3:uid="{2EA672A0-5576-D548-9AD5-C4DA5C46E8F5}" name="Column691"/>
-    <tableColumn id="692" xr3:uid="{A70B105F-EACC-1747-A6D7-DBF9EFB47193}" name="Column692"/>
-    <tableColumn id="693" xr3:uid="{2B9A445B-2CE8-F743-B3B9-20CF6DC2DD8B}" name="Column693"/>
-    <tableColumn id="694" xr3:uid="{BDC0FA08-AD36-0D41-BDFB-934F969A22D3}" name="Column694"/>
-    <tableColumn id="695" xr3:uid="{9BDF1C92-A163-6D42-8703-C1CFD6CE6CDA}" name="Column695"/>
-    <tableColumn id="696" xr3:uid="{84C1F246-5BE8-AC4B-B1F6-DF1725F08C4F}" name="Column696"/>
-    <tableColumn id="697" xr3:uid="{96C287DB-91E0-BB4B-8554-DB3613742129}" name="Column697"/>
-    <tableColumn id="698" xr3:uid="{3E7081F8-EBA7-3941-A398-EE93BED7F222}" name="Column698"/>
-    <tableColumn id="699" xr3:uid="{5BBEC2BD-E97D-3E46-A75D-32E8C0E25078}" name="Column699"/>
-    <tableColumn id="700" xr3:uid="{B6A13754-6299-284F-B176-7121EDD43F8A}" name="Column700"/>
-    <tableColumn id="701" xr3:uid="{5FF1E98D-C694-A14A-A94C-F6ED879320F9}" name="Column701"/>
-    <tableColumn id="702" xr3:uid="{DB5835AA-96C0-5A4E-AF5A-722F5FE5D417}" name="Column702"/>
-    <tableColumn id="703" xr3:uid="{0EB6F6DE-BAC8-594C-A62C-10106821AC9D}" name="Column703"/>
-    <tableColumn id="704" xr3:uid="{418CF505-5D58-D642-B0B0-E7EF080D32D7}" name="Column704"/>
-    <tableColumn id="705" xr3:uid="{B13A848C-1C5D-6E45-86E9-F6C83BF6D9DA}" name="Column705"/>
-    <tableColumn id="706" xr3:uid="{DD8A73E1-28AE-034B-AD06-AAD79816A41F}" name="Column706"/>
-    <tableColumn id="707" xr3:uid="{DA39CCBC-DC73-ED4B-B09B-F9190313969C}" name="Column707"/>
-    <tableColumn id="708" xr3:uid="{0188AB6C-7C59-5441-8398-625ADD2EA730}" name="Column708"/>
-    <tableColumn id="709" xr3:uid="{DAC06E05-537B-5649-8EDC-7AC47DB852AA}" name="Column709"/>
-    <tableColumn id="710" xr3:uid="{CA0BCC77-C555-C14F-BA14-6756D3D95BAD}" name="Column710"/>
-    <tableColumn id="711" xr3:uid="{4F896BE1-C118-794E-ABE5-614A842020CC}" name="Column711"/>
-    <tableColumn id="712" xr3:uid="{656EB2AF-18FF-2B42-A9AE-32781A801BDB}" name="Column712"/>
-    <tableColumn id="713" xr3:uid="{FD4E9158-3F53-2340-AB08-8E61F6FFE939}" name="Column713"/>
-    <tableColumn id="714" xr3:uid="{0B3D7080-AA0A-7249-AD2E-FBAFBC4EDE3A}" name="Column714"/>
-    <tableColumn id="715" xr3:uid="{F9221AF9-8C5D-8F47-9DC9-63A71FE6F94F}" name="Column715"/>
-    <tableColumn id="716" xr3:uid="{8A3E0127-B1BF-8946-BA57-8D3B3D55D85C}" name="Column716"/>
-    <tableColumn id="717" xr3:uid="{481DBB4E-EB42-AD44-AFC9-F691E79506EC}" name="Column717"/>
-    <tableColumn id="718" xr3:uid="{835CD4E8-EBBB-D941-9F32-EE283D81BDCB}" name="Column718"/>
-    <tableColumn id="719" xr3:uid="{70CE918C-B132-0347-BB27-D49C7DF931F2}" name="Column719"/>
-    <tableColumn id="720" xr3:uid="{FE77F0FB-2227-E244-90EB-46E9FAC228BA}" name="Column720"/>
-    <tableColumn id="721" xr3:uid="{D1D33293-8A1C-9044-9EFD-26142C87EEF9}" name="Column721"/>
-    <tableColumn id="722" xr3:uid="{BEE8A7BA-CF45-8D41-8F86-F02DEF0CC425}" name="Column722"/>
-    <tableColumn id="723" xr3:uid="{3DEEFE89-AE36-0848-94F1-E57F55BA06D1}" name="Column723"/>
-    <tableColumn id="724" xr3:uid="{B5095F29-43D6-4A4C-845B-553084CBFC10}" name="Column724"/>
-    <tableColumn id="725" xr3:uid="{388F1ED9-CB32-0540-A46E-9A9E07651E4B}" name="Column725"/>
-    <tableColumn id="726" xr3:uid="{8210B8C0-27D0-CB46-B0AB-3B2BAC8148B2}" name="Column726"/>
-    <tableColumn id="727" xr3:uid="{FCB466F9-9C68-9441-A0B7-8BBCC8D8EE11}" name="Column727"/>
-    <tableColumn id="728" xr3:uid="{FA87A293-5256-0E4C-8D83-1D7764C6EFFD}" name="Column728"/>
-    <tableColumn id="729" xr3:uid="{7DF64D5A-80B4-3041-AE0F-F22E67732599}" name="Column729"/>
-    <tableColumn id="730" xr3:uid="{5BD59E32-8F35-D242-B242-CA934FF187E9}" name="Column730"/>
-    <tableColumn id="731" xr3:uid="{351D1A08-E675-2140-96EF-21937D71D1FD}" name="Column731"/>
-    <tableColumn id="732" xr3:uid="{87BB4371-2C53-6E4C-9C47-DCC4A639420E}" name="Column732"/>
-    <tableColumn id="733" xr3:uid="{246D5271-C80C-8D41-85B4-045EBCD7BA7A}" name="Column733"/>
-    <tableColumn id="734" xr3:uid="{8693223A-6235-6644-BA4C-D0BFAEF725FD}" name="Column734"/>
-    <tableColumn id="735" xr3:uid="{B792D7D6-9AB1-1645-9188-3A84357A1D36}" name="Column735"/>
-    <tableColumn id="736" xr3:uid="{300ACF7E-10AD-BB4B-A85A-6445756C493B}" name="Column736"/>
-    <tableColumn id="737" xr3:uid="{F4C15E3D-F5C3-E648-BED4-6381008E4431}" name="Column737"/>
-    <tableColumn id="738" xr3:uid="{FFD300F1-51A1-B649-AD96-CEA727AED8E7}" name="Column738"/>
-    <tableColumn id="739" xr3:uid="{25CF92EA-2DC4-3A48-B64B-5A2694CA803B}" name="Column739"/>
-    <tableColumn id="740" xr3:uid="{940E483D-6B05-7348-9652-F42BE590A9A0}" name="Column740"/>
-    <tableColumn id="741" xr3:uid="{A149D29B-814A-8645-A6A9-EC24B91F3200}" name="Column741"/>
-    <tableColumn id="742" xr3:uid="{2A0F4072-DC84-0346-8E21-8E8E5A90196C}" name="Column742"/>
-    <tableColumn id="743" xr3:uid="{58A93911-03BF-2342-BF8E-D195D4F3D199}" name="Column743"/>
-    <tableColumn id="744" xr3:uid="{134807A3-0E8D-4E4B-9EE4-F77AFB9B6954}" name="Column744"/>
-    <tableColumn id="745" xr3:uid="{F985757A-780D-0D40-8295-3CEA5D7EA2C0}" name="Column745"/>
-    <tableColumn id="746" xr3:uid="{1835D27F-CF75-684C-BD46-8C32B2CAA101}" name="Column746"/>
-    <tableColumn id="747" xr3:uid="{792D7FF5-B25C-6147-9DCA-9846975BD334}" name="Column747"/>
-    <tableColumn id="748" xr3:uid="{46B9CC52-0511-9C4C-9C5D-A2DE54486951}" name="Column748"/>
-    <tableColumn id="749" xr3:uid="{F53A0468-D1F3-B643-8A88-C3B6931CE26D}" name="Column749"/>
-    <tableColumn id="750" xr3:uid="{8EAB6EE2-9986-234D-8B52-1A0183F46AA9}" name="Column750"/>
-    <tableColumn id="751" xr3:uid="{75EF8054-8B91-F54F-B1F1-9E85A173B32E}" name="Column751"/>
-    <tableColumn id="752" xr3:uid="{46738A0D-E472-9F4C-9EEF-4D4EC57F24E6}" name="Column752"/>
-    <tableColumn id="753" xr3:uid="{4F8F2FFD-285D-3D4B-88C7-6BD028BD41D5}" name="Column753"/>
-    <tableColumn id="754" xr3:uid="{31C889D5-1A83-3D4E-95D5-51AE9A74E8CD}" name="Column754"/>
-    <tableColumn id="755" xr3:uid="{D5F2D53A-7276-B142-904C-BD1DE9EC669C}" name="Column755"/>
-    <tableColumn id="756" xr3:uid="{B2AD37DF-E9BC-3843-BD94-0530C26814CE}" name="Column756"/>
-    <tableColumn id="757" xr3:uid="{1C65298C-2238-3E45-AD4C-315FB13B23E0}" name="Column757"/>
-    <tableColumn id="758" xr3:uid="{28325D3E-BD9D-3340-91C0-7F48540702A6}" name="Column758"/>
-    <tableColumn id="759" xr3:uid="{7E7D276B-E6D7-394F-80AC-C92395820EFC}" name="Column759"/>
-    <tableColumn id="760" xr3:uid="{7AEA34C7-1B50-A04C-A4F8-1FB62A226B95}" name="Column760"/>
-    <tableColumn id="761" xr3:uid="{E28A1001-B209-6F4F-A00B-DFAAF7D4FD7C}" name="Column761"/>
-    <tableColumn id="762" xr3:uid="{3B4EC3ED-4593-F94B-96E0-C74650190EF3}" name="Column762"/>
-    <tableColumn id="763" xr3:uid="{721DDCF9-2F38-9C4A-80AB-6C7A59B21C2F}" name="Column763"/>
-    <tableColumn id="764" xr3:uid="{3BA2E037-79DB-3740-A6E1-1FF4A695AB38}" name="Column764"/>
-    <tableColumn id="765" xr3:uid="{257F5058-16EC-A74D-8915-0245BB0E6794}" name="Column765"/>
-    <tableColumn id="766" xr3:uid="{65AD6253-C610-B54C-8701-46BB28D8D94B}" name="Column766"/>
-    <tableColumn id="767" xr3:uid="{AEDB1A92-B9E6-4249-821D-5D6CCA3D6B28}" name="Column767"/>
-    <tableColumn id="768" xr3:uid="{3CDA5C5F-42E8-F04E-95D1-21B07FECE2F4}" name="Column768"/>
-    <tableColumn id="769" xr3:uid="{154786EB-7A3D-1A43-B78E-7EE92860E2A5}" name="Column769"/>
-    <tableColumn id="770" xr3:uid="{AD5D8495-79B0-2D48-80CE-AC669003B58A}" name="Column770"/>
-    <tableColumn id="771" xr3:uid="{E84984B8-DE27-A544-89DF-2E6E18F5E0E3}" name="Column771"/>
-    <tableColumn id="772" xr3:uid="{8D0C3360-CA6E-7642-9BBB-E9B3143A1980}" name="Column772"/>
-    <tableColumn id="773" xr3:uid="{1DB0C765-9B0F-FD49-96C2-E4D43003077E}" name="Column773"/>
-    <tableColumn id="774" xr3:uid="{131E2B69-43C0-D64E-8495-71CEFE807AF8}" name="Column774"/>
-    <tableColumn id="775" xr3:uid="{E94E57B7-9AAD-B647-88A8-385CD4DF15F5}" name="Column775"/>
-    <tableColumn id="776" xr3:uid="{ED16AF72-AAA1-D943-A715-C91426BFFF90}" name="Column776"/>
-    <tableColumn id="777" xr3:uid="{238E0F4B-D401-8B4E-8551-315CD783AB72}" name="Column777"/>
-    <tableColumn id="778" xr3:uid="{8E50A14D-175D-EF4E-9CFA-787036E4ED69}" name="Column778"/>
-    <tableColumn id="779" xr3:uid="{4FE304DB-2F4E-D943-9F0D-586D85903E8A}" name="Column779"/>
-    <tableColumn id="780" xr3:uid="{3785C36B-5011-E349-BADC-B8B92CFC1086}" name="Column780"/>
-    <tableColumn id="781" xr3:uid="{C4B275F3-2D9D-954F-B71E-D6C35C98F694}" name="Column781"/>
-    <tableColumn id="782" xr3:uid="{B356AFFB-C6A7-0749-9662-B1BB573CE72D}" name="Column782"/>
-    <tableColumn id="783" xr3:uid="{DCF4CCA2-37A2-1E4B-9914-A4D13BFBC842}" name="Column783"/>
-    <tableColumn id="784" xr3:uid="{E7A0E455-A11D-FC48-8E1E-FF980090DE36}" name="Column784"/>
-    <tableColumn id="785" xr3:uid="{D6AD3692-AE4F-FB4E-9A81-4E86E2C05534}" name="Column785"/>
-    <tableColumn id="786" xr3:uid="{50A6A2FC-3EB3-314B-B6F9-17A440FF3AC8}" name="Column786"/>
-    <tableColumn id="787" xr3:uid="{69A1BCB7-0DEC-AE43-9D09-4CEC0B5146F0}" name="Column787"/>
-    <tableColumn id="788" xr3:uid="{615A48B8-C660-7449-A6EB-A0D1276F2B91}" name="Column788"/>
-    <tableColumn id="789" xr3:uid="{4375832A-41CB-1E46-8B8F-2E9E542F1F48}" name="Column789"/>
-    <tableColumn id="790" xr3:uid="{7D8DAE0D-A1E1-644B-B882-BC827F2C5481}" name="Column790"/>
-    <tableColumn id="791" xr3:uid="{DA8DF61C-DEB1-6A4F-9597-F1F47A15B2D2}" name="Column791"/>
-    <tableColumn id="792" xr3:uid="{F1C30D3C-D87B-9E41-A4F9-A67383ECDB22}" name="Column792"/>
-    <tableColumn id="793" xr3:uid="{1B0A1387-AD27-7643-ACF2-9C235007C272}" name="Column793"/>
-    <tableColumn id="794" xr3:uid="{64E74433-5FA3-FB44-B5C5-042E583327CF}" name="Column794"/>
-    <tableColumn id="795" xr3:uid="{581700E9-A116-4945-B217-B8E41CFC840D}" name="Column795"/>
-    <tableColumn id="796" xr3:uid="{E04859C7-57C3-4C44-AAF9-A84D9CF78F26}" name="Column796"/>
-    <tableColumn id="797" xr3:uid="{CD6E9104-3D66-0748-A2B1-C91139399341}" name="Column797"/>
-    <tableColumn id="798" xr3:uid="{25DEDE85-1B05-0C4F-9C3D-C134456CDF6A}" name="Column798"/>
-    <tableColumn id="799" xr3:uid="{EA5A67B3-C1CA-954A-A4EE-B82DFFA38934}" name="Column799"/>
-    <tableColumn id="800" xr3:uid="{249006DE-BD5A-1848-9A8D-26EB9CCF60AB}" name="Column800"/>
-    <tableColumn id="801" xr3:uid="{554DBB1D-1C0F-874D-A5A8-0FC5E10A797A}" name="Column801"/>
-    <tableColumn id="802" xr3:uid="{30AB5BDF-A63B-1742-B270-90B9113F91BA}" name="Column802"/>
-    <tableColumn id="803" xr3:uid="{5F113139-B53E-BE42-903A-AB5EA104630E}" name="Column803"/>
-    <tableColumn id="804" xr3:uid="{A2DFD9C6-224D-0E4D-8B5C-A31574819D55}" name="Column804"/>
-    <tableColumn id="805" xr3:uid="{35F67528-44EF-074D-9A15-D401EAD983B1}" name="Column805"/>
-    <tableColumn id="806" xr3:uid="{4576D66A-5B70-EC47-84C9-3A32003B6956}" name="Column806"/>
-    <tableColumn id="807" xr3:uid="{7B273299-D716-2642-BCB1-AD7766AEEAB4}" name="Column807"/>
-    <tableColumn id="808" xr3:uid="{D1498392-828A-3E46-AB36-4F497D2F568F}" name="Column808"/>
-    <tableColumn id="809" xr3:uid="{BA0E9EC0-F915-5D44-BF8E-7C96FF20381A}" name="Column809"/>
-    <tableColumn id="810" xr3:uid="{D51CB49E-7A91-BF4D-8D05-B97E5B3FE2CE}" name="Column810"/>
-    <tableColumn id="811" xr3:uid="{BB5CE7C1-06E8-924B-AB01-29770C083489}" name="Column811"/>
-    <tableColumn id="812" xr3:uid="{C09ADE62-0CC6-BD47-AEF6-A9D6A368AB07}" name="Column812"/>
-    <tableColumn id="813" xr3:uid="{68AE84BA-85FD-7E48-A899-4F1C4CF6CD4B}" name="Column813"/>
-    <tableColumn id="814" xr3:uid="{1621D359-10A2-E34F-9BF6-17456556DC70}" name="Column814"/>
-    <tableColumn id="815" xr3:uid="{7302DDAB-18D0-A840-B5AC-B651E1465A4F}" name="Column815"/>
-    <tableColumn id="816" xr3:uid="{A2077A46-125F-9240-AA53-D632042DC4FA}" name="Column816"/>
-    <tableColumn id="817" xr3:uid="{A4B5DF62-2498-0240-9E80-A856C358EB46}" name="Column817"/>
-    <tableColumn id="818" xr3:uid="{B5617121-073E-AB4D-8924-3D3A2D391C11}" name="Column818"/>
-    <tableColumn id="819" xr3:uid="{85B43147-503D-6D43-9D92-9B923ABF8CE7}" name="Column819"/>
-    <tableColumn id="820" xr3:uid="{18F65CF9-1CB2-424F-8038-3DD0217A664F}" name="Column820"/>
-    <tableColumn id="821" xr3:uid="{250BBE91-8BA1-0542-814B-0DAF55114545}" name="Column821"/>
-    <tableColumn id="822" xr3:uid="{7B6EBB2A-8F23-8644-870D-008DE3A8FAC8}" name="Column822"/>
-    <tableColumn id="823" xr3:uid="{1A375EBD-26CB-694F-A733-4665B836F216}" name="Column823"/>
-    <tableColumn id="824" xr3:uid="{6EF9C6E1-BEAE-D34F-821E-4085F1E3D5EC}" name="Column824"/>
-    <tableColumn id="825" xr3:uid="{293B3569-134D-A549-9DFC-B06294BDBD17}" name="Column825"/>
-    <tableColumn id="826" xr3:uid="{85B3E1B2-FE5A-814C-B64E-70EC479FFF68}" name="Column826"/>
-    <tableColumn id="827" xr3:uid="{7DED7482-FBFB-E941-B308-D6155045DF21}" name="Column827"/>
-    <tableColumn id="828" xr3:uid="{C72B5306-B1E5-E341-B7EB-9E26F110E282}" name="Column828"/>
-    <tableColumn id="829" xr3:uid="{B0BFAA81-EA8A-D54E-8482-8DBF09DB620F}" name="Column829"/>
-    <tableColumn id="830" xr3:uid="{5AD78C0C-DBD0-314F-BD17-4F23718F017B}" name="Column830"/>
-    <tableColumn id="831" xr3:uid="{3A263408-33A6-9D4D-B113-B9AFB0571916}" name="Column831"/>
-    <tableColumn id="832" xr3:uid="{09DDD184-11DC-5E4B-9DB2-C837A9B63150}" name="Column832"/>
-    <tableColumn id="833" xr3:uid="{036B3AB7-4492-F248-BAC4-9AC7FDCB4A37}" name="Column833"/>
-    <tableColumn id="834" xr3:uid="{5A5CCCB7-6064-F340-84FE-EC6DAC0DD84B}" name="Column834"/>
-    <tableColumn id="835" xr3:uid="{569F35CD-D0EB-214E-97CE-68E402404205}" name="Column835"/>
-    <tableColumn id="836" xr3:uid="{867AF3F3-C502-D44D-BFBF-1F83B3C1B273}" name="Column836"/>
-    <tableColumn id="837" xr3:uid="{4DF36668-A8AE-AE48-A4A4-6B1CB4C266DA}" name="Column837"/>
-    <tableColumn id="838" xr3:uid="{7CB5FDAC-DF7D-3D47-A22E-41E4D327D67D}" name="Column838"/>
-    <tableColumn id="839" xr3:uid="{8EB5403E-A1BB-9F4B-A721-F50C34617F35}" name="Column839"/>
-    <tableColumn id="840" xr3:uid="{6506492F-FF32-9D44-BC13-BE2E70602236}" name="Column840"/>
-    <tableColumn id="841" xr3:uid="{12F03497-5465-4445-BD82-0842F109A4C1}" name="Column841"/>
-    <tableColumn id="842" xr3:uid="{A52D6AE2-7161-2847-9976-86B9B158E2F8}" name="Column842"/>
-    <tableColumn id="843" xr3:uid="{E76690D3-A3F0-084E-8DE2-313E04C3E714}" name="Column843"/>
-    <tableColumn id="844" xr3:uid="{2B1CCB0F-AC65-054E-AEED-148E2F7CCC21}" name="Column844"/>
-    <tableColumn id="845" xr3:uid="{2DCB9689-D670-664F-9AF7-BC26B70965A9}" name="Column845"/>
-    <tableColumn id="846" xr3:uid="{2E195859-D5A7-9D4A-8643-02093FBC8769}" name="Column846"/>
-    <tableColumn id="847" xr3:uid="{BEDD2A11-1127-064A-A615-85A9CAE31E12}" name="Column847"/>
-    <tableColumn id="848" xr3:uid="{B55ECFE3-44BF-9E4B-8DAF-D0A9BDF661CB}" name="Column848"/>
-    <tableColumn id="849" xr3:uid="{D34D0F31-75FF-3E4B-84D3-CC2358A55474}" name="Column849"/>
-    <tableColumn id="850" xr3:uid="{C341D1CB-BD01-A347-916D-85D3BE298503}" name="Column850"/>
-    <tableColumn id="851" xr3:uid="{E6CD2CCF-81E7-6E47-8EDC-88801CA4B89A}" name="Column851"/>
-    <tableColumn id="852" xr3:uid="{49FEEDC5-746D-2345-93AC-4856F7393BA1}" name="Column852"/>
-    <tableColumn id="853" xr3:uid="{341AD737-15B4-A140-B7E0-55B8B4994134}" name="Column853"/>
-    <tableColumn id="854" xr3:uid="{B9EF0338-FEAC-7D4B-A7DF-09BCA3C2349E}" name="Column854"/>
-    <tableColumn id="855" xr3:uid="{FD47FA2D-9F63-E94A-B10E-FD04B4896AA1}" name="Column855"/>
-    <tableColumn id="856" xr3:uid="{700381B1-711C-4E4F-9BF1-EBBC4DF35873}" name="Column856"/>
-    <tableColumn id="857" xr3:uid="{F92A4DDB-0D3B-A744-A16A-A9A785152DD1}" name="Column857"/>
-    <tableColumn id="858" xr3:uid="{A04EC3F6-E4E1-F547-8050-2FEFD8109775}" name="Column858"/>
-    <tableColumn id="859" xr3:uid="{EC4FE821-6163-F344-8CEA-5F1D30ABDB44}" name="Column859"/>
-    <tableColumn id="860" xr3:uid="{05830C0F-EA92-284A-A404-246E27BB6448}" name="Column860"/>
-    <tableColumn id="861" xr3:uid="{0CD1D452-E86E-9043-A69B-9F8D37537F94}" name="Column861"/>
-    <tableColumn id="862" xr3:uid="{FF08F4AF-A991-5A44-A7A8-3964F8905553}" name="Column862"/>
-    <tableColumn id="863" xr3:uid="{088D343B-2B24-7946-8AC5-B81AED63387E}" name="Column863"/>
-    <tableColumn id="864" xr3:uid="{9DBD4708-C2F9-B04D-94D0-5A7BEF0B920A}" name="Column864"/>
-    <tableColumn id="865" xr3:uid="{2EB39341-F863-4348-9D6A-1185014B92D9}" name="Column865"/>
-    <tableColumn id="866" xr3:uid="{A2B6B4B4-7ED0-934F-941D-F6CE3454BBBF}" name="Column866"/>
-    <tableColumn id="867" xr3:uid="{059BB8B1-DB4B-CC48-AF65-E1BB92D853A9}" name="Column867"/>
-    <tableColumn id="868" xr3:uid="{5CA25F42-E6EA-AE46-91E4-4BBBCF4AC1BD}" name="Column868"/>
-    <tableColumn id="869" xr3:uid="{DB0B3764-1D02-F941-8F4B-722992FBD713}" name="Column869"/>
-    <tableColumn id="870" xr3:uid="{1D3C832A-6EEC-2842-8296-BE5AD46EF4E8}" name="Column870"/>
-    <tableColumn id="871" xr3:uid="{3442D4D0-008B-0845-8CEA-CC74875CF1C3}" name="Column871"/>
-    <tableColumn id="872" xr3:uid="{C76C2ABE-BB68-5D41-85E1-CFB0498F4E89}" name="Column872"/>
-    <tableColumn id="873" xr3:uid="{072CBF5D-DCD1-824E-9D12-EFE00A263186}" name="Column873"/>
-    <tableColumn id="874" xr3:uid="{EF684BF9-FD21-5341-9A0C-F684EA9A5CB7}" name="Column874"/>
-    <tableColumn id="875" xr3:uid="{A4A4B289-9B0F-B64D-8661-7471E7A51F24}" name="Column875"/>
-    <tableColumn id="876" xr3:uid="{9C800421-09E8-934D-8C9E-C49F696272FE}" name="Column876"/>
-    <tableColumn id="877" xr3:uid="{733A3037-0713-0542-AAAC-1A759C437111}" name="Column877"/>
-    <tableColumn id="878" xr3:uid="{E7EB80FA-90A0-F941-BECF-A9BEAD8CAC80}" name="Column878"/>
-    <tableColumn id="879" xr3:uid="{03809F8A-99B1-DD4B-9106-8CC854237906}" name="Column879"/>
-    <tableColumn id="880" xr3:uid="{2E075AD6-07C1-9D44-A8BD-9BE81D7E740A}" name="Column880"/>
-    <tableColumn id="881" xr3:uid="{7C1EE6AA-4547-E749-89BC-549740381B54}" name="Column881"/>
-    <tableColumn id="882" xr3:uid="{E39896F1-FBD1-9041-AA3F-62F0BCBC0994}" name="Column882"/>
-    <tableColumn id="883" xr3:uid="{30AB9167-F59D-014C-8C9A-1F921C2B3240}" name="Column883"/>
-    <tableColumn id="884" xr3:uid="{C31FC0FD-6FF1-5B4A-AF3D-58A90B11E19A}" name="Column884"/>
-    <tableColumn id="885" xr3:uid="{DAD6754A-C3CD-F641-A61D-58CC9DBDB344}" name="Column885"/>
-    <tableColumn id="886" xr3:uid="{9FCEAC9F-6340-7C45-8781-C7F2C7BD60F8}" name="Column886"/>
-    <tableColumn id="887" xr3:uid="{EA9BCC30-77E9-0644-A95D-17EDFA38FD81}" name="Column887"/>
-    <tableColumn id="888" xr3:uid="{491EE286-86B6-D948-B6A9-DD170EB0742A}" name="Column888"/>
-    <tableColumn id="889" xr3:uid="{34D5F959-5FE4-4141-8511-DD616DD537CF}" name="Column889"/>
-    <tableColumn id="890" xr3:uid="{2FBEBDFE-89FF-764B-8D3C-E714C926DA70}" name="Column890"/>
-    <tableColumn id="891" xr3:uid="{92CCE8C0-5317-0C49-B70B-DB117035C792}" name="Column891"/>
-    <tableColumn id="892" xr3:uid="{533A3807-D359-EE49-A74C-EDEA4EA808FD}" name="Column892"/>
-    <tableColumn id="893" xr3:uid="{DBDB0DCA-119A-BB45-A9D5-B72359D6E088}" name="Column893"/>
-    <tableColumn id="894" xr3:uid="{EE9D7022-4599-4742-82C3-58F3916811B6}" name="Column894"/>
-    <tableColumn id="895" xr3:uid="{44EA4D0D-F9D3-BE43-9425-4E8CEBF1B1F0}" name="Column895"/>
-    <tableColumn id="896" xr3:uid="{1421081A-3E9B-F846-BA43-BF15C3C1D704}" name="Column896"/>
-    <tableColumn id="897" xr3:uid="{2641F275-188D-2D4F-8B16-7360865786F8}" name="Column897"/>
-    <tableColumn id="898" xr3:uid="{BD82442F-EF57-DE4B-9A64-45A92568B84C}" name="Column898"/>
-    <tableColumn id="899" xr3:uid="{A2187248-FD68-FC4D-944A-EE2A8B8AE08A}" name="Column899"/>
-    <tableColumn id="900" xr3:uid="{4A28AF2A-1A9C-9845-8052-8FBBDD34E95F}" name="Column900"/>
-    <tableColumn id="901" xr3:uid="{5BAA228C-CEBC-1645-BF4C-48790739D0B7}" name="Column901"/>
-    <tableColumn id="902" xr3:uid="{C338AAED-C21B-3A49-971D-EF2D777C941F}" name="Column902"/>
-    <tableColumn id="903" xr3:uid="{A73174DA-E468-D147-B436-F5AB6BBA696A}" name="Column903"/>
-    <tableColumn id="904" xr3:uid="{7013812D-9D99-B348-8345-55B8CE03D277}" name="Column904"/>
-    <tableColumn id="905" xr3:uid="{3F4D9598-72F3-FC4D-9A2B-17AF6FEC3B2C}" name="Column905"/>
-    <tableColumn id="906" xr3:uid="{58915861-9609-704E-BEDE-4533B8F2C5BF}" name="Column906"/>
-    <tableColumn id="907" xr3:uid="{0A99337E-4022-694F-9624-98BA6278337E}" name="Column907"/>
-    <tableColumn id="908" xr3:uid="{B4324712-EC98-9341-8EE8-BCA0EE3AD231}" name="Column908"/>
-    <tableColumn id="909" xr3:uid="{884E134F-4E81-084D-8A58-BB875A58D549}" name="Column909"/>
-    <tableColumn id="910" xr3:uid="{3D0CA26E-BE4C-D445-B604-DE69DE7E5D60}" name="Column910"/>
-    <tableColumn id="911" xr3:uid="{C6B27674-20E0-0B48-AAA7-2B0308E8DCEA}" name="Column911"/>
-    <tableColumn id="912" xr3:uid="{550235FB-5FAA-8344-9F44-AC3C69D18EDB}" name="Column912"/>
-    <tableColumn id="913" xr3:uid="{9C3F7586-FBC7-5343-A5D9-669F41FE769D}" name="Column913"/>
-    <tableColumn id="914" xr3:uid="{0369F4FA-0E45-B648-9DC1-AE40AF17A211}" name="Column914"/>
-    <tableColumn id="915" xr3:uid="{38F12F22-3BCA-9C4E-BEE0-D7CDABD2B0CD}" name="Column915"/>
-    <tableColumn id="916" xr3:uid="{554287BD-6455-5547-B446-2C5C0788637F}" name="Column916"/>
-    <tableColumn id="917" xr3:uid="{FDCB045A-F334-D04E-A1B0-F4D184D152C0}" name="Column917"/>
-    <tableColumn id="918" xr3:uid="{1D94877C-D504-3448-B987-A5D8BFD8D86D}" name="Column918"/>
-    <tableColumn id="919" xr3:uid="{646DFF0C-A779-0A4B-B050-C49C34B27DFB}" name="Column919"/>
-    <tableColumn id="920" xr3:uid="{7F171477-EFF7-6247-9845-D51C41459DD6}" name="Column920"/>
-    <tableColumn id="921" xr3:uid="{1819C370-D4DB-1C4D-90F4-EA0EF2E7AC05}" name="Column921"/>
-    <tableColumn id="922" xr3:uid="{92AC74F6-5E8E-0E4A-9DB4-814CDA2F0AD4}" name="Column922"/>
-    <tableColumn id="923" xr3:uid="{06F409D1-D731-A342-93E7-6A6C2E24D3B8}" name="Column923"/>
-    <tableColumn id="924" xr3:uid="{0739B8A1-F636-E342-9D37-6EF25242D0EB}" name="Column924"/>
-    <tableColumn id="925" xr3:uid="{5F9ADEBD-4BEA-7149-A3B7-827360D939AF}" name="Column925"/>
-    <tableColumn id="926" xr3:uid="{C416BAEE-8EA9-E249-94AB-D975CF64A02B}" name="Column926"/>
-    <tableColumn id="927" xr3:uid="{E5300FA1-E0FB-AA41-9200-19E3018DF698}" name="Column927"/>
-    <tableColumn id="928" xr3:uid="{93160F74-5E47-CD4D-8E8D-7472E8F490D9}" name="Column928"/>
-    <tableColumn id="929" xr3:uid="{70D94A68-73CF-FC41-8605-2ABC26A103DF}" name="Column929"/>
-    <tableColumn id="930" xr3:uid="{1AC99340-B506-3640-B966-234F8B383556}" name="Column930"/>
-    <tableColumn id="931" xr3:uid="{8C05D9AF-154F-F54B-B024-57D17E29AEBD}" name="Column931"/>
-    <tableColumn id="932" xr3:uid="{33E1D5CD-0251-394F-8676-4A2FE83DE3D6}" name="Column932"/>
-    <tableColumn id="933" xr3:uid="{302C84C9-2C4B-CC4F-9A0E-C3D83853B1BF}" name="Column933"/>
-    <tableColumn id="934" xr3:uid="{55E0D9AC-2674-3141-BE06-A6A49D871668}" name="Column934"/>
-    <tableColumn id="935" xr3:uid="{A9814033-F777-F441-980E-0477F5BC9C2E}" name="Column935"/>
-    <tableColumn id="936" xr3:uid="{90CADC5F-AA3C-6347-A7D6-1E55C3F5CEFE}" name="Column936"/>
-    <tableColumn id="937" xr3:uid="{41857B3B-4EB9-5A42-8182-B91C80339CDC}" name="Column937"/>
-    <tableColumn id="938" xr3:uid="{A635BAA2-4C44-C847-8F42-E573718A3843}" name="Column938"/>
-    <tableColumn id="939" xr3:uid="{DF34B3A5-3B40-D045-8E2C-9DA87BF216CC}" name="Column939"/>
-    <tableColumn id="940" xr3:uid="{5D5E839A-BDD4-9F4B-B410-EA715E8956BB}" name="Column940"/>
-    <tableColumn id="941" xr3:uid="{69EC3BCF-EA1C-3F4D-A18F-F7C9D628723B}" name="Column941"/>
-    <tableColumn id="942" xr3:uid="{DD812988-1CEC-5346-A190-E9FAB227D00F}" name="Column942"/>
-    <tableColumn id="943" xr3:uid="{B40211B8-0FBE-DF42-8C89-E8389502940D}" name="Column943"/>
-    <tableColumn id="944" xr3:uid="{42177E24-A191-6441-9E23-D86D7AD52066}" name="Column944"/>
-    <tableColumn id="945" xr3:uid="{8DA08439-30C1-0B45-8AB0-FA0D85D8C901}" name="Column945"/>
-    <tableColumn id="946" xr3:uid="{CA9A5F9F-FAFD-3049-9B84-606099F67B71}" name="Column946"/>
-    <tableColumn id="947" xr3:uid="{AEA45914-C75E-2046-BF79-EA76A24FE3B6}" name="Column947"/>
-    <tableColumn id="948" xr3:uid="{4F494793-5B17-6044-8FD6-BF9B3EDB7179}" name="Column948"/>
-    <tableColumn id="949" xr3:uid="{0C8D82D2-CF0C-B54F-94C8-C56CB536D68B}" name="Column949"/>
-    <tableColumn id="950" xr3:uid="{81B0BB63-46F1-C840-B66E-4331547DEB94}" name="Column950"/>
-    <tableColumn id="951" xr3:uid="{3B3EEA73-02BD-5E42-9BDB-CC1B2D140840}" name="Column951"/>
-    <tableColumn id="952" xr3:uid="{444A85CF-9A7B-D94D-AC8D-C782133A05E8}" name="Column952"/>
-    <tableColumn id="953" xr3:uid="{1995790B-13FC-084C-8650-C9C99D418909}" name="Column953"/>
-    <tableColumn id="954" xr3:uid="{E0A4258E-82F0-1B4E-9384-ADEF5C59310E}" name="Column954"/>
-    <tableColumn id="955" xr3:uid="{6E4907AB-9AA7-8A4C-8300-2C11FE2414AF}" name="Column955"/>
-    <tableColumn id="956" xr3:uid="{7EECCE07-BB0E-534E-8D09-48B5FA5A4907}" name="Column956"/>
-    <tableColumn id="957" xr3:uid="{08E37614-B8F8-7F42-A91A-9C34FB5C8A36}" name="Column957"/>
-    <tableColumn id="958" xr3:uid="{6BE7612F-0A84-5A43-83EB-EFD33F1A0CCD}" name="Column958"/>
-    <tableColumn id="959" xr3:uid="{D70381B4-0160-C449-9115-EFCD9C847900}" name="Column959"/>
-    <tableColumn id="960" xr3:uid="{5F753D46-5C32-D047-9EE8-CD8149BA96C8}" name="Column960"/>
-    <tableColumn id="961" xr3:uid="{4AC388E4-4FA1-134F-981E-6F9B58106D03}" name="Column961"/>
-    <tableColumn id="962" xr3:uid="{FD4FCC6E-FC34-F049-9EF3-12F43EA789CD}" name="Column962"/>
-    <tableColumn id="963" xr3:uid="{81B74030-2830-2F40-99EE-2A1D9B20430F}" name="Column963"/>
-    <tableColumn id="964" xr3:uid="{232A463A-BF4B-FC4E-80E9-DCB50F9A9490}" name="Column964"/>
-    <tableColumn id="965" xr3:uid="{7E988459-D56F-A647-86BA-D765F06F09C7}" name="Column965"/>
-    <tableColumn id="966" xr3:uid="{51B3B889-380C-1349-851A-16EE104C1DB7}" name="Column966"/>
-    <tableColumn id="967" xr3:uid="{61929EF0-DCA2-E342-8F3F-A000D5979443}" name="Column967"/>
-    <tableColumn id="968" xr3:uid="{D0E1F29B-4B2E-2A44-B6E7-A71C89DAE80A}" name="Column968"/>
-    <tableColumn id="969" xr3:uid="{2682B00F-EB88-754E-B0E8-0BCBBB04E0C0}" name="Column969"/>
-    <tableColumn id="970" xr3:uid="{B1519D47-A3E3-A643-BF35-B450C7B6A28B}" name="Column970"/>
-    <tableColumn id="971" xr3:uid="{61435454-09E4-FC40-8821-7A5277EA8A02}" name="Column971"/>
-    <tableColumn id="972" xr3:uid="{76A16CF0-6C66-B144-B622-4A7326A5FE29}" name="Column972"/>
-    <tableColumn id="973" xr3:uid="{D307FE15-2867-0049-B9AD-2787084E797C}" name="Column973"/>
-    <tableColumn id="974" xr3:uid="{88417A71-8BB5-1E42-925E-B88A8B3FBD04}" name="Column974"/>
-    <tableColumn id="975" xr3:uid="{28125607-4771-EF48-8F83-31A32477BE47}" name="Column975"/>
-    <tableColumn id="976" xr3:uid="{99DC41A8-7474-4449-8BBD-E394A11ED63F}" name="Column976"/>
-    <tableColumn id="977" xr3:uid="{490CDB69-E28B-A14F-921D-AF143898C269}" name="Column977"/>
-    <tableColumn id="978" xr3:uid="{B3112CC6-27AF-9741-ACE1-80392BB1911C}" name="Column978"/>
-    <tableColumn id="979" xr3:uid="{948406BB-5AFA-C340-A24D-EC78B87BFD98}" name="Column979"/>
-    <tableColumn id="980" xr3:uid="{654F31F1-D4AC-1F4F-8710-9D7D8521F033}" name="Column980"/>
-    <tableColumn id="981" xr3:uid="{1AFD3471-F363-7C44-A881-43FAD2BEF3FE}" name="Column981"/>
-    <tableColumn id="982" xr3:uid="{C3112CCA-00C0-BC43-9333-911C1C5A1EE3}" name="Column982"/>
-    <tableColumn id="983" xr3:uid="{3A333806-6E2D-0F4A-8F0B-AFAB613198DC}" name="Column983"/>
-    <tableColumn id="984" xr3:uid="{3A000A6C-3401-DC4F-9D7D-0CD78547FF97}" name="Column984"/>
-    <tableColumn id="985" xr3:uid="{AB4861A7-4641-754E-AA44-7CD697994E86}" name="Column985"/>
-    <tableColumn id="986" xr3:uid="{CFD845B1-4739-4644-B101-607033A2392D}" name="Column986"/>
-    <tableColumn id="987" xr3:uid="{A2A053D3-A349-354B-9550-88F3EAD82C4E}" name="Column987"/>
-    <tableColumn id="988" xr3:uid="{09167479-FC2E-134E-B773-4697CA9C266B}" name="Column988"/>
-    <tableColumn id="989" xr3:uid="{AB2B5921-EDD8-0B44-841C-707AEEB9D086}" name="Column989"/>
-    <tableColumn id="990" xr3:uid="{94481182-D350-354B-8B1E-846ED16638FA}" name="Column990"/>
-    <tableColumn id="991" xr3:uid="{EF90C10D-04D6-F841-A1EC-2147D671616A}" name="Column991"/>
-    <tableColumn id="992" xr3:uid="{276DBFAE-778D-B949-92CC-93F8D269EB3B}" name="Column992"/>
-    <tableColumn id="993" xr3:uid="{55330976-B479-C94B-BB7A-84C0BB288CE1}" name="Column993"/>
-    <tableColumn id="994" xr3:uid="{D833BA80-3592-4B4A-84EF-E97A892C9DC6}" name="Column994"/>
-    <tableColumn id="995" xr3:uid="{F2F74C46-ACDD-3D46-839A-D6C752072026}" name="Column995"/>
-    <tableColumn id="996" xr3:uid="{5D0A1875-973F-3941-9CC2-75EFBF4C0132}" name="Column996"/>
-    <tableColumn id="997" xr3:uid="{B720F882-E423-2C48-ACD8-9953B05EC990}" name="Column997"/>
-    <tableColumn id="998" xr3:uid="{EA6E1A91-D6A4-0540-8E3E-BF1730DF7F16}" name="Column998"/>
-    <tableColumn id="999" xr3:uid="{6D9155FC-CCCA-A34C-BBFB-BC12ED79469F}" name="Column999"/>
-    <tableColumn id="1000" xr3:uid="{156F30BA-79C3-5840-A3E9-76321B4BF7BF}" name="Column1000"/>
-    <tableColumn id="1001" xr3:uid="{3072BDEB-C938-1148-8C69-3FA392B6EA20}" name="Column1001"/>
-    <tableColumn id="1002" xr3:uid="{97C3C8E9-9963-B24A-AADE-470B480DD936}" name="Column1002"/>
-    <tableColumn id="1003" xr3:uid="{49099769-1CEA-7A41-9DDC-D90847817637}" name="Column1003"/>
-    <tableColumn id="1004" xr3:uid="{520298AD-A494-E44D-9CB9-5ACFF2FD4F10}" name="Column1004"/>
-    <tableColumn id="1005" xr3:uid="{1E0CBB62-0177-9843-ACA8-18E09DB1EC77}" name="Column1005"/>
-    <tableColumn id="1006" xr3:uid="{BAD39E49-3C7A-024D-972D-920C07A165D5}" name="Column1006"/>
-    <tableColumn id="1007" xr3:uid="{565E5285-77C6-EB4F-8DAC-6B9B0C2E2E1A}" name="Column1007"/>
-    <tableColumn id="1008" xr3:uid="{91413523-015A-474A-B947-60273EB8CC9E}" name="Column1008"/>
-    <tableColumn id="1009" xr3:uid="{325DF0DD-8C51-8D47-BBB8-AE73C69611DE}" name="Column1009"/>
-    <tableColumn id="1010" xr3:uid="{040162D1-77FE-CD49-844A-3B0881E504F0}" name="Column1010"/>
-    <tableColumn id="1011" xr3:uid="{070DC722-786A-654E-A521-B86FC0863B8F}" name="Column1011"/>
-    <tableColumn id="1012" xr3:uid="{EE2FD03C-BD53-E44A-920D-63C9E8C7D34E}" name="Column1012"/>
-    <tableColumn id="1013" xr3:uid="{77D9B011-F660-D042-BC0B-844A6BD6E9AF}" name="Column1013"/>
-    <tableColumn id="1014" xr3:uid="{2EC3D055-7B8F-934D-BC53-4A0701C8AD4E}" name="Column1014"/>
-    <tableColumn id="1015" xr3:uid="{1A95F37A-B2F0-EF4D-833E-A7C6E46E1970}" name="Column1015"/>
-    <tableColumn id="1016" xr3:uid="{A6608D98-9A18-6141-A515-0DB1D3E3EB8A}" name="Column1016"/>
-    <tableColumn id="1017" xr3:uid="{631BADD2-67CE-4149-A67D-148E5CE35753}" name="Column1017"/>
-    <tableColumn id="1018" xr3:uid="{585825C3-B770-A046-BC0C-DE6C1A276F30}" name="Column1018"/>
-    <tableColumn id="1019" xr3:uid="{8CDDDC64-50DE-7A42-ADC0-B0EC0A46BFCB}" name="Column1019"/>
-    <tableColumn id="1020" xr3:uid="{0E77EDC0-A3EF-2D4B-9FEF-B662A8AFE304}" name="Column1020"/>
-    <tableColumn id="1021" xr3:uid="{A79742F2-BD7C-6945-BC64-FF182C40A3C1}" name="Column1021"/>
-    <tableColumn id="1022" xr3:uid="{9333CBB4-66C0-0742-A126-A2F3AA1E9CFD}" name="Column1022"/>
-    <tableColumn id="1023" xr3:uid="{B930DB3F-06FA-BC47-A2BF-D57D2F6BFAA1}" name="Column1023"/>
-    <tableColumn id="1024" xr3:uid="{5631EB1C-7C36-1947-9A43-B49C78B337E5}" name="Column1024"/>
+    <tableColumn id="1" xr3:uid="{378642E7-3D01-1F4F-BB98-16762E49D227}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{1C63304D-AE13-164F-BF5F-ADF0059F4836}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{82D97FB9-9D26-3847-B12A-6469FD1F67F6}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{A7DA4786-8A65-684E-B790-567DE995521D}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{14682CC6-7DBE-9D42-86E2-52E40E72F375}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{BAF9DBA5-4D8F-A34A-BBC3-7B4B6251064D}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{77F7CF04-5C5B-CC4C-ACFC-50338179B36B}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{90074DCE-A55D-EB41-A598-2ED2E01429D7}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{83B5772E-8223-324F-9BB5-572B12B09821}" name="Column9"/>
+    <tableColumn id="10" xr3:uid="{51DD19BA-8545-6942-80FA-9C7F0DAA5B9E}" name="Column10"/>
+    <tableColumn id="11" xr3:uid="{45DFEB02-6588-AB4E-B083-B2A4087A34DA}" name="Column11"/>
+    <tableColumn id="12" xr3:uid="{8E9F0C67-1CB0-5543-8B15-455CFD2447BA}" name="Column12"/>
+    <tableColumn id="13" xr3:uid="{76DC9DA9-3C5F-8C46-9A7B-36491BCDBF7A}" name="Column13"/>
+    <tableColumn id="14" xr3:uid="{23B55BB0-B1DB-C14B-9B46-AD4AABDA9021}" name="Column14"/>
+    <tableColumn id="15" xr3:uid="{006C930A-A8EA-594B-842E-79750AC9AB66}" name="Column15"/>
+    <tableColumn id="16" xr3:uid="{ABA8DE39-D336-684C-A843-A5C564E719AC}" name="Column16"/>
+    <tableColumn id="17" xr3:uid="{A10DCF89-BAD9-524B-8CD7-AF92B7910E3D}" name="Column17"/>
+    <tableColumn id="18" xr3:uid="{DBCDF336-9E12-E243-8649-1D9BCE4724AB}" name="Column18"/>
+    <tableColumn id="19" xr3:uid="{E384C241-106A-2046-9182-1AA49CDE65D2}" name="Column19"/>
+    <tableColumn id="20" xr3:uid="{337A8BC9-EF82-8A41-8366-B3DFCAC02EF0}" name="Column20"/>
+    <tableColumn id="21" xr3:uid="{D572D165-D33A-C342-A7F9-489F827AF4FF}" name="Column21"/>
+    <tableColumn id="22" xr3:uid="{76F74E92-AC2B-B648-BF8A-14DF880B51FB}" name="Column22"/>
+    <tableColumn id="23" xr3:uid="{D2836E05-BF9F-664C-AC47-3CB3656377B5}" name="Column23"/>
+    <tableColumn id="24" xr3:uid="{9F2C43DA-B6E0-9648-BDDB-36161AF1636C}" name="Column24"/>
+    <tableColumn id="25" xr3:uid="{F8D8DF74-FA19-9D42-A9E8-B41573B98653}" name="Column25"/>
+    <tableColumn id="26" xr3:uid="{76D95FFC-6C84-2E4D-9A34-4B292B0EB001}" name="Column26"/>
+    <tableColumn id="27" xr3:uid="{5B747561-154E-D84B-BF16-BBB3E4DF412B}" name="Column27"/>
+    <tableColumn id="28" xr3:uid="{997F00DF-31EE-7046-97C1-63CEFC02359D}" name="Column28"/>
+    <tableColumn id="29" xr3:uid="{526BC0ED-C63A-5944-A4B6-6F09B94783C5}" name="Column29"/>
+    <tableColumn id="30" xr3:uid="{9F29CEF6-3600-3F41-8814-3A04DFE7B182}" name="Column30"/>
+    <tableColumn id="31" xr3:uid="{AD319B5A-B9BC-194B-9C61-187792ECDBC5}" name="Column31"/>
+    <tableColumn id="32" xr3:uid="{DBCF4502-B5C1-F047-AE3A-F61310F6F6BA}" name="Column32"/>
+    <tableColumn id="33" xr3:uid="{6962D52E-D9FB-D34F-86D6-651FC026003B}" name="Column33"/>
+    <tableColumn id="34" xr3:uid="{029D0AC4-ED84-9E45-9661-EF8BB0E4F767}" name="Column34"/>
+    <tableColumn id="35" xr3:uid="{394DC87E-0F0D-DD44-A7AD-CE0EA45CF2B2}" name="Column35"/>
+    <tableColumn id="36" xr3:uid="{358D7892-9936-D049-A88D-D6CA8491DDA9}" name="Column36"/>
+    <tableColumn id="37" xr3:uid="{6A5C3DB3-2736-8A49-A721-F5E9C6CAD677}" name="Column37"/>
+    <tableColumn id="38" xr3:uid="{848B940F-73D4-C741-BA9F-460F613B6A05}" name="Column38"/>
+    <tableColumn id="39" xr3:uid="{4270236C-E1C6-6841-9F0F-A936F4E3214E}" name="Column39"/>
+    <tableColumn id="40" xr3:uid="{E4394320-E0FB-D54E-A4D6-23EDB1E679C2}" name="Column40"/>
+    <tableColumn id="41" xr3:uid="{300625D8-C124-F241-B10A-41B876694F72}" name="Column41"/>
+    <tableColumn id="42" xr3:uid="{12A38A91-305E-7D43-B4F8-A18D5B93F730}" name="Column42"/>
+    <tableColumn id="43" xr3:uid="{01850180-DD0E-0842-A336-4C4485926F4B}" name="Column43"/>
+    <tableColumn id="44" xr3:uid="{7EA26C80-0850-004F-B473-93D178BDC399}" name="Column44"/>
+    <tableColumn id="45" xr3:uid="{4391C918-849E-BB4A-B925-98EF6AF617CF}" name="Column45"/>
+    <tableColumn id="46" xr3:uid="{92115074-6256-2C4B-A2B9-FBCD0F6E9922}" name="Column46"/>
+    <tableColumn id="47" xr3:uid="{0A5322EC-16AC-C646-8D81-2B363C934E70}" name="Column47"/>
+    <tableColumn id="48" xr3:uid="{F4656EFF-F1AA-304B-99F5-EF607E6A47C4}" name="Column48"/>
+    <tableColumn id="49" xr3:uid="{17F19CBC-ADA0-E44B-8508-CCAE94D65D7E}" name="Column49"/>
+    <tableColumn id="50" xr3:uid="{B4853967-67D2-4E48-B1B8-AAE273CDAD9B}" name="Column50"/>
+    <tableColumn id="51" xr3:uid="{67B2DD0C-9AC1-D048-9D47-3D1C44B18543}" name="Column51"/>
+    <tableColumn id="52" xr3:uid="{D7359D48-4818-5E4E-9E52-C35734CB234F}" name="Column52"/>
+    <tableColumn id="53" xr3:uid="{ABFB95A9-5EA6-EB45-B758-F1A1ED69F224}" name="Column53"/>
+    <tableColumn id="54" xr3:uid="{56090049-249D-3942-8BFB-3E58CA084CB9}" name="Column54"/>
+    <tableColumn id="55" xr3:uid="{68EA3ADC-70A2-BE4A-9E1C-ABAE1D32FBB8}" name="Column55"/>
+    <tableColumn id="56" xr3:uid="{296ABC96-F0F6-A246-AC15-4E9B2B610661}" name="Column56"/>
+    <tableColumn id="57" xr3:uid="{9D28E113-8800-344C-AAF8-B1815AD34C46}" name="Column57"/>
+    <tableColumn id="58" xr3:uid="{FC76F986-39CC-764F-A3AE-DEB52952C163}" name="Column58"/>
+    <tableColumn id="59" xr3:uid="{526797EE-5499-6E44-80E6-82BDA6BCC18A}" name="Column59"/>
+    <tableColumn id="60" xr3:uid="{2CFB50A9-79F8-6640-B3C8-D98657287C10}" name="Column60"/>
+    <tableColumn id="61" xr3:uid="{5B3E78E8-BD48-9646-A920-249DD0AE9DEE}" name="Column61"/>
+    <tableColumn id="62" xr3:uid="{E231DEAE-E72B-934E-8A15-2A67A3FECCBD}" name="Column62"/>
+    <tableColumn id="63" xr3:uid="{74ED9EAC-0640-E444-B3D0-87AD2052E2CF}" name="Column63"/>
+    <tableColumn id="64" xr3:uid="{6E91F610-F1B3-C44A-A0F1-FBF12DAE697C}" name="Column64"/>
+    <tableColumn id="65" xr3:uid="{B30685C8-F0F3-5D4F-9C34-0429D1365F8E}" name="Column65"/>
+    <tableColumn id="66" xr3:uid="{CEF0BB2B-13A2-8E49-8486-AC99302165E0}" name="Column66"/>
+    <tableColumn id="67" xr3:uid="{CD8F9A58-4BA8-B248-B311-C2661AE9ACAA}" name="Column67"/>
+    <tableColumn id="68" xr3:uid="{9B150EFF-4CD1-B740-8B18-ACBFF1CC4FE8}" name="Column68"/>
+    <tableColumn id="69" xr3:uid="{5CAAA9AD-6589-724C-8994-D7568F4E8760}" name="Column69"/>
+    <tableColumn id="70" xr3:uid="{465E84AE-9538-DA44-A646-E6ACE993D41A}" name="Column70"/>
+    <tableColumn id="71" xr3:uid="{0C89D467-0A1F-2041-933D-88DE504A2DF2}" name="Column71"/>
+    <tableColumn id="72" xr3:uid="{A7CDFE8C-94B9-9142-A670-394654190CAD}" name="Column72"/>
+    <tableColumn id="73" xr3:uid="{52ED3411-C58E-3B4B-901D-169443459E58}" name="Column73"/>
+    <tableColumn id="74" xr3:uid="{50B4EA43-F3C1-C946-8B6E-07E76E5065A5}" name="Column74"/>
+    <tableColumn id="75" xr3:uid="{6F99DE20-5640-0545-BD77-4267ED2F2099}" name="Column75"/>
+    <tableColumn id="76" xr3:uid="{2DA76E87-3004-624D-8665-171F488A8818}" name="Column76"/>
+    <tableColumn id="77" xr3:uid="{EB25F8B4-B8FE-8545-A9DF-B1A667819366}" name="Column77"/>
+    <tableColumn id="78" xr3:uid="{2DEB2CBC-B0FB-0C4B-8611-B4DA95E39E7C}" name="Column78"/>
+    <tableColumn id="79" xr3:uid="{F00A56EF-6FA2-EA47-A0E7-E20196F7D930}" name="Column79"/>
+    <tableColumn id="80" xr3:uid="{BEC064B4-0295-604C-B8A3-BC047CCFB05A}" name="Column80"/>
+    <tableColumn id="81" xr3:uid="{A0404417-04EB-5543-A067-5AE729DD3D33}" name="Column81"/>
+    <tableColumn id="82" xr3:uid="{BC0332B3-1A1B-8D47-AE97-D6C0E1B3A84F}" name="Column82"/>
+    <tableColumn id="83" xr3:uid="{755FDBC0-8EF7-3741-BF46-8B49A7CF5DE3}" name="Column83"/>
+    <tableColumn id="84" xr3:uid="{5FF3DE66-744F-3F4C-BF93-D83099FF3104}" name="Column84"/>
+    <tableColumn id="85" xr3:uid="{9F795BB6-45D9-F047-975E-7E30D795D026}" name="Column85"/>
+    <tableColumn id="86" xr3:uid="{602E1F44-2E78-AC4C-954F-C4BB57E1D923}" name="Column86"/>
+    <tableColumn id="87" xr3:uid="{570621D6-0A4E-C84E-865F-179BC40FB53D}" name="Column87"/>
+    <tableColumn id="88" xr3:uid="{7F91C89C-0A46-414C-9D80-092D108D04D2}" name="Column88"/>
+    <tableColumn id="89" xr3:uid="{6B30865D-269A-8440-B4A8-7EB104B2EC3E}" name="Column89"/>
+    <tableColumn id="90" xr3:uid="{65AC43A1-E41C-A34F-99B0-2BB3652413A6}" name="Column90"/>
+    <tableColumn id="91" xr3:uid="{8B1699F3-F1A5-FF47-B3A6-78A845D73F21}" name="Column91"/>
+    <tableColumn id="92" xr3:uid="{7FBD42DA-508C-4A49-9973-D0FC732C5A1B}" name="Column92"/>
+    <tableColumn id="93" xr3:uid="{79EB402E-2F6F-5A48-98C2-16A4B2F0C30F}" name="Column93"/>
+    <tableColumn id="94" xr3:uid="{CE549C8A-C390-5E44-93CE-F451E51666D9}" name="Column94"/>
+    <tableColumn id="95" xr3:uid="{35768C9F-A9BF-BA41-B219-8E712D39CBD9}" name="Column95"/>
+    <tableColumn id="96" xr3:uid="{0586D6B8-C4B0-7841-A864-62780714817B}" name="Column96"/>
+    <tableColumn id="97" xr3:uid="{DE26E81D-2811-5C49-9654-6438C2F46233}" name="Column97"/>
+    <tableColumn id="98" xr3:uid="{206997C1-18B3-D748-B2A2-EB6E3CC03464}" name="Column98"/>
+    <tableColumn id="99" xr3:uid="{26892480-3C1B-FF45-B5AC-A4D2F23FC7DD}" name="Column99"/>
+    <tableColumn id="100" xr3:uid="{FBE6A362-716A-C943-B0AF-6B69D32D6E98}" name="Column100"/>
+    <tableColumn id="101" xr3:uid="{5B72980D-3479-274F-A8DD-639115E8577C}" name="Column101"/>
+    <tableColumn id="102" xr3:uid="{B25F056C-DD9C-4B42-89D7-543858F4E4EA}" name="Column102"/>
+    <tableColumn id="103" xr3:uid="{FF728925-038F-044D-BD19-63AAA6B985E6}" name="Column103"/>
+    <tableColumn id="104" xr3:uid="{DADD9FD7-7304-7648-88E8-CB40647DBE55}" name="Column104"/>
+    <tableColumn id="105" xr3:uid="{BFBAA597-B174-1B4F-AAE8-CB1FEF53F644}" name="Column105"/>
+    <tableColumn id="106" xr3:uid="{4DCC3B9E-3078-8146-B919-232B9D89F37E}" name="Column106"/>
+    <tableColumn id="107" xr3:uid="{CE204622-CB26-AD4B-8C9E-187413CCFF87}" name="Column107"/>
+    <tableColumn id="108" xr3:uid="{CD3443F1-7075-0D4B-AA4F-246A8ECFF615}" name="Column108"/>
+    <tableColumn id="109" xr3:uid="{368352F6-1063-F34B-A944-B3DA7A768CF4}" name="Column109"/>
+    <tableColumn id="110" xr3:uid="{1015B0B2-E07E-EB4C-8222-8D119158BC9C}" name="Column110"/>
+    <tableColumn id="111" xr3:uid="{84C53291-8951-C042-B681-5FE60A797D38}" name="Column111"/>
+    <tableColumn id="112" xr3:uid="{5A8C7E7C-F542-3242-B8DC-578FE187EE45}" name="Column112"/>
+    <tableColumn id="113" xr3:uid="{552354AC-D29A-D247-A80A-2C92CB8A434E}" name="Column113"/>
+    <tableColumn id="114" xr3:uid="{E686B1A8-6225-9C45-B773-6CD45A9F188F}" name="Column114"/>
+    <tableColumn id="115" xr3:uid="{2EA9A35C-21E2-964E-BC27-A14AFCEA67DE}" name="Column115"/>
+    <tableColumn id="116" xr3:uid="{11B8D244-88FB-494D-B8A5-AAF37D96ED79}" name="Column116"/>
+    <tableColumn id="117" xr3:uid="{B7AFDBA4-BBFD-0A4B-9449-18ADEFA6E61D}" name="Column117"/>
+    <tableColumn id="118" xr3:uid="{4F1EA8FB-3F2B-CA43-B170-DBE6B14A467A}" name="Column118"/>
+    <tableColumn id="119" xr3:uid="{CC1F5B6E-11AE-4347-A21E-83CB10586D7C}" name="Column119"/>
+    <tableColumn id="120" xr3:uid="{6D5A5250-17D9-FD4D-B615-F4DF296EB4AB}" name="Column120"/>
+    <tableColumn id="121" xr3:uid="{226D783D-07E4-7641-AAFC-0BDC8E86B231}" name="Column121"/>
+    <tableColumn id="122" xr3:uid="{946F5525-0861-A546-BA6F-EB6675BB549F}" name="Column122"/>
+    <tableColumn id="123" xr3:uid="{3089D410-4044-8A4A-9C3C-BC47A6CEF1C9}" name="Column123"/>
+    <tableColumn id="124" xr3:uid="{76087CF6-34B9-6945-8104-539BAC5E5154}" name="Column124"/>
+    <tableColumn id="125" xr3:uid="{04F9F608-1B5D-A743-8A8B-1EE6A8EBAA8D}" name="Column125"/>
+    <tableColumn id="126" xr3:uid="{9AB5B5A2-889A-A64A-A909-078D0CE7389C}" name="Column126"/>
+    <tableColumn id="127" xr3:uid="{5195DD29-0EC9-7E4A-80E2-BCF31806F536}" name="Column127"/>
+    <tableColumn id="128" xr3:uid="{F234290C-756B-6142-887E-3D1186B0A573}" name="Column128"/>
+    <tableColumn id="129" xr3:uid="{C5507663-5795-7548-A254-AFD93B8BA1F7}" name="Column129"/>
+    <tableColumn id="130" xr3:uid="{DEECA8D4-903D-4F4A-95BD-1E5D3ACC6108}" name="Column130"/>
+    <tableColumn id="131" xr3:uid="{307E14D4-D65C-E347-A498-20807A599A43}" name="Column131"/>
+    <tableColumn id="132" xr3:uid="{6C437095-55E8-824B-86B6-3E263BF5325D}" name="Column132"/>
+    <tableColumn id="133" xr3:uid="{1CABE233-DDF0-4347-9FBB-06362873DFFB}" name="Column133"/>
+    <tableColumn id="134" xr3:uid="{1E7ADABB-8E8F-3C46-BC2D-E8417AC7FF27}" name="Column134"/>
+    <tableColumn id="135" xr3:uid="{EE9AE4E4-A4DD-E744-8CCB-CFFC1B8EFD91}" name="Column135"/>
+    <tableColumn id="136" xr3:uid="{637B0051-F80A-F24C-B37E-BCF508BA1A5B}" name="Column136"/>
+    <tableColumn id="137" xr3:uid="{C3C82BB2-0332-A44F-A8F0-EE0BFD67F1B1}" name="Column137"/>
+    <tableColumn id="138" xr3:uid="{BF8383A1-CEA8-534C-AF1F-6C17BD6BD693}" name="Column138"/>
+    <tableColumn id="139" xr3:uid="{913AA676-8B9F-4A41-A094-D06A64F838CB}" name="Column139"/>
+    <tableColumn id="140" xr3:uid="{D34A4BA9-3921-B04D-95E0-74BE0BE31D5D}" name="Column140"/>
+    <tableColumn id="141" xr3:uid="{15EB6D63-A7DF-314D-BC77-0B839F0CFA3D}" name="Column141"/>
+    <tableColumn id="142" xr3:uid="{73B3253C-3DA1-754D-92E5-25D6D036653F}" name="Column142"/>
+    <tableColumn id="143" xr3:uid="{51395142-7C8B-E546-9357-4A42C14F40D7}" name="Column143"/>
+    <tableColumn id="144" xr3:uid="{DA55B309-062A-BA49-888A-3CB1FD7677DD}" name="Column144"/>
+    <tableColumn id="145" xr3:uid="{4E3D5680-102D-2642-A218-50CC449AF7DC}" name="Column145"/>
+    <tableColumn id="146" xr3:uid="{6EEFE1B8-7B7A-6843-9A10-C50792E5CFED}" name="Column146"/>
+    <tableColumn id="147" xr3:uid="{6DD19B9D-243C-0746-B930-0E3891C9EDA9}" name="Column147"/>
+    <tableColumn id="148" xr3:uid="{81369B25-DC33-2E46-8352-24187CBEAFB3}" name="Column148"/>
+    <tableColumn id="149" xr3:uid="{83E716D6-D845-DB48-85FE-D50C69180DE9}" name="Column149"/>
+    <tableColumn id="150" xr3:uid="{7D76C372-19EE-0C43-93A8-7EFF3D0B018F}" name="Column150"/>
+    <tableColumn id="151" xr3:uid="{1916DC7C-554E-5B43-BDA4-8484710ECA0D}" name="Column151"/>
+    <tableColumn id="152" xr3:uid="{8DBE97AE-498E-084B-B9A8-3698E05E3B9B}" name="Column152"/>
+    <tableColumn id="153" xr3:uid="{FCCE9BD6-6F81-5140-9C43-70EA3A0259A7}" name="Column153"/>
+    <tableColumn id="154" xr3:uid="{87C7C83B-5152-A149-91F1-4F2D3F1D500C}" name="Column154"/>
+    <tableColumn id="155" xr3:uid="{8E1215EE-4897-D943-8C67-302771AE28C8}" name="Column155"/>
+    <tableColumn id="156" xr3:uid="{9B968181-44D2-4B4B-B8D5-F9D70EA4EEEE}" name="Column156"/>
+    <tableColumn id="157" xr3:uid="{143DBCA4-8FB1-AB47-8C59-AD0DF1452FCC}" name="Column157"/>
+    <tableColumn id="158" xr3:uid="{5658FB75-EA02-3544-A4B3-2372D200DC1F}" name="Column158"/>
+    <tableColumn id="159" xr3:uid="{22832E33-131E-734E-8572-02BC1E855102}" name="Column159"/>
+    <tableColumn id="160" xr3:uid="{086C5425-2E02-D840-906C-7B7C21823B91}" name="Column160"/>
+    <tableColumn id="161" xr3:uid="{2D19E96E-C09F-C242-AD49-A91E6D0E3111}" name="Column161"/>
+    <tableColumn id="162" xr3:uid="{EE98C18C-807E-724B-9FC3-0E20DD23F851}" name="Column162"/>
+    <tableColumn id="163" xr3:uid="{840EA39D-45F2-0B4E-BD96-79FED488AD17}" name="Column163"/>
+    <tableColumn id="164" xr3:uid="{3C3651C4-D22C-084A-B594-F87F5BE210C3}" name="Column164"/>
+    <tableColumn id="165" xr3:uid="{106FE89B-6248-8947-B170-79D617606F4F}" name="Column165"/>
+    <tableColumn id="166" xr3:uid="{49175C11-4BFE-E840-B107-7A7995B33A6E}" name="Column166"/>
+    <tableColumn id="167" xr3:uid="{C2558999-EE87-3E41-97BF-49B4BE87B2B5}" name="Column167"/>
+    <tableColumn id="168" xr3:uid="{E67434DF-1B4E-894A-80B1-AFFD9E30BA5F}" name="Column168"/>
+    <tableColumn id="169" xr3:uid="{6E599CB0-6DBA-0F44-9C95-B867D4C79492}" name="Column169"/>
+    <tableColumn id="170" xr3:uid="{FF6E9301-867B-E745-98FE-1A62F6D39026}" name="Column170"/>
+    <tableColumn id="171" xr3:uid="{F3114576-D024-9849-B06B-85396E856225}" name="Column171"/>
+    <tableColumn id="172" xr3:uid="{DDDA0470-024F-1842-8C74-939260EC2C6D}" name="Column172"/>
+    <tableColumn id="173" xr3:uid="{EDB590A1-0A19-A04C-A5BC-FB9D91CA7C52}" name="Column173"/>
+    <tableColumn id="174" xr3:uid="{FA7A0AFD-4BE6-2A4D-992B-C5534EEE9DCE}" name="Column174"/>
+    <tableColumn id="175" xr3:uid="{CE4145EE-883A-0B40-9BBE-06002E016210}" name="Column175"/>
+    <tableColumn id="176" xr3:uid="{C392BDF7-7A7B-B340-B630-19CD30053286}" name="Column176"/>
+    <tableColumn id="177" xr3:uid="{42C36D76-710F-B449-B9E1-D440286F0826}" name="Column177"/>
+    <tableColumn id="178" xr3:uid="{B13942AA-23BD-A24E-A9F4-99DC52FDB06D}" name="Column178"/>
+    <tableColumn id="179" xr3:uid="{455FCEF8-0D3A-2249-B4B8-976B9BC382FF}" name="Column179"/>
+    <tableColumn id="180" xr3:uid="{DEDE8F8C-BC2D-EA47-95B6-EB3544F6C3A8}" name="Column180"/>
+    <tableColumn id="181" xr3:uid="{13949A40-3BA3-EA46-AA4B-FA5FED1C606A}" name="Column181"/>
+    <tableColumn id="182" xr3:uid="{CFF4E45D-28E5-0E4D-B0D6-8BF0B73B8EA4}" name="Column182"/>
+    <tableColumn id="183" xr3:uid="{0922C601-2B4E-9848-85DA-60F9FBE3B8D5}" name="Column183"/>
+    <tableColumn id="184" xr3:uid="{4B48EEF3-0B4B-5849-8D06-1767C5F15BEC}" name="Column184"/>
+    <tableColumn id="185" xr3:uid="{CE50DA45-6962-2143-B1AC-4543FD351199}" name="Column185"/>
+    <tableColumn id="186" xr3:uid="{2ECAD118-405B-A944-83AF-301F3065F169}" name="Column186"/>
+    <tableColumn id="187" xr3:uid="{C8DCC463-FC2D-7841-A107-93299C232A27}" name="Column187"/>
+    <tableColumn id="188" xr3:uid="{E65C1115-7387-5641-B2C2-78B315ABC904}" name="Column188"/>
+    <tableColumn id="189" xr3:uid="{A0B77639-6451-7E4E-98B7-2AC3B1E8B4D6}" name="Column189"/>
+    <tableColumn id="190" xr3:uid="{E9A6A8DC-DC06-724C-BB28-C62DD674D661}" name="Column190"/>
+    <tableColumn id="191" xr3:uid="{E7D305FC-5776-9D44-84DC-3BB88175ACF3}" name="Column191"/>
+    <tableColumn id="192" xr3:uid="{23847FA7-90A1-4748-B932-999162D8FA24}" name="Column192"/>
+    <tableColumn id="193" xr3:uid="{00C92E63-94B6-9E45-8B34-7C9A2013B1B9}" name="Column193"/>
+    <tableColumn id="194" xr3:uid="{EB64ACA5-89E2-B04D-9930-8AA67DCB270F}" name="Column194"/>
+    <tableColumn id="195" xr3:uid="{1F0B6EC3-8163-DC45-B6D1-291852919700}" name="Column195"/>
+    <tableColumn id="196" xr3:uid="{D2E9AC6E-E8B9-9F48-A9F0-C7EB870B7A2A}" name="Column196"/>
+    <tableColumn id="197" xr3:uid="{84D94A03-FA16-7B4B-84E3-00CEB9EC00D7}" name="Column197"/>
+    <tableColumn id="198" xr3:uid="{63E8DB52-2B1B-8B42-BCBA-53FAB506F4DC}" name="Column198"/>
+    <tableColumn id="199" xr3:uid="{552DF119-EE90-1A4A-8859-D65C046E766F}" name="Column199"/>
+    <tableColumn id="200" xr3:uid="{C0C1088B-4022-AC44-B898-AA1878B6C95F}" name="Column200"/>
+    <tableColumn id="201" xr3:uid="{2D8174A9-BCED-E640-8B6B-A3BC14121AE3}" name="Column201"/>
+    <tableColumn id="202" xr3:uid="{01257834-AA28-3949-9992-E76413AFD755}" name="Column202"/>
+    <tableColumn id="203" xr3:uid="{72EB6BC2-33E4-D343-ADA4-9B390C41CB4E}" name="Column203"/>
+    <tableColumn id="204" xr3:uid="{559B02FF-1712-FA45-B206-731779892B3F}" name="Column204"/>
+    <tableColumn id="205" xr3:uid="{DD0A7136-4807-CC46-9269-E473DA30E78E}" name="Column205"/>
+    <tableColumn id="206" xr3:uid="{B71517F7-079A-F340-9F2F-6EE252220B8F}" name="Column206"/>
+    <tableColumn id="207" xr3:uid="{1BEDDB5C-9AB5-624B-8FFD-7210BE1808B8}" name="Column207"/>
+    <tableColumn id="208" xr3:uid="{B2D0D091-ACD4-D44B-A4E5-765D6035F7B8}" name="Column208"/>
+    <tableColumn id="209" xr3:uid="{78D5A88F-EE66-A74C-8773-31D458873148}" name="Column209"/>
+    <tableColumn id="210" xr3:uid="{F1B4E952-0526-F84A-B75A-9F005AAB7195}" name="Column210"/>
+    <tableColumn id="211" xr3:uid="{F957A224-86CA-CF43-9612-E4F08268C6F2}" name="Column211"/>
+    <tableColumn id="212" xr3:uid="{4A505C3B-DA33-AB4C-AB39-59EC02D819FA}" name="Column212"/>
+    <tableColumn id="213" xr3:uid="{70299F3E-DA7A-2D4A-88C7-99B6DB80AE85}" name="Column213"/>
+    <tableColumn id="214" xr3:uid="{4ACC00CA-0258-964F-8277-15DD343128BE}" name="Column214"/>
+    <tableColumn id="215" xr3:uid="{E6E7C38A-2BDE-B14C-A60E-4946A21D279F}" name="Column215"/>
+    <tableColumn id="216" xr3:uid="{90D8B247-BECC-2A47-B0A6-5D8520E6224E}" name="Column216"/>
+    <tableColumn id="217" xr3:uid="{2E5D390F-6B6A-F847-A8DB-5960EE7E2EF0}" name="Column217"/>
+    <tableColumn id="218" xr3:uid="{E58D9093-735D-3242-85AF-B527FE5CDCBA}" name="Column218"/>
+    <tableColumn id="219" xr3:uid="{CCE9407F-5858-E64B-BCE7-5B437C8192E7}" name="Column219"/>
+    <tableColumn id="220" xr3:uid="{84D14ECC-E766-704D-A26F-C01C7023FD71}" name="Column220"/>
+    <tableColumn id="221" xr3:uid="{07E51BE6-A7BE-1C49-BEB2-C7BF21CD262B}" name="Column221"/>
+    <tableColumn id="222" xr3:uid="{9A779039-0587-D74B-ADFD-AE453CB148AF}" name="Column222"/>
+    <tableColumn id="223" xr3:uid="{45EFC5DC-4AC6-544A-9643-A334AC7E46AD}" name="Column223"/>
+    <tableColumn id="224" xr3:uid="{8AECE145-CCBD-A349-B48E-75A8BB85EF24}" name="Column224"/>
+    <tableColumn id="225" xr3:uid="{02CDB63B-322A-1D45-AAEB-7EA02CD4416A}" name="Column225"/>
+    <tableColumn id="226" xr3:uid="{A23EBA7B-D8DA-3445-9CA4-494C51547BC9}" name="Column226"/>
+    <tableColumn id="227" xr3:uid="{81DB1E66-0AA3-A243-A215-9EDB0A1585AA}" name="Column227"/>
+    <tableColumn id="228" xr3:uid="{54C496D3-6D2B-8A46-A1A8-0B9A0C89A453}" name="Column228"/>
+    <tableColumn id="229" xr3:uid="{D59EE785-16B4-1D41-ACF8-5CA7F204AF0C}" name="Column229"/>
+    <tableColumn id="230" xr3:uid="{E09EF72E-7EB7-F04C-8D51-F2C6C71A70E9}" name="Column230"/>
+    <tableColumn id="231" xr3:uid="{F700E20D-39DA-AA4E-A148-E75CF3EEFD81}" name="Column231"/>
+    <tableColumn id="232" xr3:uid="{50E3F6A6-367C-EA44-A4BF-79D7F0A42229}" name="Column232"/>
+    <tableColumn id="233" xr3:uid="{838D4D35-BC61-0A45-90C8-2FEC0408B138}" name="Column233"/>
+    <tableColumn id="234" xr3:uid="{59920F8F-7207-824C-9536-E2E80EAB3DAF}" name="Column234"/>
+    <tableColumn id="235" xr3:uid="{66D043C6-8DE1-FE4F-9881-1B923708D6E6}" name="Column235"/>
+    <tableColumn id="236" xr3:uid="{EDE4FDF4-4010-9D49-BA7B-7C3C7EB096B1}" name="Column236"/>
+    <tableColumn id="237" xr3:uid="{F8AC3C6B-76F4-3742-80CC-5C587CB38717}" name="Column237"/>
+    <tableColumn id="238" xr3:uid="{B27ADCC0-1AA1-0D4D-82AC-04D2E39BC5D3}" name="Column238"/>
+    <tableColumn id="239" xr3:uid="{8049252A-E66B-8443-88E3-93776203432E}" name="Column239"/>
+    <tableColumn id="240" xr3:uid="{3E1DE779-465C-AB4A-8BB1-CE34D5713BE0}" name="Column240"/>
+    <tableColumn id="241" xr3:uid="{87987DD3-A2F5-9E4E-B5E3-28A8ADACAE72}" name="Column241"/>
+    <tableColumn id="242" xr3:uid="{A2F6682C-15B3-4C45-831F-8DA2F525CB88}" name="Column242"/>
+    <tableColumn id="243" xr3:uid="{59979887-D27C-994E-B743-DD4EB5453BB3}" name="Column243"/>
+    <tableColumn id="244" xr3:uid="{24C6BDEC-B83A-0F4F-BB96-EC2536703E82}" name="Column244"/>
+    <tableColumn id="245" xr3:uid="{E1232178-A998-4143-A382-998C35367043}" name="Column245"/>
+    <tableColumn id="246" xr3:uid="{72E785D6-EB72-5542-B8E2-23AC9EF3AA91}" name="Column246"/>
+    <tableColumn id="247" xr3:uid="{D30BDDE4-EF17-374B-B58E-CD1698B899E2}" name="Column247"/>
+    <tableColumn id="248" xr3:uid="{055CBCE2-4568-C94E-994B-3A3BCDA58140}" name="Column248"/>
+    <tableColumn id="249" xr3:uid="{7C7E1F56-9A64-7040-BE6C-EA16EA83BEF0}" name="Column249"/>
+    <tableColumn id="250" xr3:uid="{EDECDF11-D164-3743-A99E-20F8412F2F7F}" name="Column250"/>
+    <tableColumn id="251" xr3:uid="{3F048BDD-B714-6743-AA15-24DC6705D747}" name="Column251"/>
+    <tableColumn id="252" xr3:uid="{BB25BB82-29B3-9E43-A908-4E76844C16FE}" name="Column252"/>
+    <tableColumn id="253" xr3:uid="{4C2C7BCB-23A8-044F-B834-22782DF85DBA}" name="Column253"/>
+    <tableColumn id="254" xr3:uid="{BCA0DAC8-BFBF-264C-98B9-772339DD364B}" name="Column254"/>
+    <tableColumn id="255" xr3:uid="{DECD74A2-BD42-2847-8087-1C055BA66ABB}" name="Column255"/>
+    <tableColumn id="256" xr3:uid="{23942BEE-E2AD-9843-B941-AD1EB0E43090}" name="Column256"/>
+    <tableColumn id="257" xr3:uid="{75BA924F-43AE-EA4D-8D37-61140790F759}" name="Column257"/>
+    <tableColumn id="258" xr3:uid="{9620D8FF-5C8E-F54A-9C56-7F2EC37DDDC1}" name="Column258"/>
+    <tableColumn id="259" xr3:uid="{B9A43782-1658-9E47-AA6D-50A50AFF83D0}" name="Column259"/>
+    <tableColumn id="260" xr3:uid="{E92FD649-6788-8E45-BFA6-C38A12A5F999}" name="Column260"/>
+    <tableColumn id="261" xr3:uid="{991B0703-8F29-7544-8EBE-FC5A6056FFA3}" name="Column261"/>
+    <tableColumn id="262" xr3:uid="{F96F0D6B-9DBC-5746-BA57-50967DB30F4B}" name="Column262"/>
+    <tableColumn id="263" xr3:uid="{4C105843-C34F-E84F-9102-32E17C817B49}" name="Column263"/>
+    <tableColumn id="264" xr3:uid="{DBB446E1-9645-7744-889D-21227CE2AB1F}" name="Column264"/>
+    <tableColumn id="265" xr3:uid="{8C1B3073-F5A2-EF4F-8EAE-9CF54B778A92}" name="Column265"/>
+    <tableColumn id="266" xr3:uid="{D77FA0DF-4FA1-B947-8ECE-74312AEAEC9A}" name="Column266"/>
+    <tableColumn id="267" xr3:uid="{2853D75A-B155-E143-B716-2F717BFD0129}" name="Column267"/>
+    <tableColumn id="268" xr3:uid="{33A957BA-5EEE-2942-95E8-16BF2D4C6BD0}" name="Column268"/>
+    <tableColumn id="269" xr3:uid="{B35F081D-04C5-A34A-A1C1-48DF2C25692B}" name="Column269"/>
+    <tableColumn id="270" xr3:uid="{ED535A0B-7785-1A42-AD8A-4F54A8E82624}" name="Column270"/>
+    <tableColumn id="271" xr3:uid="{15E30521-470B-094B-A911-5C742594FB03}" name="Column271"/>
+    <tableColumn id="272" xr3:uid="{DA311F18-4CAF-8849-9803-DF78E7F6912B}" name="Column272"/>
+    <tableColumn id="273" xr3:uid="{D29424E5-A3AD-2744-9BC6-BE1D48944FEE}" name="Column273"/>
+    <tableColumn id="274" xr3:uid="{A59EDD12-B6D0-024E-9C15-7E4871D930EA}" name="Column274"/>
+    <tableColumn id="275" xr3:uid="{C1D1EC06-1047-9D4C-87BF-D9EE976CDBCE}" name="Column275"/>
+    <tableColumn id="276" xr3:uid="{4BC0C8B9-792C-1542-8EF3-C9787FF1351E}" name="Column276"/>
+    <tableColumn id="277" xr3:uid="{58110850-6E8D-DE43-A0EE-A61EC4BD0B1D}" name="Column277"/>
+    <tableColumn id="278" xr3:uid="{FAEB5889-EFAA-7E42-9A33-23252C12584F}" name="Column278"/>
+    <tableColumn id="279" xr3:uid="{B23448E8-1B1A-144B-8544-76AC3D89FBF8}" name="Column279"/>
+    <tableColumn id="280" xr3:uid="{078DF26C-9FF7-A14B-978A-C995206FA8B6}" name="Column280"/>
+    <tableColumn id="281" xr3:uid="{E9B21B32-B5CC-4B41-BF02-AFD5CB64295B}" name="Column281"/>
+    <tableColumn id="282" xr3:uid="{F5C6466A-D5DD-134E-A505-F437BA1C4808}" name="Column282"/>
+    <tableColumn id="283" xr3:uid="{3AFBBE40-FF7F-B149-85F8-332DB910A0A9}" name="Column283"/>
+    <tableColumn id="284" xr3:uid="{15E97A7F-8C4E-A04C-B18F-87665772D0C7}" name="Column284"/>
+    <tableColumn id="285" xr3:uid="{12F63CCF-494D-3642-AA1E-A0BF8E961F18}" name="Column285"/>
+    <tableColumn id="286" xr3:uid="{684EE222-87E2-D343-A9B0-5212D485ED0D}" name="Column286"/>
+    <tableColumn id="287" xr3:uid="{2615F51D-F48B-2B4B-8714-AF666389EA90}" name="Column287"/>
+    <tableColumn id="288" xr3:uid="{094E66F2-0FB9-9B43-8A19-08DDDE8C28E3}" name="Column288"/>
+    <tableColumn id="289" xr3:uid="{40A3573F-620D-C84B-9594-C3C7ED3D3582}" name="Column289"/>
+    <tableColumn id="290" xr3:uid="{C6AFCB18-3C05-2441-8171-DE220E8949ED}" name="Column290"/>
+    <tableColumn id="291" xr3:uid="{AD00A34A-4996-1D47-9226-9226D00D5FCC}" name="Column291"/>
+    <tableColumn id="292" xr3:uid="{5CF19AFF-7C9F-7A49-810B-FEAFC780F803}" name="Column292"/>
+    <tableColumn id="293" xr3:uid="{D86E62A1-00AA-CE41-804E-87630039F075}" name="Column293"/>
+    <tableColumn id="294" xr3:uid="{F9A76E15-268C-F740-96F6-253C3BEF79BB}" name="Column294"/>
+    <tableColumn id="295" xr3:uid="{494B397F-CF92-4247-B2C7-8BD5B13DB33C}" name="Column295"/>
+    <tableColumn id="296" xr3:uid="{2CAACD49-8FB9-CE43-BF1B-A01FE814A4C9}" name="Column296"/>
+    <tableColumn id="297" xr3:uid="{9EE62792-2656-414C-90D0-B9D07EA1C613}" name="Column297"/>
+    <tableColumn id="298" xr3:uid="{084E3A8D-4A5B-3348-A4F8-580796660BE5}" name="Column298"/>
+    <tableColumn id="299" xr3:uid="{287F857C-0603-A44B-8B8C-D1C138CBC90E}" name="Column299"/>
+    <tableColumn id="300" xr3:uid="{51326650-3548-4649-AC6C-70E496115031}" name="Column300"/>
+    <tableColumn id="301" xr3:uid="{614D1B85-890A-F349-9502-BC778186212B}" name="Column301"/>
+    <tableColumn id="302" xr3:uid="{D7564B9F-D8FA-6E4B-A971-B719A666537F}" name="Column302"/>
+    <tableColumn id="303" xr3:uid="{2A4BAF7E-2208-204D-AA5C-048ECC24CDF8}" name="Column303"/>
+    <tableColumn id="304" xr3:uid="{CA2476B7-8DA8-184C-9419-6F4B2B11D64F}" name="Column304"/>
+    <tableColumn id="305" xr3:uid="{037A4B7E-3915-FB43-B7C0-FA3A22E69023}" name="Column305"/>
+    <tableColumn id="306" xr3:uid="{AFCFDAAE-48B0-FF48-8007-1763CF656213}" name="Column306"/>
+    <tableColumn id="307" xr3:uid="{A648A318-705E-DF4A-B88A-462A9F050E1C}" name="Column307"/>
+    <tableColumn id="308" xr3:uid="{8173A08C-4C97-394E-9C1A-2B7E52554518}" name="Column308"/>
+    <tableColumn id="309" xr3:uid="{609481AF-F41F-E740-9277-7C3A35900A34}" name="Column309"/>
+    <tableColumn id="310" xr3:uid="{BB2A20EA-03FE-6540-99A5-4C8E08220B67}" name="Column310"/>
+    <tableColumn id="311" xr3:uid="{EB2DD86F-2E0C-0345-B344-E1FF29160E05}" name="Column311"/>
+    <tableColumn id="312" xr3:uid="{65689FAD-077A-9748-9A69-98E63C3A62C8}" name="Column312"/>
+    <tableColumn id="313" xr3:uid="{22369A48-F540-8046-8890-2D855725E09C}" name="Column313"/>
+    <tableColumn id="314" xr3:uid="{EC469F9D-40DA-EA41-A9F9-65B67DD38A7C}" name="Column314"/>
+    <tableColumn id="315" xr3:uid="{4B88BCC1-F593-3A48-96D7-BE1F70DC0C31}" name="Column315"/>
+    <tableColumn id="316" xr3:uid="{0B58E654-8890-4747-85E0-7126BAE1C3F6}" name="Column316"/>
+    <tableColumn id="317" xr3:uid="{F62C7CE2-8159-154F-8D66-B033C4DB6CD1}" name="Column317"/>
+    <tableColumn id="318" xr3:uid="{5766FF93-8C6B-EF46-A6B0-8AB213544611}" name="Column318"/>
+    <tableColumn id="319" xr3:uid="{9C1DFFBE-0A0E-1E42-ABF7-3D69C7F61431}" name="Column319"/>
+    <tableColumn id="320" xr3:uid="{EC028CC3-8238-F845-A8B6-0969D9F76C88}" name="Column320"/>
+    <tableColumn id="321" xr3:uid="{04BAF5E6-9BC0-824F-8543-A6CBD7A9DB83}" name="Column321"/>
+    <tableColumn id="322" xr3:uid="{868D0944-5D65-194A-BC72-6AF2463928BD}" name="Column322"/>
+    <tableColumn id="323" xr3:uid="{77C4403D-78E7-184E-A945-1BF6E831616A}" name="Column323"/>
+    <tableColumn id="324" xr3:uid="{648C5750-ECF3-2B42-9EA7-53B13C237518}" name="Column324"/>
+    <tableColumn id="325" xr3:uid="{79378B31-06B1-404F-9A57-005AEBCADDE5}" name="Column325"/>
+    <tableColumn id="326" xr3:uid="{160F92BB-9791-0D48-B1CB-FB5E1209BEED}" name="Column326"/>
+    <tableColumn id="327" xr3:uid="{8F0ECBBF-7BA8-C943-9717-2D636B13B02D}" name="Column327"/>
+    <tableColumn id="328" xr3:uid="{AC8D62FB-40C0-4B44-8AFC-B3E845CE6B4B}" name="Column328"/>
+    <tableColumn id="329" xr3:uid="{4D70B79B-F2BF-4841-9BF8-5A59D99110E2}" name="Column329"/>
+    <tableColumn id="330" xr3:uid="{E5D67965-D017-AF41-94E6-4C11AE399D6D}" name="Column330"/>
+    <tableColumn id="331" xr3:uid="{EEE82B20-8458-2446-B46D-AE0E99A3965A}" name="Column331"/>
+    <tableColumn id="332" xr3:uid="{37C8ED54-C62D-9641-B8A9-045AEA08F153}" name="Column332"/>
+    <tableColumn id="333" xr3:uid="{38950544-03E5-5E4B-8E93-597B65923191}" name="Column333"/>
+    <tableColumn id="334" xr3:uid="{DA2818F9-B707-A549-865A-0FB5CC2BC2FA}" name="Column334"/>
+    <tableColumn id="335" xr3:uid="{B07BF055-9A60-8D4E-8ED3-4D0731EEDADF}" name="Column335"/>
+    <tableColumn id="336" xr3:uid="{67031600-DE2D-6F4B-A08E-A5666D6181B3}" name="Column336"/>
+    <tableColumn id="337" xr3:uid="{14FB526D-1329-2C4F-8B04-BE94EDFE7CA3}" name="Column337"/>
+    <tableColumn id="338" xr3:uid="{6B1369F2-5F2E-F84F-A289-582B257FD9F3}" name="Column338"/>
+    <tableColumn id="339" xr3:uid="{50FABA71-4DDB-7F4E-BAB8-24C1630505F9}" name="Column339"/>
+    <tableColumn id="340" xr3:uid="{654B4638-075F-974C-B2FF-75FB8737852C}" name="Column340"/>
+    <tableColumn id="341" xr3:uid="{174842E6-8D33-3D47-B736-34C4DC20C74D}" name="Column341"/>
+    <tableColumn id="342" xr3:uid="{02B89A01-3A9A-1C4E-87B0-57D986AB7CA4}" name="Column342"/>
+    <tableColumn id="343" xr3:uid="{17FA3FD6-CF86-6143-A4BF-7FE40AAAD689}" name="Column343"/>
+    <tableColumn id="344" xr3:uid="{D0E43D44-C462-0541-910E-F8E69B09986A}" name="Column344"/>
+    <tableColumn id="345" xr3:uid="{8DC396F5-DA3A-5C47-BF1B-3D492EC04100}" name="Column345"/>
+    <tableColumn id="346" xr3:uid="{EA533474-94F2-1D4F-A8B4-28AB5962F376}" name="Column346"/>
+    <tableColumn id="347" xr3:uid="{A2DA1983-BD8D-5E4E-8D00-D167230CFE61}" name="Column347"/>
+    <tableColumn id="348" xr3:uid="{1B3855DC-1796-8941-8D7A-765EC623D96F}" name="Column348"/>
+    <tableColumn id="349" xr3:uid="{3EC649AD-869B-6C45-BC37-14BD33AF0733}" name="Column349"/>
+    <tableColumn id="350" xr3:uid="{18244B03-3055-8D4F-8E18-9D87B8449DB2}" name="Column350"/>
+    <tableColumn id="351" xr3:uid="{D9AF9CB1-1C1A-3241-9D0A-787385AF57B1}" name="Column351"/>
+    <tableColumn id="352" xr3:uid="{70470FA2-05A3-C64F-AAF7-67DCB2ED3ACF}" name="Column352"/>
+    <tableColumn id="353" xr3:uid="{4B822B87-977D-D944-ACEB-3F3AD65A7F88}" name="Column353"/>
+    <tableColumn id="354" xr3:uid="{374B082F-91DD-5C48-B803-56F9EA60EA48}" name="Column354"/>
+    <tableColumn id="355" xr3:uid="{0C668C01-8163-0F48-9D96-54109453E3BB}" name="Column355"/>
+    <tableColumn id="356" xr3:uid="{43A87F7C-BA06-434C-8CAD-0E77926CD0F1}" name="Column356"/>
+    <tableColumn id="357" xr3:uid="{84A9086E-FD2D-EE4B-9FD6-E0EB7403E8FF}" name="Column357"/>
+    <tableColumn id="358" xr3:uid="{4B36F27A-8493-FE47-8D33-68B3404C8DEF}" name="Column358"/>
+    <tableColumn id="359" xr3:uid="{33126B32-971F-A346-8528-AF57B395A5E3}" name="Column359"/>
+    <tableColumn id="360" xr3:uid="{A9BF7F94-316F-A94A-8021-0F0CF6FF53DB}" name="Column360"/>
+    <tableColumn id="361" xr3:uid="{42C7DE2C-7F62-B24F-AAE3-354519DE97BC}" name="Column361"/>
+    <tableColumn id="362" xr3:uid="{AD906319-38F0-7046-BE4D-B54CBB16E791}" name="Column362"/>
+    <tableColumn id="363" xr3:uid="{3519486C-B19A-9A43-9D2B-3B46F227243D}" name="Column363"/>
+    <tableColumn id="364" xr3:uid="{F148928A-92DF-BE4E-89FA-3E8CCAB094C6}" name="Column364"/>
+    <tableColumn id="365" xr3:uid="{A8F058DA-DF3C-D347-9EE5-E6F28FB45A07}" name="Column365"/>
+    <tableColumn id="366" xr3:uid="{195EA5DB-A3EC-7742-BD32-ED3B7EBEABDE}" name="Column366"/>
+    <tableColumn id="367" xr3:uid="{0498E94B-3456-5947-A37F-B8BF20927CB5}" name="Column367"/>
+    <tableColumn id="368" xr3:uid="{AB173141-FDED-C048-9C62-14D4A90D1152}" name="Column368"/>
+    <tableColumn id="369" xr3:uid="{9FC730D1-534A-2943-A69F-00FDD672C47B}" name="Column369"/>
+    <tableColumn id="370" xr3:uid="{74A6FEFE-F3A9-6F4E-8783-65E40B62DE13}" name="Column370"/>
+    <tableColumn id="371" xr3:uid="{1E469A50-85E0-684A-ACBA-E3AB28B5F5B6}" name="Column371"/>
+    <tableColumn id="372" xr3:uid="{3EB9B1AA-97E7-354E-B35C-BC0D1792AB10}" name="Column372"/>
+    <tableColumn id="373" xr3:uid="{E56E8C7C-030A-B243-9F30-6F2495D38B9E}" name="Column373"/>
+    <tableColumn id="374" xr3:uid="{A459EFE4-02A1-E648-B8A2-A2C487844CBB}" name="Column374"/>
+    <tableColumn id="375" xr3:uid="{A0BCFB7A-E6B8-2B4B-BACE-FD9E844B02DA}" name="Column375"/>
+    <tableColumn id="376" xr3:uid="{A3B23493-8820-D348-9105-BF45E0339455}" name="Column376"/>
+    <tableColumn id="377" xr3:uid="{CB2C1616-4683-6B4B-832A-3A2538186809}" name="Column377"/>
+    <tableColumn id="378" xr3:uid="{937D1738-735A-A04A-AAEE-3E23E1DD0432}" name="Column378"/>
+    <tableColumn id="379" xr3:uid="{EFAAEA05-9735-1947-AA7B-4992119A8D8E}" name="Column379"/>
+    <tableColumn id="380" xr3:uid="{82F3FA2C-5896-5D4C-8558-B8C26CD48364}" name="Column380"/>
+    <tableColumn id="381" xr3:uid="{E384F1DF-D0FF-8F45-8B71-ACD27B97CB37}" name="Column381"/>
+    <tableColumn id="382" xr3:uid="{B346FA00-5938-A647-A196-712E502907C1}" name="Column382"/>
+    <tableColumn id="383" xr3:uid="{37507A64-5086-6D47-98E5-27ACCC765BBB}" name="Column383"/>
+    <tableColumn id="384" xr3:uid="{2029ADB7-567B-AE4A-BC30-1162333A1125}" name="Column384"/>
+    <tableColumn id="385" xr3:uid="{0D532A55-DAD0-4E4C-8879-4D96CB196828}" name="Column385"/>
+    <tableColumn id="386" xr3:uid="{B82D6958-47CB-9540-959D-F3C6DD392BB8}" name="Column386"/>
+    <tableColumn id="387" xr3:uid="{572B2FC0-EC4C-724B-862D-184B00F8EAAF}" name="Column387"/>
+    <tableColumn id="388" xr3:uid="{C4E1E8C6-EC4A-714A-94DC-ADE475F3FAE2}" name="Column388"/>
+    <tableColumn id="389" xr3:uid="{F1574E4E-CFBE-5C4B-836A-23715F2B8E29}" name="Column389"/>
+    <tableColumn id="390" xr3:uid="{CCA5237A-FE48-494A-9D3B-3EF77670FCD1}" name="Column390"/>
+    <tableColumn id="391" xr3:uid="{CFE361D6-8BF3-A140-B7A3-0719C7F1444D}" name="Column391"/>
+    <tableColumn id="392" xr3:uid="{42D250EE-2CC0-F047-9202-505FD1B227D1}" name="Column392"/>
+    <tableColumn id="393" xr3:uid="{B1C077AC-410A-294E-8C61-4B86BD20B5C0}" name="Column393"/>
+    <tableColumn id="394" xr3:uid="{A2BF9794-0D1C-774E-89E1-88D46E7C5333}" name="Column394"/>
+    <tableColumn id="395" xr3:uid="{BC94E11D-7BE4-F547-B3F7-E435B44D59CC}" name="Column395"/>
+    <tableColumn id="396" xr3:uid="{689DDC33-7771-B542-AD85-DA3B637F0543}" name="Column396"/>
+    <tableColumn id="397" xr3:uid="{9F9EF40B-F16B-5C40-B133-01D2136D2A7F}" name="Column397"/>
+    <tableColumn id="398" xr3:uid="{D6CA28E5-1D12-664F-B9EE-A62A299275C8}" name="Column398"/>
+    <tableColumn id="399" xr3:uid="{3E2D7EF4-01B4-E245-A6E7-B4DEC934BE98}" name="Column399"/>
+    <tableColumn id="400" xr3:uid="{4F4CC8B3-6C9A-AA49-93C7-FA5E304E8920}" name="Column400"/>
+    <tableColumn id="401" xr3:uid="{EFA11D5B-469E-5E4D-8EFA-1FB47478B121}" name="Column401"/>
+    <tableColumn id="402" xr3:uid="{994EA8B6-CF23-3D42-BA5A-0588BA9FB281}" name="Column402"/>
+    <tableColumn id="403" xr3:uid="{E236F5FC-F1AB-2E4A-8B8F-3263E427098C}" name="Column403"/>
+    <tableColumn id="404" xr3:uid="{EDF10567-CF0C-EC4C-8D7C-BC7F32E96FBD}" name="Column404"/>
+    <tableColumn id="405" xr3:uid="{FCBF20ED-FED9-3C4F-88FC-CDC6CF8AFA20}" name="Column405"/>
+    <tableColumn id="406" xr3:uid="{19DF71EA-D295-6B45-AF41-C86CD2C9649A}" name="Column406"/>
+    <tableColumn id="407" xr3:uid="{689938F7-F374-7F44-B019-DE1411AF42D3}" name="Column407"/>
+    <tableColumn id="408" xr3:uid="{1FCFA6C5-7280-A94A-B464-9A1C81E7CD66}" name="Column408"/>
+    <tableColumn id="409" xr3:uid="{A12A9352-6644-BB4F-B51A-903C34625EFB}" name="Column409"/>
+    <tableColumn id="410" xr3:uid="{C85785C5-9838-484D-AB53-28193AAD5640}" name="Column410"/>
+    <tableColumn id="411" xr3:uid="{2C1F10E5-35BC-F648-AB89-B93610FC3ACE}" name="Column411"/>
+    <tableColumn id="412" xr3:uid="{A3F48165-2B7A-654B-89FE-1DADCD621647}" name="Column412"/>
+    <tableColumn id="413" xr3:uid="{6957BB61-E80D-DE49-801B-124265301F2D}" name="Column413"/>
+    <tableColumn id="414" xr3:uid="{85751F1A-BC85-E040-9ECC-5B2B75A0AA39}" name="Column414"/>
+    <tableColumn id="415" xr3:uid="{1E250276-DB3C-EA40-BEDF-ED3D81903D46}" name="Column415"/>
+    <tableColumn id="416" xr3:uid="{8A12E689-A1FE-0640-B7F6-7FAABF864E89}" name="Column416"/>
+    <tableColumn id="417" xr3:uid="{B1597E54-579C-204E-B67E-A4543E2B1CD1}" name="Column417"/>
+    <tableColumn id="418" xr3:uid="{178AC558-ED0B-0C46-8782-E8424770B172}" name="Column418"/>
+    <tableColumn id="419" xr3:uid="{F966439E-5A89-E24C-B3A1-DD46DCA67D75}" name="Column419"/>
+    <tableColumn id="420" xr3:uid="{8DCCC2FB-B515-FD4E-BD49-7BB7B959F602}" name="Column420"/>
+    <tableColumn id="421" xr3:uid="{004B94AA-1E55-C641-B614-3BA5A95E1FDD}" name="Column421"/>
+    <tableColumn id="422" xr3:uid="{A354BCDE-41FF-2F41-9EBD-05C29F3FAB02}" name="Column422"/>
+    <tableColumn id="423" xr3:uid="{4A84CD1C-F5B6-B747-BE69-328861C7ED04}" name="Column423"/>
+    <tableColumn id="424" xr3:uid="{963FE746-5B8B-0040-B520-9ED846E4B96A}" name="Column424"/>
+    <tableColumn id="425" xr3:uid="{9A4A26AD-3D4B-1A4F-8BB5-039A5C24E491}" name="Column425"/>
+    <tableColumn id="426" xr3:uid="{F2823A0C-64DD-0B44-B043-93BCC86A6E3D}" name="Column426"/>
+    <tableColumn id="427" xr3:uid="{B2115D77-EC46-F74A-9B5E-A6789C393C2B}" name="Column427"/>
+    <tableColumn id="428" xr3:uid="{2BAE6D30-9A4C-E442-95B2-D6A75DF4E3F1}" name="Column428"/>
+    <tableColumn id="429" xr3:uid="{0BF1BD5F-538E-894F-A099-DE9D8F25EEAD}" name="Column429"/>
+    <tableColumn id="430" xr3:uid="{BF2407E7-7B26-384C-A233-A9D08A78407A}" name="Column430"/>
+    <tableColumn id="431" xr3:uid="{760A5E98-7773-434D-9E30-7CDB2837526B}" name="Column431"/>
+    <tableColumn id="432" xr3:uid="{4A8C3010-6DEE-2F41-8C13-6EF024B22775}" name="Column432"/>
+    <tableColumn id="433" xr3:uid="{54CD8C28-764D-7D45-9DD5-6FB13564070C}" name="Column433"/>
+    <tableColumn id="434" xr3:uid="{1310F896-49AB-1541-ACB4-EA0D6207C86E}" name="Column434"/>
+    <tableColumn id="435" xr3:uid="{1642341F-33BF-D444-BEF8-CF45B971DD8C}" name="Column435"/>
+    <tableColumn id="436" xr3:uid="{CA6E2B6C-7873-8E4C-81A4-5228B1F5438B}" name="Column436"/>
+    <tableColumn id="437" xr3:uid="{9DC16B7B-872E-F846-AAD8-C4EC9FDB997A}" name="Column437"/>
+    <tableColumn id="438" xr3:uid="{FEC9AF23-8B5D-7A44-A45D-7598E3B9A418}" name="Column438"/>
+    <tableColumn id="439" xr3:uid="{BEEC1FE4-B72A-C148-A677-DA632B253873}" name="Column439"/>
+    <tableColumn id="440" xr3:uid="{242693FA-5FB6-6242-98A1-2F6DD99D35B0}" name="Column440"/>
+    <tableColumn id="441" xr3:uid="{5829A698-A4EA-F648-93D3-1F9F6C2CB372}" name="Column441"/>
+    <tableColumn id="442" xr3:uid="{13740F54-8B30-1740-AE9C-45ECD40EEBAF}" name="Column442"/>
+    <tableColumn id="443" xr3:uid="{1FFE92EA-935C-7941-AFB4-ED77937CA976}" name="Column443"/>
+    <tableColumn id="444" xr3:uid="{9752519A-2781-6441-812E-753C06A8D68A}" name="Column444"/>
+    <tableColumn id="445" xr3:uid="{C3853C4B-0947-5947-8353-06FC3749C1AB}" name="Column445"/>
+    <tableColumn id="446" xr3:uid="{9769CCB6-F464-7B4F-8D49-138B93623EF0}" name="Column446"/>
+    <tableColumn id="447" xr3:uid="{A76DA8A2-61D6-AA40-8AAB-52AEE1729780}" name="Column447"/>
+    <tableColumn id="448" xr3:uid="{BD624F1F-DE0B-794F-8777-9353A43A8C80}" name="Column448"/>
+    <tableColumn id="449" xr3:uid="{8AE1BF53-BFEB-EB42-901B-4C9D747EED9B}" name="Column449"/>
+    <tableColumn id="450" xr3:uid="{2B9900C3-C669-6C44-9CCB-309B1D868913}" name="Column450"/>
+    <tableColumn id="451" xr3:uid="{6E7A5673-84DB-0243-A6D3-E79DE2646C7B}" name="Column451"/>
+    <tableColumn id="452" xr3:uid="{37194986-8E19-C043-89E9-54C232D104AF}" name="Column452"/>
+    <tableColumn id="453" xr3:uid="{C04D3E50-3B1E-7044-BA14-383EEDF0D222}" name="Column453"/>
+    <tableColumn id="454" xr3:uid="{80A01018-E482-FF44-83AB-F6A250E70B90}" name="Column454"/>
+    <tableColumn id="455" xr3:uid="{45E97939-B75E-A546-8DA1-A92904332C17}" name="Column455"/>
+    <tableColumn id="456" xr3:uid="{EA0891F0-415B-914B-B635-A01ADAF54A74}" name="Column456"/>
+    <tableColumn id="457" xr3:uid="{6211FF72-E909-C649-BB40-B87303B10495}" name="Column457"/>
+    <tableColumn id="458" xr3:uid="{9D16C6EB-C24D-1949-8A3C-D5AFAA9076F5}" name="Column458"/>
+    <tableColumn id="459" xr3:uid="{938D8BA9-E983-0D49-A795-12857B544FF5}" name="Column459"/>
+    <tableColumn id="460" xr3:uid="{5A5D9A8A-34DD-0D46-ACAE-D2326AC298BB}" name="Column460"/>
+    <tableColumn id="461" xr3:uid="{1E0361E4-86A7-5E4A-80B1-6BD01D4330D4}" name="Column461"/>
+    <tableColumn id="462" xr3:uid="{4C82A152-0E62-994A-992B-9257226085A1}" name="Column462"/>
+    <tableColumn id="463" xr3:uid="{7F990EF9-0E94-3044-8DA3-ED263388A9BE}" name="Column463"/>
+    <tableColumn id="464" xr3:uid="{3FAD60F5-4965-9F43-A155-E9C5EE2E7E88}" name="Column464"/>
+    <tableColumn id="465" xr3:uid="{497D8879-965E-724A-8549-8F49FB6F5960}" name="Column465"/>
+    <tableColumn id="466" xr3:uid="{F5250DB7-9BAC-5145-A5AC-21162E554DF5}" name="Column466"/>
+    <tableColumn id="467" xr3:uid="{16E2726C-8927-B848-8221-8F7EE77ECEE0}" name="Column467"/>
+    <tableColumn id="468" xr3:uid="{985545B4-F010-854F-A8C2-4C2476AB3143}" name="Column468"/>
+    <tableColumn id="469" xr3:uid="{448546FC-888C-6941-B34D-EEDAF893A3F0}" name="Column469"/>
+    <tableColumn id="470" xr3:uid="{B147CE51-80AD-974C-B1D8-C21A9BD44B26}" name="Column470"/>
+    <tableColumn id="471" xr3:uid="{1CED9CFD-E263-7E4F-AED9-43AA3ECB3312}" name="Column471"/>
+    <tableColumn id="472" xr3:uid="{A064DED2-635C-F64E-B9D0-29C980FD53B6}" name="Column472"/>
+    <tableColumn id="473" xr3:uid="{B9F8D292-633A-4D4B-9A14-5BC4369A5350}" name="Column473"/>
+    <tableColumn id="474" xr3:uid="{17A8E9E9-BD32-5D49-BCE9-CB577EC114A6}" name="Column474"/>
+    <tableColumn id="475" xr3:uid="{364CCBF3-C53B-6F4B-A95C-80B5CE2E9D14}" name="Column475"/>
+    <tableColumn id="476" xr3:uid="{4AFA654B-F071-6D49-8B78-0CD2E8B119AF}" name="Column476"/>
+    <tableColumn id="477" xr3:uid="{F02D917B-E0F3-6042-98B0-C81C8E13F2A9}" name="Column477"/>
+    <tableColumn id="478" xr3:uid="{B85C3837-3BE0-5340-A8F3-4A2816F6C621}" name="Column478"/>
+    <tableColumn id="479" xr3:uid="{4B61A02A-F2E1-CE4B-B5BB-2600CBA4CEC8}" name="Column479"/>
+    <tableColumn id="480" xr3:uid="{EF3EEEAE-E15D-C743-8FAF-1AE76894D440}" name="Column480"/>
+    <tableColumn id="481" xr3:uid="{521788F2-0643-A848-95E8-0F04EE42A633}" name="Column481"/>
+    <tableColumn id="482" xr3:uid="{82B59573-8D2D-2D44-9398-3081D2B83C6B}" name="Column482"/>
+    <tableColumn id="483" xr3:uid="{4AC5FA9F-CE79-EE40-9449-197103B24032}" name="Column483"/>
+    <tableColumn id="484" xr3:uid="{6FED788E-8C51-E049-8C8F-687E3009CFB9}" name="Column484"/>
+    <tableColumn id="485" xr3:uid="{69BCCF9E-FEE1-2348-96A9-4813708FE696}" name="Column485"/>
+    <tableColumn id="486" xr3:uid="{634B591F-55CF-CA44-BEE7-B6F4152EC6E6}" name="Column486"/>
+    <tableColumn id="487" xr3:uid="{DA23DFE3-7750-EC47-82C1-A80F9070BE52}" name="Column487"/>
+    <tableColumn id="488" xr3:uid="{36C782A7-5284-F94C-95C8-8E27DC3A52D6}" name="Column488"/>
+    <tableColumn id="489" xr3:uid="{E286F0EB-2702-DE40-8782-F11703E28360}" name="Column489"/>
+    <tableColumn id="490" xr3:uid="{9A6574A5-CEE7-0943-8928-4B78D76EC6E6}" name="Column490"/>
+    <tableColumn id="491" xr3:uid="{729F1A47-D641-C44B-9382-D1B303580925}" name="Column491"/>
+    <tableColumn id="492" xr3:uid="{BE3E48C6-1869-E54F-89F5-05C007E56A9F}" name="Column492"/>
+    <tableColumn id="493" xr3:uid="{2F02DA46-8BBB-6140-B179-0CCF201BA6AC}" name="Column493"/>
+    <tableColumn id="494" xr3:uid="{743445AB-5496-E946-ADB9-D93A6ECC680E}" name="Column494"/>
+    <tableColumn id="495" xr3:uid="{FB98CCC1-C637-494F-A065-63B1F0EA3587}" name="Column495"/>
+    <tableColumn id="496" xr3:uid="{74D928B3-B2BF-314D-BC0B-9782044039F9}" name="Column496"/>
+    <tableColumn id="497" xr3:uid="{1D4D3ED6-F7FB-934A-B81E-11A6B9984E8E}" name="Column497"/>
+    <tableColumn id="498" xr3:uid="{80BA7616-2455-8C4A-A275-59CEF2AD5461}" name="Column498"/>
+    <tableColumn id="499" xr3:uid="{5DEA180B-8A6E-6E41-8DBC-3DBB8EDBCE44}" name="Column499"/>
+    <tableColumn id="500" xr3:uid="{06D655AB-207A-704B-818B-75710AA915B9}" name="Column500"/>
+    <tableColumn id="501" xr3:uid="{D5629BCC-DC82-174B-83EC-EA849799F9A8}" name="Column501"/>
+    <tableColumn id="502" xr3:uid="{EA24E9BF-41A5-9349-919D-F03E87D6324D}" name="Column502"/>
+    <tableColumn id="503" xr3:uid="{CB393BEA-F5F0-1845-9231-B6D81C74FFA0}" name="Column503"/>
+    <tableColumn id="504" xr3:uid="{D8072287-75A5-A44C-BAB1-E0BFF4C1041A}" name="Column504"/>
+    <tableColumn id="505" xr3:uid="{07DFD5D0-7B48-C44C-965F-D5B5F6112C54}" name="Column505"/>
+    <tableColumn id="506" xr3:uid="{EEDF7EEE-D732-7743-8089-8EEA925F98D5}" name="Column506"/>
+    <tableColumn id="507" xr3:uid="{542FBCBD-0D5F-DA4C-9E06-EC0883BD50F5}" name="Column507"/>
+    <tableColumn id="508" xr3:uid="{08242870-43A3-DA4B-A263-883F9BD77B43}" name="Column508"/>
+    <tableColumn id="509" xr3:uid="{3723CBDF-1C20-4F4D-9E22-A6ABBC4325DC}" name="Column509"/>
+    <tableColumn id="510" xr3:uid="{A4E33678-AD5E-A146-9D74-D3D009A16CAF}" name="Column510"/>
+    <tableColumn id="511" xr3:uid="{34F90E09-543F-E246-BCF7-AA0B35B5BFF1}" name="Column511"/>
+    <tableColumn id="512" xr3:uid="{51966CB6-4EAB-0A42-900B-68AE66DB5278}" name="Column512"/>
+    <tableColumn id="513" xr3:uid="{112F46DB-0E71-F14A-8119-0C3627F97CF2}" name="Column513"/>
+    <tableColumn id="514" xr3:uid="{710051FD-8557-8143-B154-35CB89438B73}" name="Column514"/>
+    <tableColumn id="515" xr3:uid="{46FF112C-CC75-FC48-B6D7-F0FD651CDDCB}" name="Column515"/>
+    <tableColumn id="516" xr3:uid="{F9AE1EB2-3F59-9C4C-B419-0D8C1A720DF4}" name="Column516"/>
+    <tableColumn id="517" xr3:uid="{26A81941-87B0-F64D-B1A6-8A49D81C5707}" name="Column517"/>
+    <tableColumn id="518" xr3:uid="{BD6161AF-03E1-AC42-A25A-FCF74FAA5D86}" name="Column518"/>
+    <tableColumn id="519" xr3:uid="{34DE6C02-D2B4-F849-B657-5DEA37C6E6DB}" name="Column519"/>
+    <tableColumn id="520" xr3:uid="{704C0972-B4E0-C347-BCE3-55A5CB9B2F71}" name="Column520"/>
+    <tableColumn id="521" xr3:uid="{0CED1246-83E1-044F-ADD0-461C2513AE54}" name="Column521"/>
+    <tableColumn id="522" xr3:uid="{8F4A902C-E25E-5E47-9FFA-492B0521C017}" name="Column522"/>
+    <tableColumn id="523" xr3:uid="{D0DD1BE4-44E4-7243-99EE-6D514C42EB31}" name="Column523"/>
+    <tableColumn id="524" xr3:uid="{BEA6C2EF-9D35-C942-94D3-883AA6547CCD}" name="Column524"/>
+    <tableColumn id="525" xr3:uid="{94A33BB7-E7F1-2F42-8632-1073CAADF526}" name="Column525"/>
+    <tableColumn id="526" xr3:uid="{05FC4F5D-047B-5A4A-A85F-D4CA31C0C965}" name="Column526"/>
+    <tableColumn id="527" xr3:uid="{47D7A025-ECE9-EE42-8379-899E09BB9D9B}" name="Column527"/>
+    <tableColumn id="528" xr3:uid="{9515A3D7-D71B-EF43-9ABA-7DBCE2CB2346}" name="Column528"/>
+    <tableColumn id="529" xr3:uid="{D092BC41-6AE8-834B-AE7E-0B5CCDF0B621}" name="Column529"/>
+    <tableColumn id="530" xr3:uid="{DCE1368E-7C75-8242-A5AC-1AC1D4FC5F61}" name="Column530"/>
+    <tableColumn id="531" xr3:uid="{EB69B4CB-C406-E447-B891-D596A7F118F8}" name="Column531"/>
+    <tableColumn id="532" xr3:uid="{358EEB09-33BA-5A48-B3FC-BAA3ED920587}" name="Column532"/>
+    <tableColumn id="533" xr3:uid="{2EDC7693-5DB8-3340-A828-75969612DDAD}" name="Column533"/>
+    <tableColumn id="534" xr3:uid="{8CD7AAFE-A253-EF4A-A960-020D507DA1F2}" name="Column534"/>
+    <tableColumn id="535" xr3:uid="{C81DC06B-B5CF-244F-BBCC-E905E1893B9E}" name="Column535"/>
+    <tableColumn id="536" xr3:uid="{CD9388EA-1317-A34D-9F1B-83CC35A95AA1}" name="Column536"/>
+    <tableColumn id="537" xr3:uid="{B69D733D-EC4F-504B-A725-C1398DA81BEC}" name="Column537"/>
+    <tableColumn id="538" xr3:uid="{3C7519DB-3ECE-CC47-8C68-C6694F14543F}" name="Column538"/>
+    <tableColumn id="539" xr3:uid="{3593DBAB-DE91-9244-A6A6-CD7BC25610FE}" name="Column539"/>
+    <tableColumn id="540" xr3:uid="{87474A96-3004-0947-B0ED-A07EC1ED578B}" name="Column540"/>
+    <tableColumn id="541" xr3:uid="{40F50F1B-9F81-724B-8F52-D6CB82725412}" name="Column541"/>
+    <tableColumn id="542" xr3:uid="{B7DA83D0-DD86-5C48-88D8-DC182CEC1620}" name="Column542"/>
+    <tableColumn id="543" xr3:uid="{BD0C088D-B9E2-ED48-AC28-E2D8CDB6B557}" name="Column543"/>
+    <tableColumn id="544" xr3:uid="{F056C8C5-0915-0549-A7F9-EBB8F2E0C914}" name="Column544"/>
+    <tableColumn id="545" xr3:uid="{DFC89FCC-F87F-0A47-B561-B8BAC0595BF4}" name="Column545"/>
+    <tableColumn id="546" xr3:uid="{29CC2F91-DB86-3945-B66B-075CE55860F4}" name="Column546"/>
+    <tableColumn id="547" xr3:uid="{88AC32B8-632A-294C-932E-18AA2F0C38B2}" name="Column547"/>
+    <tableColumn id="548" xr3:uid="{73098D09-723A-434A-9B8A-7C42B72B14A3}" name="Column548"/>
+    <tableColumn id="549" xr3:uid="{280A5461-74A4-5742-AD1A-5A566744FD6C}" name="Column549"/>
+    <tableColumn id="550" xr3:uid="{81FA376A-6141-6C47-820A-8C2646AECC49}" name="Column550"/>
+    <tableColumn id="551" xr3:uid="{D76DB75A-5C5A-EB40-8002-77A9ECDA4AB9}" name="Column551"/>
+    <tableColumn id="552" xr3:uid="{9AF0CA88-A3A8-5D41-918D-3654C46C0B54}" name="Column552"/>
+    <tableColumn id="553" xr3:uid="{7742EC01-27B5-C349-8210-979DB880163F}" name="Column553"/>
+    <tableColumn id="554" xr3:uid="{B3EA8E9A-7A34-2F4A-8BB5-7A6AAB7CACCE}" name="Column554"/>
+    <tableColumn id="555" xr3:uid="{22624297-1B85-5544-AAED-DA2B5902781C}" name="Column555"/>
+    <tableColumn id="556" xr3:uid="{FE3FB437-9F6F-134C-81B7-696BA10D0442}" name="Column556"/>
+    <tableColumn id="557" xr3:uid="{7E13F01F-1177-4D40-952A-0A75009B17AB}" name="Column557"/>
+    <tableColumn id="558" xr3:uid="{1F5ED099-5C22-7443-A65A-6251505B8CB5}" name="Column558"/>
+    <tableColumn id="559" xr3:uid="{2859939A-1A32-EA44-B324-874EBE79949F}" name="Column559"/>
+    <tableColumn id="560" xr3:uid="{5BE54686-65D4-CB4D-80A4-B081F13541E0}" name="Column560"/>
+    <tableColumn id="561" xr3:uid="{7A7987E5-1023-324A-AC40-6C8D8AF71173}" name="Column561"/>
+    <tableColumn id="562" xr3:uid="{CEF2C45F-19ED-A242-8DB5-FAB2C2CE66CA}" name="Column562"/>
+    <tableColumn id="563" xr3:uid="{D4D857C7-A3C9-3742-95A5-C1B8BEFBCD8C}" name="Column563"/>
+    <tableColumn id="564" xr3:uid="{31986D36-9541-2A4F-B19B-242DD373FF38}" name="Column564"/>
+    <tableColumn id="565" xr3:uid="{2433BC1C-8ED4-A141-A0A0-B8DC97BE7F30}" name="Column565"/>
+    <tableColumn id="566" xr3:uid="{E3D4DCAA-128E-F946-BBBE-40D71420BC4D}" name="Column566"/>
+    <tableColumn id="567" xr3:uid="{F635225D-1787-E64F-B684-C6DB5F1E28DB}" name="Column567"/>
+    <tableColumn id="568" xr3:uid="{A031B118-5432-B249-9D08-0F27F3BE4A60}" name="Column568"/>
+    <tableColumn id="569" xr3:uid="{DA1008A2-90C3-1642-A7C1-B5ADA459360D}" name="Column569"/>
+    <tableColumn id="570" xr3:uid="{35B6021E-3015-F64C-B9D1-944BFA72A4D2}" name="Column570"/>
+    <tableColumn id="571" xr3:uid="{95DB052E-2796-1240-97A4-6485C75E1A8C}" name="Column571"/>
+    <tableColumn id="572" xr3:uid="{F87E23B3-7C63-E54F-BAC2-8B698440139E}" name="Column572"/>
+    <tableColumn id="573" xr3:uid="{EF348E67-37F8-1447-890E-0C900D1C033D}" name="Column573"/>
+    <tableColumn id="574" xr3:uid="{766A9088-390C-4745-AC0D-810B2F6163E1}" name="Column574"/>
+    <tableColumn id="575" xr3:uid="{6267C2E8-D158-E14B-8544-89DCAD5F466B}" name="Column575"/>
+    <tableColumn id="576" xr3:uid="{4E9F646B-1130-7F4E-B0AA-B684B176CF4C}" name="Column576"/>
+    <tableColumn id="577" xr3:uid="{38824D1C-9E83-D647-81EC-E83EA7645504}" name="Column577"/>
+    <tableColumn id="578" xr3:uid="{3DBACAC8-FF35-DB47-9608-9D631368A86C}" name="Column578"/>
+    <tableColumn id="579" xr3:uid="{AD46126B-4380-2D45-A26E-2EFF14059D86}" name="Column579"/>
+    <tableColumn id="580" xr3:uid="{230D4987-1FC4-D849-AFB2-25D942DE69B3}" name="Column580"/>
+    <tableColumn id="581" xr3:uid="{D47A3034-E51D-D54F-AFC9-59963957676B}" name="Column581"/>
+    <tableColumn id="582" xr3:uid="{15DA1B04-7D6F-544A-AE22-2E8911A49CF7}" name="Column582"/>
+    <tableColumn id="583" xr3:uid="{17F329FA-8361-3B40-A490-9699C432ED24}" name="Column583"/>
+    <tableColumn id="584" xr3:uid="{6005CA75-0615-CF4A-985D-369BF19B5308}" name="Column584"/>
+    <tableColumn id="585" xr3:uid="{DD05AB70-AFCF-4B45-B780-8EDEC1685F2B}" name="Column585"/>
+    <tableColumn id="586" xr3:uid="{16ACCBDA-72DF-3E43-8456-945A225BFEBA}" name="Column586"/>
+    <tableColumn id="587" xr3:uid="{E3B7EB48-E129-D14D-BAF6-E49C6C9444C0}" name="Column587"/>
+    <tableColumn id="588" xr3:uid="{0876918F-AE73-E44E-A03A-0BA4A3732080}" name="Column588"/>
+    <tableColumn id="589" xr3:uid="{BEBCE55E-46D3-8648-816F-F07DF32E05A6}" name="Column589"/>
+    <tableColumn id="590" xr3:uid="{1A7D7EF3-7ACC-EC43-A84E-A79764CA664B}" name="Column590"/>
+    <tableColumn id="591" xr3:uid="{F6B87DDD-7AAD-2B43-9962-CB73EE4723F3}" name="Column591"/>
+    <tableColumn id="592" xr3:uid="{ED5ED310-24D5-194B-9200-5F170A41A04F}" name="Column592"/>
+    <tableColumn id="593" xr3:uid="{5652D488-01A1-424E-B7C6-78A770CC5EB6}" name="Column593"/>
+    <tableColumn id="594" xr3:uid="{2F9D9BFA-F3CA-414B-8EE9-B496A5BAB483}" name="Column594"/>
+    <tableColumn id="595" xr3:uid="{4636DC52-BAD4-AD45-98C7-DF75DDC43922}" name="Column595"/>
+    <tableColumn id="596" xr3:uid="{250D375B-78DC-9843-88BD-046B815360FF}" name="Column596"/>
+    <tableColumn id="597" xr3:uid="{FDD7ADE6-25CB-5A43-BF68-D3BFD74B5304}" name="Column597"/>
+    <tableColumn id="598" xr3:uid="{1B03AF0B-6085-F145-B3CD-3CDECC2980C7}" name="Column598"/>
+    <tableColumn id="599" xr3:uid="{D6564DB9-8B1E-904E-AD67-73B291318259}" name="Column599"/>
+    <tableColumn id="600" xr3:uid="{A0A5CC71-B5C7-3C43-B16B-C7940D8495CD}" name="Column600"/>
+    <tableColumn id="601" xr3:uid="{B155582F-6CE9-074E-B025-8BE682BC0884}" name="Column601"/>
+    <tableColumn id="602" xr3:uid="{8F004B31-F229-1744-9D84-967B2A038082}" name="Column602"/>
+    <tableColumn id="603" xr3:uid="{D22B9879-102C-5247-BB8C-0F45AF959A78}" name="Column603"/>
+    <tableColumn id="604" xr3:uid="{BFD3506C-0FD3-C042-B106-12E9FBAB162B}" name="Column604"/>
+    <tableColumn id="605" xr3:uid="{3A1CC9ED-6471-284E-9C89-F03001565A57}" name="Column605"/>
+    <tableColumn id="606" xr3:uid="{084F7FF8-3B3F-6D47-B5A7-E2904F12A9BE}" name="Column606"/>
+    <tableColumn id="607" xr3:uid="{9DBFF822-E21F-754E-A195-E9348B6966F7}" name="Column607"/>
+    <tableColumn id="608" xr3:uid="{35D60E2A-FD4D-C349-AC62-8231CCFB1A81}" name="Column608"/>
+    <tableColumn id="609" xr3:uid="{F2A792D9-BA27-FC4F-B294-06F5598F9FF9}" name="Column609"/>
+    <tableColumn id="610" xr3:uid="{9A0EEA3E-F6A0-5049-9C0A-F72522BCECA0}" name="Column610"/>
+    <tableColumn id="611" xr3:uid="{C784F6CD-AE1C-3D41-8AAA-65A57FBB955C}" name="Column611"/>
+    <tableColumn id="612" xr3:uid="{D45C153A-C5A9-0B40-B13B-B7223F70DE2D}" name="Column612"/>
+    <tableColumn id="613" xr3:uid="{6C3A253B-2C00-0545-9811-347CB9BE258F}" name="Column613"/>
+    <tableColumn id="614" xr3:uid="{7280A716-0F9F-4B4F-8157-B3DC2828F720}" name="Column614"/>
+    <tableColumn id="615" xr3:uid="{28A61363-D068-C346-BD15-89DEF9E6B255}" name="Column615"/>
+    <tableColumn id="616" xr3:uid="{9B68A746-FB03-A84D-9DE8-2B90A2A7912F}" name="Column616"/>
+    <tableColumn id="617" xr3:uid="{29559DD5-E19F-5346-883E-B90A7B0D9892}" name="Column617"/>
+    <tableColumn id="618" xr3:uid="{C32FD6DA-B82E-9C42-9F3B-B6F49CCB97BD}" name="Column618"/>
+    <tableColumn id="619" xr3:uid="{91FB6E97-3BB0-0B40-8B69-F727924EA03E}" name="Column619"/>
+    <tableColumn id="620" xr3:uid="{CC98F6BF-059E-B440-B7B7-B767FD30FE0D}" name="Column620"/>
+    <tableColumn id="621" xr3:uid="{EFD2548F-A247-7C48-BE14-127C50607E62}" name="Column621"/>
+    <tableColumn id="622" xr3:uid="{21F94641-2156-3842-BAAE-E802CB1D34DA}" name="Column622"/>
+    <tableColumn id="623" xr3:uid="{302F35D8-BCB5-5743-B8BB-D82046C69ECA}" name="Column623"/>
+    <tableColumn id="624" xr3:uid="{12CE1E12-F9FC-DB47-A1A4-8BC297677577}" name="Column624"/>
+    <tableColumn id="625" xr3:uid="{90175809-B70E-F441-B6BD-B275F8996F57}" name="Column625"/>
+    <tableColumn id="626" xr3:uid="{C1368ACE-9BCB-7042-8EB1-AB2BBD5EE6A5}" name="Column626"/>
+    <tableColumn id="627" xr3:uid="{E061BEF1-F9CC-544B-BA59-D7713DF97F74}" name="Column627"/>
+    <tableColumn id="628" xr3:uid="{AB9F08F6-7A10-D145-881E-8532959D3616}" name="Column628"/>
+    <tableColumn id="629" xr3:uid="{52088275-2602-7846-B12F-40A7318E4060}" name="Column629"/>
+    <tableColumn id="630" xr3:uid="{8856B532-8E5E-2148-B0A2-22B4623AA568}" name="Column630"/>
+    <tableColumn id="631" xr3:uid="{93B72D24-AC2E-724A-A482-6382A9701713}" name="Column631"/>
+    <tableColumn id="632" xr3:uid="{BF432A36-1534-A943-830E-BA9B7E98B1AC}" name="Column632"/>
+    <tableColumn id="633" xr3:uid="{E259FB31-F490-C44F-AD12-769B35E8983F}" name="Column633"/>
+    <tableColumn id="634" xr3:uid="{EB54F901-7E8C-C746-9FEB-8EA498F3069C}" name="Column634"/>
+    <tableColumn id="635" xr3:uid="{04185194-0E22-AC4F-86EF-997D04E6D981}" name="Column635"/>
+    <tableColumn id="636" xr3:uid="{E5CFD23F-0510-7D4C-B9B1-8E4E69099E87}" name="Column636"/>
+    <tableColumn id="637" xr3:uid="{201C836A-27D3-074B-B930-96B3C88A3910}" name="Column637"/>
+    <tableColumn id="638" xr3:uid="{C60825D6-6D55-D94D-B7A3-005520589F53}" name="Column638"/>
+    <tableColumn id="639" xr3:uid="{B142B15E-DEF1-264F-8E14-9AD2FAE7458B}" name="Column639"/>
+    <tableColumn id="640" xr3:uid="{7F1425C9-15EC-6040-9347-DA0AB9172D0C}" name="Column640"/>
+    <tableColumn id="641" xr3:uid="{0B8456C4-9ED2-9147-BF11-D63DA2E6CCD5}" name="Column641"/>
+    <tableColumn id="642" xr3:uid="{EFED4B47-807D-1D4F-B521-AAE644165861}" name="Column642"/>
+    <tableColumn id="643" xr3:uid="{E661D555-1D58-3741-8292-D2735AD366FD}" name="Column643"/>
+    <tableColumn id="644" xr3:uid="{554486CB-C613-D542-901D-399F0A8E7E46}" name="Column644"/>
+    <tableColumn id="645" xr3:uid="{7560153C-A5D8-7043-9216-B0C0D6D3C541}" name="Column645"/>
+    <tableColumn id="646" xr3:uid="{141B9BC8-D3F3-094F-A3FC-EC7ED4113B71}" name="Column646"/>
+    <tableColumn id="647" xr3:uid="{F15DA67C-FA32-8E4E-8D46-10FD08CA8B28}" name="Column647"/>
+    <tableColumn id="648" xr3:uid="{6EA473F9-88F5-F94B-BA52-7DE00A23B4B0}" name="Column648"/>
+    <tableColumn id="649" xr3:uid="{D6BB1EC1-354D-2C4B-9D1C-6171720930E6}" name="Column649"/>
+    <tableColumn id="650" xr3:uid="{B1DFD0B6-0EB1-3045-83DA-5E3948170665}" name="Column650"/>
+    <tableColumn id="651" xr3:uid="{E07E1E07-0A19-0843-88DA-C3D7909A9640}" name="Column651"/>
+    <tableColumn id="652" xr3:uid="{A9757279-4DFE-594D-AF48-0C5CE444393A}" name="Column652"/>
+    <tableColumn id="653" xr3:uid="{57D5968D-5CE6-604A-992A-F0427D0A6532}" name="Column653"/>
+    <tableColumn id="654" xr3:uid="{57038435-C920-E24E-A176-3176DCE992A6}" name="Column654"/>
+    <tableColumn id="655" xr3:uid="{745BBBB5-A8C1-524D-9E3D-AB6B140AD678}" name="Column655"/>
+    <tableColumn id="656" xr3:uid="{DF72FF3F-0B1B-AF4B-908B-E51F781D7136}" name="Column656"/>
+    <tableColumn id="657" xr3:uid="{0E3E6DD8-0FE8-304B-BF1C-1CFA7CD0E327}" name="Column657"/>
+    <tableColumn id="658" xr3:uid="{15AC6AED-3D7C-7C43-894D-5DC1DCC41E8B}" name="Column658"/>
+    <tableColumn id="659" xr3:uid="{ACB0B26F-2982-F34C-A6ED-0D8602A9E710}" name="Column659"/>
+    <tableColumn id="660" xr3:uid="{64113FC3-7EFC-484A-8807-B323249976FC}" name="Column660"/>
+    <tableColumn id="661" xr3:uid="{10506D11-3B2B-2F4F-AAA9-74141464A446}" name="Column661"/>
+    <tableColumn id="662" xr3:uid="{F131C751-0290-B242-A9BA-270FDD0D8B26}" name="Column662"/>
+    <tableColumn id="663" xr3:uid="{0F0F7AF1-DED0-AB40-9F92-9E2A52A72831}" name="Column663"/>
+    <tableColumn id="664" xr3:uid="{CAE55601-AB43-F44C-8197-8A3C5A961263}" name="Column664"/>
+    <tableColumn id="665" xr3:uid="{F440E6A7-7364-8340-8442-E71CF4DBC8D5}" name="Column665"/>
+    <tableColumn id="666" xr3:uid="{A8544E23-B58A-EA49-B5B4-EC5FA74DDDA7}" name="Column666"/>
+    <tableColumn id="667" xr3:uid="{2DCC0344-18D8-1E4E-8B23-32F4C6552A67}" name="Column667"/>
+    <tableColumn id="668" xr3:uid="{7C89181A-387F-1646-A1E5-E067EB9600CC}" name="Column668"/>
+    <tableColumn id="669" xr3:uid="{A76AFEBB-125C-CD48-B162-1E5577B8200E}" name="Column669"/>
+    <tableColumn id="670" xr3:uid="{1EA78EA8-0657-0049-A377-BF9A3417C325}" name="Column670"/>
+    <tableColumn id="671" xr3:uid="{180B8823-9309-5940-B5C6-4EB422052A77}" name="Column671"/>
+    <tableColumn id="672" xr3:uid="{48E8916C-7AB1-0E4F-B0BC-46617CFBD064}" name="Column672"/>
+    <tableColumn id="673" xr3:uid="{EC3B6736-870C-1E45-963B-672FF80B62D9}" name="Column673"/>
+    <tableColumn id="674" xr3:uid="{AB5D96DA-CD10-664F-9A24-33C139B89EC7}" name="Column674"/>
+    <tableColumn id="675" xr3:uid="{01827125-3BB1-1643-B6D2-3CA99B77B8C5}" name="Column675"/>
+    <tableColumn id="676" xr3:uid="{09BE2998-2C65-F940-B33C-0E07E53A387B}" name="Column676"/>
+    <tableColumn id="677" xr3:uid="{88656618-76DF-804C-8372-614E67568E4C}" name="Column677"/>
+    <tableColumn id="678" xr3:uid="{09753753-D54B-CE45-82DA-3D52F486B36D}" name="Column678"/>
+    <tableColumn id="679" xr3:uid="{00684544-5783-8646-A827-77E4A50934DF}" name="Column679"/>
+    <tableColumn id="680" xr3:uid="{FC74D0FF-9902-6646-8E3B-13E267D2C1DC}" name="Column680"/>
+    <tableColumn id="681" xr3:uid="{4DE0D612-C2C6-4445-9B35-F370143C7D5E}" name="Column681"/>
+    <tableColumn id="682" xr3:uid="{D1904661-E284-2B4A-B9FD-7CCC2605ED19}" name="Column682"/>
+    <tableColumn id="683" xr3:uid="{6EFDD556-2E7D-4D4C-92AF-BABA1BFD53EF}" name="Column683"/>
+    <tableColumn id="684" xr3:uid="{32CC64A3-0B10-514E-A411-DAE5E7B866E4}" name="Column684"/>
+    <tableColumn id="685" xr3:uid="{FB162852-5C0E-AE48-9A54-DB1BD9889F3D}" name="Column685"/>
+    <tableColumn id="686" xr3:uid="{471266EC-1A37-4E45-AB66-B656EC2A6947}" name="Column686"/>
+    <tableColumn id="687" xr3:uid="{610BAD68-35CA-1A44-B116-1FD06CF85060}" name="Column687"/>
+    <tableColumn id="688" xr3:uid="{C2B075C5-BE3B-BF4D-A8FF-80E52007E625}" name="Column688"/>
+    <tableColumn id="689" xr3:uid="{0B83A815-F80E-4246-8B76-1F6ABD13D65E}" name="Column689"/>
+    <tableColumn id="690" xr3:uid="{A7CE25E8-CB92-DB4E-9B50-EADF5B2BDAF1}" name="Column690"/>
+    <tableColumn id="691" xr3:uid="{91592D90-37E4-A049-8EB0-D64BC3C75499}" name="Column691"/>
+    <tableColumn id="692" xr3:uid="{AB59DBC7-0C20-D446-AEB6-91C4BEE7E41E}" name="Column692"/>
+    <tableColumn id="693" xr3:uid="{9DD1158B-92FE-2F4C-964E-C9782226F91A}" name="Column693"/>
+    <tableColumn id="694" xr3:uid="{89BDCDDE-8679-374A-A9DB-1595835B4BA0}" name="Column694"/>
+    <tableColumn id="695" xr3:uid="{8CE9942D-9D03-814B-B3C3-C8E36D6D7B36}" name="Column695"/>
+    <tableColumn id="696" xr3:uid="{48A0398A-E1AD-AB4A-861C-D949F3AE7127}" name="Column696"/>
+    <tableColumn id="697" xr3:uid="{750BB065-D83C-7F41-AC9C-C8E965017158}" name="Column697"/>
+    <tableColumn id="698" xr3:uid="{DC2647D4-32AE-4A43-B5D1-FB2F101026E2}" name="Column698"/>
+    <tableColumn id="699" xr3:uid="{C9384F8F-7512-394B-88C8-B08CD688B899}" name="Column699"/>
+    <tableColumn id="700" xr3:uid="{046EC1D9-3F06-2049-8BE0-336B0570A861}" name="Column700"/>
+    <tableColumn id="701" xr3:uid="{5A640BBA-BA96-CF4B-93B7-7FE05B63CD77}" name="Column701"/>
+    <tableColumn id="702" xr3:uid="{97906E3E-DF79-B64D-8292-240C108D36C8}" name="Column702"/>
+    <tableColumn id="703" xr3:uid="{68F05A0A-9335-4243-963A-D61F5BCE797C}" name="Column703"/>
+    <tableColumn id="704" xr3:uid="{311C38E9-AD26-3442-ABD2-5E42E4668397}" name="Column704"/>
+    <tableColumn id="705" xr3:uid="{4EE84D19-2124-0C4A-B5D4-EB86ACA79143}" name="Column705"/>
+    <tableColumn id="706" xr3:uid="{4401F633-4F92-094A-A0C6-51BB2D2037BC}" name="Column706"/>
+    <tableColumn id="707" xr3:uid="{53624B29-15B5-974D-958C-494CCA5F0229}" name="Column707"/>
+    <tableColumn id="708" xr3:uid="{91636062-2D10-6A49-A1FD-18E3F66A25B6}" name="Column708"/>
+    <tableColumn id="709" xr3:uid="{1933D9B6-82EB-AB47-9E8F-1D87D3544B00}" name="Column709"/>
+    <tableColumn id="710" xr3:uid="{7CE75016-5D6A-5A41-8400-9C73FF5CE1F3}" name="Column710"/>
+    <tableColumn id="711" xr3:uid="{89BE2F22-26AE-CE40-AB0B-21AD90024916}" name="Column711"/>
+    <tableColumn id="712" xr3:uid="{C228D12E-E037-2C44-908B-1DB96E43DE66}" name="Column712"/>
+    <tableColumn id="713" xr3:uid="{819C70C7-493D-E64D-847D-B360F0F2C15F}" name="Column713"/>
+    <tableColumn id="714" xr3:uid="{CF5160C6-C482-134F-ACA3-EB72EE819CBA}" name="Column714"/>
+    <tableColumn id="715" xr3:uid="{751AB7C5-F9A7-4B47-B78C-D486DE8917ED}" name="Column715"/>
+    <tableColumn id="716" xr3:uid="{D022C580-E539-E546-8D56-9818C2361CD1}" name="Column716"/>
+    <tableColumn id="717" xr3:uid="{D867F58B-8AC2-5446-90F1-BD788F18F589}" name="Column717"/>
+    <tableColumn id="718" xr3:uid="{34A98476-ABFD-6449-889E-D2CB9FD05BE3}" name="Column718"/>
+    <tableColumn id="719" xr3:uid="{8B3F1BD0-5C50-E44D-BFE1-1B6DDDF40B3F}" name="Column719"/>
+    <tableColumn id="720" xr3:uid="{D4556AC4-82FE-8E4A-8E60-640D8E6929B5}" name="Column720"/>
+    <tableColumn id="721" xr3:uid="{746B2C1D-777F-6949-A066-82BE72152F76}" name="Column721"/>
+    <tableColumn id="722" xr3:uid="{C08312DA-535B-F04D-A950-910E092252D8}" name="Column722"/>
+    <tableColumn id="723" xr3:uid="{829D4CEB-A7E7-4B4F-97F2-11216DDDFE76}" name="Column723"/>
+    <tableColumn id="724" xr3:uid="{089D43AA-82BB-704D-9B7E-96FB11CDFAD6}" name="Column724"/>
+    <tableColumn id="725" xr3:uid="{7BBDCBCB-BA61-9646-9299-3E047D2BF56A}" name="Column725"/>
+    <tableColumn id="726" xr3:uid="{815FAF0A-E231-C445-9DE3-9B74C15E495F}" name="Column726"/>
+    <tableColumn id="727" xr3:uid="{C5975080-1707-5D40-AAF6-C0201A543E6D}" name="Column727"/>
+    <tableColumn id="728" xr3:uid="{DA499717-A602-0F4A-BE73-0A1094EBB248}" name="Column728"/>
+    <tableColumn id="729" xr3:uid="{E2DB7B19-4C68-024B-8696-6C57DA6615F6}" name="Column729"/>
+    <tableColumn id="730" xr3:uid="{A5079957-5E29-8641-B4BE-D24390C6F4D6}" name="Column730"/>
+    <tableColumn id="731" xr3:uid="{7AF7E391-0258-5742-A7F4-F7726BA16B4F}" name="Column731"/>
+    <tableColumn id="732" xr3:uid="{C2A19D8D-7032-1E45-9AE2-526EC17C0CEA}" name="Column732"/>
+    <tableColumn id="733" xr3:uid="{68834D43-D64E-D740-8AF7-56399866D231}" name="Column733"/>
+    <tableColumn id="734" xr3:uid="{B6E8D5A4-C4C3-C244-AF74-A684079708E0}" name="Column734"/>
+    <tableColumn id="735" xr3:uid="{EC6CA476-99C9-EB4A-89F4-BE848B755E53}" name="Column735"/>
+    <tableColumn id="736" xr3:uid="{34401EEF-B6F0-E647-8D95-65E0CA9704B8}" name="Column736"/>
+    <tableColumn id="737" xr3:uid="{58B9256E-797E-0D45-9D21-0E7A775904E0}" name="Column737"/>
+    <tableColumn id="738" xr3:uid="{A1E1969E-D6E8-DA48-BE6F-CB15A4F0570D}" name="Column738"/>
+    <tableColumn id="739" xr3:uid="{8A01FA58-1BD6-E44F-8016-D5CD01C01ED4}" name="Column739"/>
+    <tableColumn id="740" xr3:uid="{56DC3F65-143D-2D47-B4F2-F205F31ACCE2}" name="Column740"/>
+    <tableColumn id="741" xr3:uid="{F6F085E5-B152-804B-85CF-1E073ABBFE22}" name="Column741"/>
+    <tableColumn id="742" xr3:uid="{36253708-9721-DA48-95BB-2561226D5160}" name="Column742"/>
+    <tableColumn id="743" xr3:uid="{FEC0F316-C0B9-4B47-8C98-63699E34620D}" name="Column743"/>
+    <tableColumn id="744" xr3:uid="{BA3F20FD-A7D1-474F-97AE-9EE3E59B2649}" name="Column744"/>
+    <tableColumn id="745" xr3:uid="{0DC429B6-A792-704E-9A7C-4B9D4D717ADE}" name="Column745"/>
+    <tableColumn id="746" xr3:uid="{489B475B-FA84-9246-AD3B-CBAF24ED8DB8}" name="Column746"/>
+    <tableColumn id="747" xr3:uid="{289F077D-7016-1446-97DA-B247EC39695C}" name="Column747"/>
+    <tableColumn id="748" xr3:uid="{488AB9C3-6A24-044E-BC7F-16F70DC6B470}" name="Column748"/>
+    <tableColumn id="749" xr3:uid="{9C7F317A-F4FA-E64B-A545-966FB266FF79}" name="Column749"/>
+    <tableColumn id="750" xr3:uid="{D97F8323-8710-8046-8CD4-FAE8EDC6446C}" name="Column750"/>
+    <tableColumn id="751" xr3:uid="{C726E604-57B0-1144-B9D8-E84A241F11D9}" name="Column751"/>
+    <tableColumn id="752" xr3:uid="{6D189410-745D-3B40-AF54-B7A6FAF14115}" name="Column752"/>
+    <tableColumn id="753" xr3:uid="{ACCDBD1D-B1D8-8E4F-A634-2B5334BDBCAA}" name="Column753"/>
+    <tableColumn id="754" xr3:uid="{EC64FAA2-DFCF-794F-A201-B3364C81E69C}" name="Column754"/>
+    <tableColumn id="755" xr3:uid="{C97ECFC7-9A9E-7D4B-A177-F020FF13BB89}" name="Column755"/>
+    <tableColumn id="756" xr3:uid="{6B9AD3BB-6317-3549-B8B3-21C54FE824CC}" name="Column756"/>
+    <tableColumn id="757" xr3:uid="{3E872BA0-8942-F34D-907D-BEAB254FFBC5}" name="Column757"/>
+    <tableColumn id="758" xr3:uid="{351D3D29-508B-6A4D-8344-D28A88604660}" name="Column758"/>
+    <tableColumn id="759" xr3:uid="{FF69C97F-C909-1B4D-90AF-475EBE69BCD7}" name="Column759"/>
+    <tableColumn id="760" xr3:uid="{90A0D83F-1443-F64D-BC68-56EE78E9BBA1}" name="Column760"/>
+    <tableColumn id="761" xr3:uid="{BC4B3133-90FB-2B40-82F1-7D7D01EEA329}" name="Column761"/>
+    <tableColumn id="762" xr3:uid="{69BCE2F2-6D72-8842-9998-ED76114E650A}" name="Column762"/>
+    <tableColumn id="763" xr3:uid="{CB457133-7CD3-1D45-AE93-5A554B0FABE4}" name="Column763"/>
+    <tableColumn id="764" xr3:uid="{8F108AEA-814D-7D4B-80FB-A6081D28CB0B}" name="Column764"/>
+    <tableColumn id="765" xr3:uid="{6E647880-D035-8B4F-9FD3-F786A9F1A640}" name="Column765"/>
+    <tableColumn id="766" xr3:uid="{CF753D18-D886-0F4A-8BA0-DE7AB87CBA68}" name="Column766"/>
+    <tableColumn id="767" xr3:uid="{6383AECE-05DB-1041-9288-D7B825500259}" name="Column767"/>
+    <tableColumn id="768" xr3:uid="{980A9972-2AC4-2742-A9DB-E97AD5F268EA}" name="Column768"/>
+    <tableColumn id="769" xr3:uid="{C6111843-449F-4445-B5CF-2B512EB5FDFB}" name="Column769"/>
+    <tableColumn id="770" xr3:uid="{C7A758A9-6B5B-6D48-846A-BBCDB6B547E7}" name="Column770"/>
+    <tableColumn id="771" xr3:uid="{767750E8-3419-7240-99E2-42F9CE2C950A}" name="Column771"/>
+    <tableColumn id="772" xr3:uid="{CE1BF648-C0B8-9547-A804-7FD6C98764F5}" name="Column772"/>
+    <tableColumn id="773" xr3:uid="{D246CF25-C942-084E-A7E3-2E40E340B5F6}" name="Column773"/>
+    <tableColumn id="774" xr3:uid="{45C57279-643C-CD4E-971C-35B111F71421}" name="Column774"/>
+    <tableColumn id="775" xr3:uid="{00A19299-6ED3-5444-8B36-F3C6588F2044}" name="Column775"/>
+    <tableColumn id="776" xr3:uid="{7A04821D-4516-BB47-AC06-5F8DCA781267}" name="Column776"/>
+    <tableColumn id="777" xr3:uid="{B4E97C40-19F2-5643-B311-15AC0B3E0043}" name="Column777"/>
+    <tableColumn id="778" xr3:uid="{5117184A-71A9-0640-AE2D-EE6E891E5E57}" name="Column778"/>
+    <tableColumn id="779" xr3:uid="{E173932E-CAC5-6641-A0C5-27C65CF937EA}" name="Column779"/>
+    <tableColumn id="780" xr3:uid="{86B9D23A-FDA4-E04C-BF91-A2D50529C5C4}" name="Column780"/>
+    <tableColumn id="781" xr3:uid="{1B48242A-A9CD-344E-927B-475C6165A61D}" name="Column781"/>
+    <tableColumn id="782" xr3:uid="{65B51214-C03B-8C42-A155-71C554055609}" name="Column782"/>
+    <tableColumn id="783" xr3:uid="{35A072C5-2BA3-E34C-86FE-13563067B449}" name="Column783"/>
+    <tableColumn id="784" xr3:uid="{E994C8C5-9CE6-CD48-840D-ADD502E3EC62}" name="Column784"/>
+    <tableColumn id="785" xr3:uid="{0477F9B4-63EA-0F40-ABAC-43B663646C18}" name="Column785"/>
+    <tableColumn id="786" xr3:uid="{1634E469-B13D-014F-9D11-68D6482F7806}" name="Column786"/>
+    <tableColumn id="787" xr3:uid="{028A8626-E154-954B-B877-DA12EC3D220F}" name="Column787"/>
+    <tableColumn id="788" xr3:uid="{D5E77976-0B7E-F349-B0E6-CF05F3976DD0}" name="Column788"/>
+    <tableColumn id="789" xr3:uid="{53429473-2F1F-4E42-A6AC-7CCAD0D7A455}" name="Column789"/>
+    <tableColumn id="790" xr3:uid="{D7AFCD1A-3B3E-9841-A827-2CD2E02C57E5}" name="Column790"/>
+    <tableColumn id="791" xr3:uid="{C7265078-49F7-7747-BF23-4BF866388AA2}" name="Column791"/>
+    <tableColumn id="792" xr3:uid="{6D925572-A424-554F-99F0-67B540D9384E}" name="Column792"/>
+    <tableColumn id="793" xr3:uid="{A46535A6-DC88-8B44-BC37-EACBD377565F}" name="Column793"/>
+    <tableColumn id="794" xr3:uid="{5F67A7A4-1DD0-4440-A69E-8869F76EFD36}" name="Column794"/>
+    <tableColumn id="795" xr3:uid="{350643F2-5656-A544-8752-0E2EAB5D86D4}" name="Column795"/>
+    <tableColumn id="796" xr3:uid="{2689B081-6633-934F-A580-3F007DD97AC4}" name="Column796"/>
+    <tableColumn id="797" xr3:uid="{D1424E9C-44B7-A947-A921-37B892CBBFF6}" name="Column797"/>
+    <tableColumn id="798" xr3:uid="{8F777FBC-D6B4-994A-9524-3EFB08598FED}" name="Column798"/>
+    <tableColumn id="799" xr3:uid="{2A6C46AB-7B3A-1C4C-952C-6139EF72E19C}" name="Column799"/>
+    <tableColumn id="800" xr3:uid="{2F7FDE16-91DA-794A-82A2-0F483BE1A042}" name="Column800"/>
+    <tableColumn id="801" xr3:uid="{283CE329-5D56-6E49-88A0-9546D82CF24C}" name="Column801"/>
+    <tableColumn id="802" xr3:uid="{0600BB98-6AFB-3344-81B2-0ECCC5722975}" name="Column802"/>
+    <tableColumn id="803" xr3:uid="{5BEE0FDA-9467-5842-B1BB-D07B35D9CCB6}" name="Column803"/>
+    <tableColumn id="804" xr3:uid="{D98989D1-FBEC-D144-8609-416513ADB69A}" name="Column804"/>
+    <tableColumn id="805" xr3:uid="{9217F3C4-5CD3-9C47-B204-1923EBDECEA5}" name="Column805"/>
+    <tableColumn id="806" xr3:uid="{9F04A02B-155A-9541-95D3-41ABF900A831}" name="Column806"/>
+    <tableColumn id="807" xr3:uid="{23883EA1-8D1F-704B-A3B6-32D03AEAB122}" name="Column807"/>
+    <tableColumn id="808" xr3:uid="{AAA04BB8-9889-9146-A845-0B3E8DB9966E}" name="Column808"/>
+    <tableColumn id="809" xr3:uid="{9DEAE201-0595-FB4D-8B6D-1581D9569AD3}" name="Column809"/>
+    <tableColumn id="810" xr3:uid="{3619E1D6-D03F-724C-B332-90DF78C80957}" name="Column810"/>
+    <tableColumn id="811" xr3:uid="{E834FB13-39CC-A14B-A84C-95323101FE9B}" name="Column811"/>
+    <tableColumn id="812" xr3:uid="{DFCEF538-6798-1446-914C-A56D06348A97}" name="Column812"/>
+    <tableColumn id="813" xr3:uid="{21E3E3C1-51E2-D549-AADB-6614A9565C0F}" name="Column813"/>
+    <tableColumn id="814" xr3:uid="{6296F80D-5682-9944-8994-DC4FDF1F7CF3}" name="Column814"/>
+    <tableColumn id="815" xr3:uid="{AE50F8BF-7358-FE4B-ADF1-8C595A9A3B83}" name="Column815"/>
+    <tableColumn id="816" xr3:uid="{08961BA6-CEDB-7F4B-A49C-9C1C68AD0589}" name="Column816"/>
+    <tableColumn id="817" xr3:uid="{D56A8942-2442-4B4C-896D-13AD28985F88}" name="Column817"/>
+    <tableColumn id="818" xr3:uid="{5538E06E-41D4-6848-80AE-7AE595F59B12}" name="Column818"/>
+    <tableColumn id="819" xr3:uid="{2201A044-55A0-9F4C-AECC-B8E334AD3E64}" name="Column819"/>
+    <tableColumn id="820" xr3:uid="{C7BAF344-5FD7-9C4F-8240-F50CE95631B6}" name="Column820"/>
+    <tableColumn id="821" xr3:uid="{00B85641-70C8-AB47-994F-0A43D49B4508}" name="Column821"/>
+    <tableColumn id="822" xr3:uid="{E54C24B5-C9E4-4C4F-8DD7-D7BEB59CDF6B}" name="Column822"/>
+    <tableColumn id="823" xr3:uid="{235A7050-8013-CA48-99B0-656FAAD9877B}" name="Column823"/>
+    <tableColumn id="824" xr3:uid="{3195F264-7DED-3242-92C6-7FFB93D55071}" name="Column824"/>
+    <tableColumn id="825" xr3:uid="{B471EA8B-CCCA-7C44-819B-C416CC924DB8}" name="Column825"/>
+    <tableColumn id="826" xr3:uid="{10A77F24-B841-9245-8190-E5405AFBDF59}" name="Column826"/>
+    <tableColumn id="827" xr3:uid="{6D6FF20A-2673-1443-B4C0-2074BF53A501}" name="Column827"/>
+    <tableColumn id="828" xr3:uid="{54A39C79-19CF-B548-9BD7-6EE1EDE0635B}" name="Column828"/>
+    <tableColumn id="829" xr3:uid="{A19E4B9D-1914-6049-BC92-B5D5314A8DBA}" name="Column829"/>
+    <tableColumn id="830" xr3:uid="{76429EC8-3AC6-154B-85BF-0C72C7B8780F}" name="Column830"/>
+    <tableColumn id="831" xr3:uid="{832D6AF9-F24A-4746-B8FF-3404505FDC59}" name="Column831"/>
+    <tableColumn id="832" xr3:uid="{595E928E-5A64-604B-B582-424A2810235C}" name="Column832"/>
+    <tableColumn id="833" xr3:uid="{BEDC5FD0-C24F-7248-B77A-6FDDA0B4A995}" name="Column833"/>
+    <tableColumn id="834" xr3:uid="{7B928B50-BE51-E04F-8854-992F0E049BF7}" name="Column834"/>
+    <tableColumn id="835" xr3:uid="{8E6BB816-35C6-7847-A701-B7DE5CA319F8}" name="Column835"/>
+    <tableColumn id="836" xr3:uid="{FBCA4B2B-7FFD-3847-850F-9A682C833AF7}" name="Column836"/>
+    <tableColumn id="837" xr3:uid="{62F46786-2A7F-8242-95DA-9976B6590251}" name="Column837"/>
+    <tableColumn id="838" xr3:uid="{3F246330-1E3C-2549-A6D3-011895A8B444}" name="Column838"/>
+    <tableColumn id="839" xr3:uid="{F58AB250-4A9D-C540-8EE6-2C6BF2369C0F}" name="Column839"/>
+    <tableColumn id="840" xr3:uid="{B2F69DA6-7B35-934C-B47D-F0FCCE2A4134}" name="Column840"/>
+    <tableColumn id="841" xr3:uid="{953DAC9A-6089-E84C-AA7E-32AB08C08188}" name="Column841"/>
+    <tableColumn id="842" xr3:uid="{C4DDAC0C-85C0-554A-8410-543927345FE0}" name="Column842"/>
+    <tableColumn id="843" xr3:uid="{DC08A776-8239-A94A-9EB9-8B7C95DF44BD}" name="Column843"/>
+    <tableColumn id="844" xr3:uid="{0DCBCDD8-0AC0-684A-81CD-0CB31D8B0555}" name="Column844"/>
+    <tableColumn id="845" xr3:uid="{C19825DB-7884-054D-B660-9A36FFE9E25A}" name="Column845"/>
+    <tableColumn id="846" xr3:uid="{A92280A0-7237-9B47-9C41-D04165E05C06}" name="Column846"/>
+    <tableColumn id="847" xr3:uid="{384A91E1-F3EE-D74D-88F6-266D29248BD6}" name="Column847"/>
+    <tableColumn id="848" xr3:uid="{A8A3865B-9911-9A4C-BFEA-FF8D246EC17A}" name="Column848"/>
+    <tableColumn id="849" xr3:uid="{75B5B97F-0CEF-A649-9F6C-4C0691FAF066}" name="Column849"/>
+    <tableColumn id="850" xr3:uid="{AA18CE49-19BA-BE43-8C23-382730C2AD78}" name="Column850"/>
+    <tableColumn id="851" xr3:uid="{05933F33-D20B-7844-8AFC-B6E464BA756E}" name="Column851"/>
+    <tableColumn id="852" xr3:uid="{5B18F10E-6E96-964B-8707-C0457BBC838B}" name="Column852"/>
+    <tableColumn id="853" xr3:uid="{CACE8B29-D38A-994D-AA8C-47BC12DDC925}" name="Column853"/>
+    <tableColumn id="854" xr3:uid="{42AC90BD-9949-1D4E-AAB7-8224B2DB5034}" name="Column854"/>
+    <tableColumn id="855" xr3:uid="{8C6ADF31-855A-A04B-99FF-A117BE48CFAF}" name="Column855"/>
+    <tableColumn id="856" xr3:uid="{8669CFEE-4D33-D441-9846-0D581D544D52}" name="Column856"/>
+    <tableColumn id="857" xr3:uid="{CD6AB6AA-4B99-D748-B86E-3246CF061F15}" name="Column857"/>
+    <tableColumn id="858" xr3:uid="{9C6BFE3C-A99B-574F-96E0-6196785DF38C}" name="Column858"/>
+    <tableColumn id="859" xr3:uid="{C3FE8DAD-6EE1-FC43-B416-A84C99207889}" name="Column859"/>
+    <tableColumn id="860" xr3:uid="{1D3E28D3-906D-DE45-96FF-DE4AEF8160B0}" name="Column860"/>
+    <tableColumn id="861" xr3:uid="{2735153A-D892-7040-B3DF-9A30BB62F294}" name="Column861"/>
+    <tableColumn id="862" xr3:uid="{50EE527C-9FD2-AF41-BD5E-B50433CF988C}" name="Column862"/>
+    <tableColumn id="863" xr3:uid="{066EB138-D2F1-0343-93FA-38F03D560CB0}" name="Column863"/>
+    <tableColumn id="864" xr3:uid="{E8312BC5-8E96-A044-8CFF-3546199A3590}" name="Column864"/>
+    <tableColumn id="865" xr3:uid="{580097AD-224C-7D45-B307-51391C3F5B81}" name="Column865"/>
+    <tableColumn id="866" xr3:uid="{8F65D6F2-EBA0-EE4D-98FA-F6DDFAD88958}" name="Column866"/>
+    <tableColumn id="867" xr3:uid="{E4FD8737-E371-C148-B5B9-47A9A01E0B70}" name="Column867"/>
+    <tableColumn id="868" xr3:uid="{7B5CB863-0541-FF4C-99B7-4B0E45525108}" name="Column868"/>
+    <tableColumn id="869" xr3:uid="{087CD21C-A723-0F42-BEA8-55EFA5B5E953}" name="Column869"/>
+    <tableColumn id="870" xr3:uid="{AEF04ECC-F33C-B843-B2C0-D386B7D17D50}" name="Column870"/>
+    <tableColumn id="871" xr3:uid="{19FFB0D5-9209-4445-AF51-D151B199DA21}" name="Column871"/>
+    <tableColumn id="872" xr3:uid="{55DAA316-D2F3-CA4D-A383-05D60A7B2036}" name="Column872"/>
+    <tableColumn id="873" xr3:uid="{C99943CB-348F-5D47-AC70-BC2516A8EDF8}" name="Column873"/>
+    <tableColumn id="874" xr3:uid="{6C3D6D60-D621-9446-8BDA-0CA46C7D72DD}" name="Column874"/>
+    <tableColumn id="875" xr3:uid="{8F0D4D95-4EC3-5A4E-8075-B610959E9A33}" name="Column875"/>
+    <tableColumn id="876" xr3:uid="{C83F7D1A-596C-6D4D-AF5B-E60705AE1DEF}" name="Column876"/>
+    <tableColumn id="877" xr3:uid="{FB4CA79C-77C8-2049-B6A2-3F7D9CED52E7}" name="Column877"/>
+    <tableColumn id="878" xr3:uid="{A5D0AD46-4E3F-B147-8DEF-7E715C02AAA2}" name="Column878"/>
+    <tableColumn id="879" xr3:uid="{8C038A0C-24D2-7E44-AAE2-8C047299C197}" name="Column879"/>
+    <tableColumn id="880" xr3:uid="{9FCE25C4-9DAF-434D-901B-B481FD096F82}" name="Column880"/>
+    <tableColumn id="881" xr3:uid="{1C1F6846-13FD-C945-9A13-E9BD31DEE0DA}" name="Column881"/>
+    <tableColumn id="882" xr3:uid="{15C8FAB3-99C1-7D4D-99C5-934BBC91BEF0}" name="Column882"/>
+    <tableColumn id="883" xr3:uid="{ACE1F4A8-6CBD-C741-B669-32EEDDA2F1FA}" name="Column883"/>
+    <tableColumn id="884" xr3:uid="{8BB11C47-D86B-BE42-8BBA-DD941CA70201}" name="Column884"/>
+    <tableColumn id="885" xr3:uid="{529096CD-12BD-904B-A2D6-1AEB87AAF9C0}" name="Column885"/>
+    <tableColumn id="886" xr3:uid="{143210BB-4220-6141-8A27-D2AF0BF4E4E1}" name="Column886"/>
+    <tableColumn id="887" xr3:uid="{F469AE6E-A396-9D40-9BE8-44A7DC338DC3}" name="Column887"/>
+    <tableColumn id="888" xr3:uid="{80E00D4D-0FF1-7B48-A3B9-9FA1C1C0C2CC}" name="Column888"/>
+    <tableColumn id="889" xr3:uid="{B7013211-5E4C-1D4E-8083-CF74AAA41AB6}" name="Column889"/>
+    <tableColumn id="890" xr3:uid="{9E90799B-0F8C-E34A-B3B0-97C737E4F233}" name="Column890"/>
+    <tableColumn id="891" xr3:uid="{5D40D09F-3A74-A648-97DE-46C9904DF307}" name="Column891"/>
+    <tableColumn id="892" xr3:uid="{61746E58-E8C3-9E4E-9F2C-7035127BBC0B}" name="Column892"/>
+    <tableColumn id="893" xr3:uid="{A08E31E7-B2C0-434E-8FF2-DEF323D4BD40}" name="Column893"/>
+    <tableColumn id="894" xr3:uid="{4868B710-528B-B34E-AA1C-BC74BE3FE9D4}" name="Column894"/>
+    <tableColumn id="895" xr3:uid="{F08BB665-4693-6E4A-8B7D-C21440773C3F}" name="Column895"/>
+    <tableColumn id="896" xr3:uid="{2F28D1A3-21A0-0148-89B4-4273C7E9BF8B}" name="Column896"/>
+    <tableColumn id="897" xr3:uid="{81EC9EAC-D2A8-3C4B-9E7D-AAF2B24D2AF9}" name="Column897"/>
+    <tableColumn id="898" xr3:uid="{C1073FA9-3E53-6247-89E8-3B2CDBCDCBFC}" name="Column898"/>
+    <tableColumn id="899" xr3:uid="{60B20FE4-5301-0440-8686-9CE7217E2370}" name="Column899"/>
+    <tableColumn id="900" xr3:uid="{D742788A-6EA5-824B-B767-9C15E87D9391}" name="Column900"/>
+    <tableColumn id="901" xr3:uid="{60377F3D-2027-764D-856D-26C6082BEC91}" name="Column901"/>
+    <tableColumn id="902" xr3:uid="{D9C14B43-5943-E94C-AAF0-A57D01BDE1F4}" name="Column902"/>
+    <tableColumn id="903" xr3:uid="{2076AEFE-A22E-664A-8139-5AA0F52A48F5}" name="Column903"/>
+    <tableColumn id="904" xr3:uid="{66EE9FD1-CB10-8E48-BA18-210E1FAF6B08}" name="Column904"/>
+    <tableColumn id="905" xr3:uid="{F28E22CB-807F-7946-A23E-6CCAFD24199B}" name="Column905"/>
+    <tableColumn id="906" xr3:uid="{101FDD62-6AD9-4F4D-AE7E-740CE9C052DC}" name="Column906"/>
+    <tableColumn id="907" xr3:uid="{7C8F3847-89E7-4142-861E-99A6819DC741}" name="Column907"/>
+    <tableColumn id="908" xr3:uid="{57B51204-7B90-4143-BB17-D958EAC526BF}" name="Column908"/>
+    <tableColumn id="909" xr3:uid="{E29CFA6B-A864-5447-9D01-343AA4160251}" name="Column909"/>
+    <tableColumn id="910" xr3:uid="{D5E26A0F-978E-EA44-A9D8-594F33E334DE}" name="Column910"/>
+    <tableColumn id="911" xr3:uid="{752D7952-EB69-F649-BC6E-E93ABCF7BAD2}" name="Column911"/>
+    <tableColumn id="912" xr3:uid="{80EF971C-C65E-AA4D-AB54-95D4EEEC2E56}" name="Column912"/>
+    <tableColumn id="913" xr3:uid="{C57B8DD5-1994-634C-ACCB-FBE17114577F}" name="Column913"/>
+    <tableColumn id="914" xr3:uid="{1BD9C1CB-3778-EC49-ADA7-3138A7D395AB}" name="Column914"/>
+    <tableColumn id="915" xr3:uid="{ED53C457-8180-F143-B1D4-32C177E01C58}" name="Column915"/>
+    <tableColumn id="916" xr3:uid="{923A4715-F1C5-8F4E-B66D-BBC3D0D39C79}" name="Column916"/>
+    <tableColumn id="917" xr3:uid="{3D9921EB-F5F0-6247-8F10-B1B9211CCBEC}" name="Column917"/>
+    <tableColumn id="918" xr3:uid="{8DE2E658-7524-0746-82CC-5A77E4080B6F}" name="Column918"/>
+    <tableColumn id="919" xr3:uid="{2F7F68E2-DEE8-BD44-ABAA-10C1EC853C8A}" name="Column919"/>
+    <tableColumn id="920" xr3:uid="{7F9120D5-5D32-C049-A761-9F9553E88DF0}" name="Column920"/>
+    <tableColumn id="921" xr3:uid="{D052D897-26FA-164B-9D0A-A9E8F7B2381F}" name="Column921"/>
+    <tableColumn id="922" xr3:uid="{2166FC42-810D-A84D-81FB-0A9BD79DF836}" name="Column922"/>
+    <tableColumn id="923" xr3:uid="{3FDE53E8-6ECB-EC49-A582-65D1CAD28BEE}" name="Column923"/>
+    <tableColumn id="924" xr3:uid="{645E35D0-2D71-5540-BFF4-38CCFC586689}" name="Column924"/>
+    <tableColumn id="925" xr3:uid="{6F2A9BE6-C7B2-E349-9E6D-8FBA04958764}" name="Column925"/>
+    <tableColumn id="926" xr3:uid="{FD8D743E-B68D-9B4A-9261-22D501F38074}" name="Column926"/>
+    <tableColumn id="927" xr3:uid="{D200D830-1BC9-DF4C-9C5D-1DE107FBE53D}" name="Column927"/>
+    <tableColumn id="928" xr3:uid="{CCADEC61-01C0-A446-87BC-F43D141172F8}" name="Column928"/>
+    <tableColumn id="929" xr3:uid="{B171908D-4C69-5845-BCD1-96C2D28DBC10}" name="Column929"/>
+    <tableColumn id="930" xr3:uid="{F6269772-68F4-0549-81DC-E28F802B9585}" name="Column930"/>
+    <tableColumn id="931" xr3:uid="{EA236D7E-D832-CF4B-B085-584C66DBBCFD}" name="Column931"/>
+    <tableColumn id="932" xr3:uid="{E87DAF4A-9045-8C41-9820-B30A79D19680}" name="Column932"/>
+    <tableColumn id="933" xr3:uid="{85AFB21C-FB9D-C840-BFD8-0DCA90463BC0}" name="Column933"/>
+    <tableColumn id="934" xr3:uid="{C1AB58B0-2229-B341-B491-8098BCFA2378}" name="Column934"/>
+    <tableColumn id="935" xr3:uid="{E04A6E8E-E41D-E244-93A1-F90D96134F7B}" name="Column935"/>
+    <tableColumn id="936" xr3:uid="{3D94658B-0CB9-3245-8E70-728A2FB33AEC}" name="Column936"/>
+    <tableColumn id="937" xr3:uid="{5823E9CD-4E9D-664D-8E7D-8E14D36A981F}" name="Column937"/>
+    <tableColumn id="938" xr3:uid="{4C70A06A-C041-2248-BB0D-D6E66A41EDF2}" name="Column938"/>
+    <tableColumn id="939" xr3:uid="{5090BF7D-1340-A24A-9C4D-E4ECA1125DD8}" name="Column939"/>
+    <tableColumn id="940" xr3:uid="{F8DE2D71-2C7E-0444-B2E0-F862020D40FE}" name="Column940"/>
+    <tableColumn id="941" xr3:uid="{0E794913-5FF0-4345-A363-7C56077DB2D4}" name="Column941"/>
+    <tableColumn id="942" xr3:uid="{7BCB7782-9D25-F141-B79C-70B6AC98CED2}" name="Column942"/>
+    <tableColumn id="943" xr3:uid="{A50D4D83-E24F-3F47-86E1-100646F5E7DE}" name="Column943"/>
+    <tableColumn id="944" xr3:uid="{E8420C0A-3960-374E-8160-8C02767E0388}" name="Column944"/>
+    <tableColumn id="945" xr3:uid="{36E2399F-FAFD-594E-9AB5-0282A061A14D}" name="Column945"/>
+    <tableColumn id="946" xr3:uid="{F67BD1AA-853D-684B-A469-9DC9540B393C}" name="Column946"/>
+    <tableColumn id="947" xr3:uid="{560518C3-59E1-F043-B8A0-A890C8E2E744}" name="Column947"/>
+    <tableColumn id="948" xr3:uid="{A667BC02-F1FE-FA47-AF37-B3A54FDCB419}" name="Column948"/>
+    <tableColumn id="949" xr3:uid="{671F7CEB-0A5D-9545-A4AE-F98F07FE1767}" name="Column949"/>
+    <tableColumn id="950" xr3:uid="{80886FB8-0017-5B42-B9B9-012BF2AE5C06}" name="Column950"/>
+    <tableColumn id="951" xr3:uid="{1AF83912-BFF2-AC4C-8CCD-4215720B82F0}" name="Column951"/>
+    <tableColumn id="952" xr3:uid="{DC506BF1-D48C-0847-8DAE-E6A4BF188E46}" name="Column952"/>
+    <tableColumn id="953" xr3:uid="{0F1A23A7-69AB-0048-8A5D-BD840D13FD35}" name="Column953"/>
+    <tableColumn id="954" xr3:uid="{B54EA823-7595-8940-A533-D04A83A13B30}" name="Column954"/>
+    <tableColumn id="955" xr3:uid="{EECF531A-5CC1-B44D-A906-137A3F8D1516}" name="Column955"/>
+    <tableColumn id="956" xr3:uid="{D9FC731C-B66D-F34E-BF5A-40717746F137}" name="Column956"/>
+    <tableColumn id="957" xr3:uid="{C782B87D-266E-A142-86C5-7A053E9E2D77}" name="Column957"/>
+    <tableColumn id="958" xr3:uid="{9FCC4AD9-EACC-2445-B43B-220B7C763063}" name="Column958"/>
+    <tableColumn id="959" xr3:uid="{D302F106-D114-BC4F-AE1E-9CBE2A6D2CC4}" name="Column959"/>
+    <tableColumn id="960" xr3:uid="{9733EAE5-1B9C-0148-9FF3-9137D1B2A091}" name="Column960"/>
+    <tableColumn id="961" xr3:uid="{8B0BF866-ECCA-9843-A9C5-FAF4DC33679A}" name="Column961"/>
+    <tableColumn id="962" xr3:uid="{2F6CF989-7FEA-7C4B-A407-5DFDE5B7FC20}" name="Column962"/>
+    <tableColumn id="963" xr3:uid="{F007A602-2421-894D-9BBA-0628214B2A6C}" name="Column963"/>
+    <tableColumn id="964" xr3:uid="{5B0DD255-FBC1-B74A-8997-ACC63F3D0848}" name="Column964"/>
+    <tableColumn id="965" xr3:uid="{CA724281-DF50-BA46-8C07-E08DE3793C99}" name="Column965"/>
+    <tableColumn id="966" xr3:uid="{FD8EE106-63A1-7C47-A037-C03F3957556D}" name="Column966"/>
+    <tableColumn id="967" xr3:uid="{FC39DF99-5008-E740-854A-7966FBE32D77}" name="Column967"/>
+    <tableColumn id="968" xr3:uid="{D77124CA-2E3F-6C48-8E82-E0F43092D213}" name="Column968"/>
+    <tableColumn id="969" xr3:uid="{F5A22D3F-C5CA-4746-B857-F9E5EEF8986F}" name="Column969"/>
+    <tableColumn id="970" xr3:uid="{7671F49A-A2D7-964B-96FA-A9C481C45530}" name="Column970"/>
+    <tableColumn id="971" xr3:uid="{C1B0BA15-B217-AE4D-A56E-13FE1D997853}" name="Column971"/>
+    <tableColumn id="972" xr3:uid="{F7285C00-CBA5-C64C-903A-255BD477B62A}" name="Column972"/>
+    <tableColumn id="973" xr3:uid="{6BDE146D-C742-5949-9A77-65CB198F0671}" name="Column973"/>
+    <tableColumn id="974" xr3:uid="{71B28DD2-0BDB-7C49-94D5-4CDCFB3EAACF}" name="Column974"/>
+    <tableColumn id="975" xr3:uid="{641675DF-FEA3-2844-817F-3662E1F40A42}" name="Column975"/>
+    <tableColumn id="976" xr3:uid="{ABB9105C-862B-C849-82E3-6208227FB2BE}" name="Column976"/>
+    <tableColumn id="977" xr3:uid="{13E1A4DA-EB70-144F-95FB-D457A1AA586A}" name="Column977"/>
+    <tableColumn id="978" xr3:uid="{CEE11346-B493-6949-A03A-EC6B228BF752}" name="Column978"/>
+    <tableColumn id="979" xr3:uid="{9A403800-A8F0-EE46-B223-CEC725C37AE0}" name="Column979"/>
+    <tableColumn id="980" xr3:uid="{329F210F-5F89-F846-87FC-4B43546C7C0C}" name="Column980"/>
+    <tableColumn id="981" xr3:uid="{6C98B17A-1360-2E41-8DB1-FF6F69F6952B}" name="Column981"/>
+    <tableColumn id="982" xr3:uid="{709276ED-F196-5A4E-97B2-3BFCAA3A4E48}" name="Column982"/>
+    <tableColumn id="983" xr3:uid="{A468C762-185B-1840-AA32-F9F16E9DF8C4}" name="Column983"/>
+    <tableColumn id="984" xr3:uid="{A7694230-4FD3-834F-BD47-E9806BE14859}" name="Column984"/>
+    <tableColumn id="985" xr3:uid="{DD37FC2E-1F6F-2049-83D5-59FD6DAA8598}" name="Column985"/>
+    <tableColumn id="986" xr3:uid="{E9512234-4682-1743-AAEE-B99F7807E18A}" name="Column986"/>
+    <tableColumn id="987" xr3:uid="{7B0BC849-0B73-A14F-9955-0C55A8E44F7C}" name="Column987"/>
+    <tableColumn id="988" xr3:uid="{B8F73F3F-FA04-BB4C-841A-F1E481354787}" name="Column988"/>
+    <tableColumn id="989" xr3:uid="{5B7E851E-F58A-F747-8177-F0BB231D496D}" name="Column989"/>
+    <tableColumn id="990" xr3:uid="{DE4F96C9-8E17-0640-9720-9E22C797B337}" name="Column990"/>
+    <tableColumn id="991" xr3:uid="{F9FDB56C-876B-B541-B68A-C67F2F835E50}" name="Column991"/>
+    <tableColumn id="992" xr3:uid="{9A8FCCE6-0877-8349-AF6F-F48757E0CC48}" name="Column992"/>
+    <tableColumn id="993" xr3:uid="{66FC0BAD-CC90-DC4E-88DB-FE6596A2D0BA}" name="Column993"/>
+    <tableColumn id="994" xr3:uid="{18FDD0F6-1CD8-EA47-A4D6-CAFA67AD0ECA}" name="Column994"/>
+    <tableColumn id="995" xr3:uid="{778C9338-C116-7447-9AA7-FC7506CA0E27}" name="Column995"/>
+    <tableColumn id="996" xr3:uid="{A81D41E8-D3F7-4B4A-8BF9-EC0BD6306694}" name="Column996"/>
+    <tableColumn id="997" xr3:uid="{94DA7DAC-50D8-F247-BF8B-3F48E74010C3}" name="Column997"/>
+    <tableColumn id="998" xr3:uid="{E3C59CEF-D41E-1044-A220-0A50CCBCCF41}" name="Column998"/>
+    <tableColumn id="999" xr3:uid="{009DE024-5E8B-FD42-B508-0D9A7395B6F6}" name="Column999"/>
+    <tableColumn id="1000" xr3:uid="{42C87B22-286B-3B44-8021-07FEB260A6CD}" name="Column1000"/>
+    <tableColumn id="1001" xr3:uid="{7869195B-0126-E641-B8B6-2CAE93594DFB}" name="Column1001"/>
+    <tableColumn id="1002" xr3:uid="{E4510567-CD47-FA41-9E63-44234B4AE8BD}" name="Column1002"/>
+    <tableColumn id="1003" xr3:uid="{CFB5B3A9-87A6-0F45-A684-E7BE49BC7AB7}" name="Column1003"/>
+    <tableColumn id="1004" xr3:uid="{30F85D5B-5C39-7C4F-94B7-089145C86460}" name="Column1004"/>
+    <tableColumn id="1005" xr3:uid="{73038B9D-F2C3-8549-AC60-56C342342D22}" name="Column1005"/>
+    <tableColumn id="1006" xr3:uid="{157223BB-C835-AB42-B1F5-C388C91A3A29}" name="Column1006"/>
+    <tableColumn id="1007" xr3:uid="{3212979B-FC84-1445-9260-B70A951DCDF4}" name="Column1007"/>
+    <tableColumn id="1008" xr3:uid="{A9754B57-0EAA-1D47-A278-2E9A403E4357}" name="Column1008"/>
+    <tableColumn id="1009" xr3:uid="{30ABA153-9C30-084A-842D-A2EEEE15863F}" name="Column1009"/>
+    <tableColumn id="1010" xr3:uid="{42F76AEE-8097-BD40-A937-64104F162F3A}" name="Column1010"/>
+    <tableColumn id="1011" xr3:uid="{E44719B2-BD18-B143-BD76-F1842E273D06}" name="Column1011"/>
+    <tableColumn id="1012" xr3:uid="{E51000D8-04D3-F241-9D87-FEC35A60B93B}" name="Column1012"/>
+    <tableColumn id="1013" xr3:uid="{297305A3-12B3-8340-AFA3-348A71BA8DB5}" name="Column1013"/>
+    <tableColumn id="1014" xr3:uid="{C156D089-B524-B941-8891-5A7CB8DAF25B}" name="Column1014"/>
+    <tableColumn id="1015" xr3:uid="{D1D38D6D-D836-4847-88D4-EB6CAF82E5D4}" name="Column1015"/>
+    <tableColumn id="1016" xr3:uid="{4C2ABC0A-832B-5344-8991-82B25291D566}" name="Column1016"/>
+    <tableColumn id="1017" xr3:uid="{5236CD7F-26F5-9449-9002-7E9AB935F56C}" name="Column1017"/>
+    <tableColumn id="1018" xr3:uid="{20F38946-3424-6346-98FA-945C956FF2B5}" name="Column1018"/>
+    <tableColumn id="1019" xr3:uid="{6B998FD1-BB34-BF4E-90C3-A6556F6AC177}" name="Column1019"/>
+    <tableColumn id="1020" xr3:uid="{388B7ACD-4B70-AD45-AA0E-162DDEBE7471}" name="Column1020"/>
+    <tableColumn id="1021" xr3:uid="{67F7B3AE-EF7D-BA4E-9058-55D852C081EC}" name="Column1021"/>
+    <tableColumn id="1022" xr3:uid="{6AC532D7-9069-7C40-A4F1-2E66CDB43519}" name="Column1022"/>
+    <tableColumn id="1023" xr3:uid="{B7A32308-10AC-7B49-A47D-4D78AFE34C10}" name="Column1023"/>
+    <tableColumn id="1024" xr3:uid="{4CDC3D1C-C2EC-5F4E-99F7-978653999B3D}" name="Column1024"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2311,10 +2324,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0705C5-8230-904B-AF32-33F11754D3EC}">
-  <dimension ref="A1:D192"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D23046F-D1C9-1F4C-9DE5-3EC2595819A2}">
+  <dimension ref="A1:D194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
       <selection activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
@@ -4980,7 +4993,7 @@
         <v>5</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D190" t="s">
         <v>7</v>
@@ -4994,7 +5007,7 @@
         <v>5</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D191" t="s">
         <v>7</v>
@@ -5014,10 +5027,38 @@
         <v>7</v>
       </c>
     </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>214</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D193" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>216</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D194" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C24" r:id="rId1" xr:uid="{71B04D9B-E159-0D4E-9385-282B1BDD08C7}"/>
-    <hyperlink ref="C28" r:id="rId2" xr:uid="{6784F1C8-66BD-7E4A-8E90-51A7F2334326}"/>
+    <hyperlink ref="C24" r:id="rId1" xr:uid="{A4307767-F8FE-F744-AB82-BB91E462188A}"/>
+    <hyperlink ref="C28" r:id="rId2" xr:uid="{4D49CAF7-CDB1-3449-8581-C9ED7766EBB0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -5027,7 +5068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58F325A-7AA2-D84F-B025-CD16D1B8E39B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755FEDDD-E700-DC45-A3DD-FED273319C1C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5043,7 +5084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE4693C-D435-4942-BD90-F966603A1FDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853A6B9D-61EA-4742-BF1F-101078EFED34}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/data/cci/cci-platform-sensor-mapping.xlsx
+++ b/data/cci/cci-platform-sensor-mapping.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony.wilson/git/cci-vocabularies/data/cci/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amw23\Documents\GitHub\cci-vocabularies\data\cci\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCBE608-2800-DC4A-827D-E73FBC37179C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E0EC28-7E0F-4727-90F1-0A0AFEBD8FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32740" yWindow="-1680" windowWidth="30240" windowHeight="18880" xr2:uid="{FD923E19-B480-F145-8CDB-DB01416B5D33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FD923E19-B480-F145-8CDB-DB01416B5D33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="230">
   <si>
     <t>Platform URI</t>
   </si>
@@ -679,6 +679,39 @@
   </si>
   <si>
     <t>sens_esmrNim6</t>
+  </si>
+  <si>
+    <t>plat_erbs</t>
+  </si>
+  <si>
+    <t>sens_sageII</t>
+  </si>
+  <si>
+    <t>plat_uars</t>
+  </si>
+  <si>
+    <t>sens_mls</t>
+  </si>
+  <si>
+    <t>sens_mlsAura</t>
+  </si>
+  <si>
+    <t>sens_poam</t>
+  </si>
+  <si>
+    <t>plat_meteor_3m</t>
+  </si>
+  <si>
+    <t>sens_sageIII</t>
+  </si>
+  <si>
+    <t>plat_iss_SAGEIII</t>
+  </si>
+  <si>
+    <t>sens_haloe</t>
+  </si>
+  <si>
+    <t>sens_maestro</t>
   </si>
 </sst>
 </file>
@@ -688,7 +721,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00;[Red]&quot;-&quot;[$£-809]#,##0.00"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -973,10 +1006,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2EC9E5EA-79EF-D145-B6CF-A73ADCB4EB68}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:AMJ1048562" headerRowCount="0" totalsRowShown="0">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AMJ1048562">
-    <sortCondition ref="A1:A1048562"/>
-    <sortCondition ref="C1:C1048562"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2EC9E5EA-79EF-D145-B6CF-A73ADCB4EB68}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:AMJ1048563" headerRowCount="0" totalsRowShown="0">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AMJ1048563">
+    <sortCondition ref="A1:A1048563"/>
+    <sortCondition ref="C1:C1048563"/>
   </sortState>
   <tableColumns count="1024">
     <tableColumn id="1" xr3:uid="{378642E7-3D01-1F4F-BB98-16762E49D227}" name="Column1"/>
@@ -2325,23 +2358,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D23046F-D1C9-1F4C-9DE5-3EC2595819A2}">
-  <dimension ref="A1:D194"/>
+  <dimension ref="A1:D202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="C192" sqref="C192"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1"/>
-    <col min="3" max="3" width="66.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" customWidth="1"/>
-    <col min="6" max="64" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="66.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="6" max="64" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2355,7 +2388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2369,7 +2402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -2383,7 +2416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -2397,7 +2430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -2411,7 +2444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -2425,7 +2458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -2439,7 +2472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -2453,7 +2486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -2467,7 +2500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -2481,7 +2514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -2495,7 +2528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -2509,7 +2542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -2523,7 +2556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
@@ -2537,7 +2570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
@@ -2551,7 +2584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2565,7 +2598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
@@ -2579,7 +2612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -2593,7 +2626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
@@ -2607,7 +2640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -2621,7 +2654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
@@ -2635,7 +2668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2649,7 +2682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
         <v>33</v>
       </c>
@@ -2663,7 +2696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
@@ -2677,7 +2710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
         <v>33</v>
       </c>
@@ -2691,7 +2724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
         <v>33</v>
       </c>
@@ -2705,7 +2738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
@@ -2719,7 +2752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
@@ -2733,7 +2766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
         <v>38</v>
       </c>
@@ -2747,7 +2780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
         <v>38</v>
       </c>
@@ -2761,7 +2794,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
         <v>38</v>
       </c>
@@ -2775,7 +2808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
         <v>41</v>
       </c>
@@ -2789,7 +2822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
         <v>43</v>
       </c>
@@ -2803,7 +2836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
         <v>44</v>
       </c>
@@ -2817,7 +2850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
         <v>45</v>
       </c>
@@ -2831,7 +2864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
         <v>46</v>
       </c>
@@ -2845,7 +2878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
         <v>47</v>
       </c>
@@ -2859,7 +2892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
         <v>49</v>
       </c>
@@ -2873,7 +2906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
         <v>50</v>
       </c>
@@ -2887,7 +2920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
         <v>51</v>
       </c>
@@ -2901,7 +2934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
         <v>53</v>
       </c>
@@ -2915,7 +2948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
         <v>55</v>
       </c>
@@ -2929,7 +2962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" s="3" t="s">
         <v>56</v>
       </c>
@@ -2943,7 +2976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
         <v>57</v>
       </c>
@@ -2957,7 +2990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="3" t="s">
         <v>58</v>
       </c>
@@ -2971,7 +3004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="3" t="s">
         <v>59</v>
       </c>
@@ -2985,7 +3018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" s="3" t="s">
         <v>60</v>
       </c>
@@ -2999,7 +3032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" s="3" t="s">
         <v>62</v>
       </c>
@@ -3013,7 +3046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
         <v>63</v>
       </c>
@@ -3027,7 +3060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" s="3" t="s">
         <v>64</v>
       </c>
@@ -3041,7 +3074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" s="3" t="s">
         <v>65</v>
       </c>
@@ -3055,7 +3088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -3069,7 +3102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -3083,7 +3116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" s="3" t="s">
         <v>69</v>
       </c>
@@ -3097,7 +3130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="3" t="s">
         <v>69</v>
       </c>
@@ -3111,7 +3144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
         <v>72</v>
       </c>
@@ -3125,7 +3158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" s="3" t="s">
         <v>74</v>
       </c>
@@ -3139,7 +3172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="3" t="s">
         <v>76</v>
       </c>
@@ -3153,7 +3186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" s="3" t="s">
         <v>78</v>
       </c>
@@ -3167,7 +3200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" s="3" t="s">
         <v>80</v>
       </c>
@@ -3181,7 +3214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" s="3" t="s">
         <v>82</v>
       </c>
@@ -3195,7 +3228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" s="3" t="s">
         <v>83</v>
       </c>
@@ -3209,7 +3242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" s="3" t="s">
         <v>84</v>
       </c>
@@ -3223,7 +3256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" s="3" t="s">
         <v>84</v>
       </c>
@@ -3237,7 +3270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" s="3" t="s">
         <v>86</v>
       </c>
@@ -3251,7 +3284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" s="3" t="s">
         <v>86</v>
       </c>
@@ -3265,7 +3298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" s="3" t="s">
         <v>87</v>
       </c>
@@ -3279,7 +3312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68" s="3" t="s">
         <v>88</v>
       </c>
@@ -3293,7 +3326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" s="3" t="s">
         <v>88</v>
       </c>
@@ -3307,7 +3340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" s="3" t="s">
         <v>91</v>
       </c>
@@ -3321,7 +3354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71" s="3" t="s">
         <v>93</v>
       </c>
@@ -3335,7 +3368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" s="3" t="s">
         <v>94</v>
       </c>
@@ -3349,7 +3382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" s="3" t="s">
         <v>95</v>
       </c>
@@ -3363,7 +3396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74" s="3" t="s">
         <v>96</v>
       </c>
@@ -3377,7 +3410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75" s="3" t="s">
         <v>96</v>
       </c>
@@ -3391,7 +3424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76" s="3" t="s">
         <v>96</v>
       </c>
@@ -3405,7 +3438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4">
       <c r="A77" s="3" t="s">
         <v>96</v>
       </c>
@@ -3419,7 +3452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78" s="3" t="s">
         <v>96</v>
       </c>
@@ -3433,7 +3466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4">
       <c r="A79" s="3" t="s">
         <v>96</v>
       </c>
@@ -3447,7 +3480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80" s="3" t="s">
         <v>102</v>
       </c>
@@ -3461,7 +3494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4">
       <c r="A81" s="3" t="s">
         <v>102</v>
       </c>
@@ -3475,7 +3508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4">
       <c r="A82" s="3" t="s">
         <v>102</v>
       </c>
@@ -3489,7 +3522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4">
       <c r="A83" s="3" t="s">
         <v>102</v>
       </c>
@@ -3503,7 +3536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4">
       <c r="A84" s="3" t="s">
         <v>102</v>
       </c>
@@ -3517,7 +3550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4">
       <c r="A85" s="3" t="s">
         <v>103</v>
       </c>
@@ -3531,7 +3564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4">
       <c r="A86" s="3" t="s">
         <v>103</v>
       </c>
@@ -3545,7 +3578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4">
       <c r="A87" s="3" t="s">
         <v>103</v>
       </c>
@@ -3559,7 +3592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4">
       <c r="A88" s="3" t="s">
         <v>103</v>
       </c>
@@ -3573,7 +3606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4">
       <c r="A89" s="3" t="s">
         <v>103</v>
       </c>
@@ -3587,7 +3620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4">
       <c r="A90" s="3" t="s">
         <v>104</v>
       </c>
@@ -3601,7 +3634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4">
       <c r="A91" s="3" t="s">
         <v>104</v>
       </c>
@@ -3611,9 +3644,11 @@
       <c r="C91" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D91" s="4"/>
-    </row>
-    <row r="92" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D91" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="3" t="s">
         <v>107</v>
       </c>
@@ -3627,7 +3662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4">
       <c r="A93" s="3" t="s">
         <v>109</v>
       </c>
@@ -3641,7 +3676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4">
       <c r="A94" s="3" t="s">
         <v>111</v>
       </c>
@@ -3655,7 +3690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4">
       <c r="A95" s="3" t="s">
         <v>112</v>
       </c>
@@ -3669,7 +3704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4">
       <c r="A96" s="3" t="s">
         <v>113</v>
       </c>
@@ -3683,7 +3718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4">
       <c r="A97" s="3" t="s">
         <v>114</v>
       </c>
@@ -3697,7 +3732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4">
       <c r="A98" s="3" t="s">
         <v>115</v>
       </c>
@@ -3711,7 +3746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4">
       <c r="A99" s="3" t="s">
         <v>116</v>
       </c>
@@ -3725,7 +3760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4">
       <c r="A100" s="3" t="s">
         <v>117</v>
       </c>
@@ -3739,7 +3774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4">
       <c r="A101" s="3" t="s">
         <v>118</v>
       </c>
@@ -3753,7 +3788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4">
       <c r="A102" s="3" t="s">
         <v>118</v>
       </c>
@@ -3767,7 +3802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4">
       <c r="A103" s="3" t="s">
         <v>118</v>
       </c>
@@ -3781,7 +3816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4">
       <c r="A104" s="3" t="s">
         <v>120</v>
       </c>
@@ -3795,7 +3830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4">
       <c r="A105" s="3" t="s">
         <v>120</v>
       </c>
@@ -3809,7 +3844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4">
       <c r="A106" s="3" t="s">
         <v>120</v>
       </c>
@@ -3823,7 +3858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4">
       <c r="A107" s="3" t="s">
         <v>121</v>
       </c>
@@ -3837,7 +3872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4">
       <c r="A108" s="3" t="s">
         <v>121</v>
       </c>
@@ -3851,7 +3886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4">
       <c r="A109" s="3" t="s">
         <v>121</v>
       </c>
@@ -3865,7 +3900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4">
       <c r="A110" s="3" t="s">
         <v>122</v>
       </c>
@@ -3879,7 +3914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4">
       <c r="A111" s="3" t="s">
         <v>122</v>
       </c>
@@ -3893,7 +3928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4">
       <c r="A112" s="3" t="s">
         <v>123</v>
       </c>
@@ -3907,7 +3942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4">
       <c r="A113" s="3" t="s">
         <v>123</v>
       </c>
@@ -3921,7 +3956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4">
       <c r="A114" s="3" t="s">
         <v>124</v>
       </c>
@@ -3935,7 +3970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4">
       <c r="A115" s="3" t="s">
         <v>124</v>
       </c>
@@ -3949,7 +3984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4">
       <c r="A116" s="3" t="s">
         <v>127</v>
       </c>
@@ -3963,7 +3998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4">
       <c r="A117" s="3" t="s">
         <v>129</v>
       </c>
@@ -3977,7 +4012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4">
       <c r="A118" s="3" t="s">
         <v>131</v>
       </c>
@@ -3991,23 +4026,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4">
       <c r="A119" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>5</v>
@@ -4019,7 +4054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4">
       <c r="A121" s="3" t="s">
         <v>135</v>
       </c>
@@ -4027,27 +4062,27 @@
         <v>5</v>
       </c>
       <c r="C121" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D121" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="D122" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4">
       <c r="A123" s="3" t="s">
         <v>137</v>
       </c>
@@ -4055,27 +4090,27 @@
         <v>5</v>
       </c>
       <c r="C123" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D123" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="D124" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4">
       <c r="A125" s="3" t="s">
         <v>139</v>
       </c>
@@ -4083,43 +4118,43 @@
         <v>5</v>
       </c>
       <c r="C125" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D125" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
+      <c r="D126" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C126" s="4" t="s">
+      <c r="B127" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D126" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
+      <c r="D127" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>5</v>
@@ -4131,9 +4166,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4">
       <c r="A129" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>5</v>
@@ -4145,79 +4180,79 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A130" s="5" t="s">
+    <row r="130" spans="1:4">
+      <c r="A130" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B130" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C130" s="4" t="s">
+      <c r="B131" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D130" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+      <c r="D131" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
         <v>150</v>
       </c>
-      <c r="B131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C131" s="4" t="s">
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D131" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+      <c r="D132" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
         <v>152</v>
       </c>
-      <c r="B132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C132" s="4" t="s">
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D132" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+      <c r="D133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
         <v>154</v>
       </c>
-      <c r="B133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C133" s="4" t="s">
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D133" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+      <c r="D134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
         <v>156</v>
-      </c>
-      <c r="B134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D134" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>158</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
@@ -4229,9 +4264,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B136" t="s">
         <v>5</v>
@@ -4243,9 +4278,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
@@ -4257,9 +4292,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
@@ -4271,9 +4306,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
@@ -4285,9 +4320,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B140" t="s">
         <v>5</v>
@@ -4299,9 +4334,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
@@ -4313,9 +4348,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
@@ -4327,9 +4362,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
@@ -4341,9 +4376,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
@@ -4355,9 +4390,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
@@ -4369,37 +4404,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
+        <v>168</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
         <v>169</v>
       </c>
-      <c r="B146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C146" s="4" t="s">
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D146" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+      <c r="D147" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
         <v>111</v>
-      </c>
-      <c r="B147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D147" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>112</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
@@ -4411,9 +4446,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
@@ -4425,9 +4460,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B150" t="s">
         <v>5</v>
@@ -4439,9 +4474,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
@@ -4453,9 +4488,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
@@ -4467,9 +4502,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
@@ -4481,9 +4516,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
@@ -4495,9 +4530,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="B155" t="s">
         <v>5</v>
@@ -4509,9 +4544,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B156" t="s">
         <v>5</v>
@@ -4523,23 +4558,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
+        <v>109</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D157" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
         <v>118</v>
-      </c>
-      <c r="B157" t="s">
-        <v>5</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D157" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>120</v>
       </c>
       <c r="B158" t="s">
         <v>5</v>
@@ -4551,9 +4586,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B159" t="s">
         <v>5</v>
@@ -4565,23 +4600,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
+        <v>121</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D160" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
         <v>122</v>
-      </c>
-      <c r="B160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D160" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>123</v>
       </c>
       <c r="B161" t="s">
         <v>5</v>
@@ -4593,9 +4628,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
@@ -4607,93 +4642,93 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
+        <v>102</v>
+      </c>
+      <c r="B163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D163" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
         <v>174</v>
       </c>
-      <c r="B163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C163" s="4" t="s">
+      <c r="B164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D163" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+      <c r="D164" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
         <v>176</v>
       </c>
-      <c r="B164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C164" s="4" t="s">
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D164" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+      <c r="D165" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
         <v>178</v>
       </c>
-      <c r="B165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C165" s="4" t="s">
+      <c r="B166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D165" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+      <c r="D166" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
         <v>180</v>
       </c>
-      <c r="B166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C166" s="4" t="s">
+      <c r="B167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D166" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
+      <c r="D167" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
         <v>182</v>
       </c>
-      <c r="B167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C167" s="4" t="s">
+      <c r="B168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D167" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
+      <c r="D168" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
         <v>184</v>
-      </c>
-      <c r="B168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D168" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>186</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
@@ -4705,91 +4740,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
+        <v>186</v>
+      </c>
+      <c r="B170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D170" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
         <v>187</v>
       </c>
-      <c r="B170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C170" s="4" t="s">
+      <c r="B171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D170" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+      <c r="D171" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
         <v>188</v>
       </c>
-      <c r="B171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C171" s="4" t="s">
+      <c r="B172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D171" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
+      <c r="D172" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
         <v>190</v>
       </c>
-      <c r="B172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C172" s="4" t="s">
+      <c r="B173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D172" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
+      <c r="D173" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
         <v>192</v>
       </c>
-      <c r="B173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C173" s="4" t="s">
+      <c r="B174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D173" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
+      <c r="D174" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
         <v>194</v>
       </c>
-      <c r="B174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C174" s="4" t="s">
+      <c r="B175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D174" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>196</v>
-      </c>
-      <c r="B175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>197</v>
-      </c>
       <c r="D175" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>196</v>
       </c>
@@ -4797,13 +4832,13 @@
         <v>5</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D176" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>196</v>
       </c>
@@ -4811,27 +4846,27 @@
         <v>5</v>
       </c>
       <c r="C177" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D177" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>196</v>
+      </c>
+      <c r="B178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D177" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>200</v>
-      </c>
-      <c r="B178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>197</v>
-      </c>
       <c r="D178" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>200</v>
       </c>
@@ -4839,13 +4874,13 @@
         <v>5</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D179" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>200</v>
       </c>
@@ -4853,29 +4888,29 @@
         <v>5</v>
       </c>
       <c r="C180" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D180" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>200</v>
+      </c>
+      <c r="B181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D180" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+      <c r="D181" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
         <v>201</v>
-      </c>
-      <c r="B181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D181" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>203</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
@@ -4887,9 +4922,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
@@ -4901,9 +4936,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
@@ -4915,37 +4950,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
+        <v>205</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D185" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
         <v>206</v>
       </c>
-      <c r="B185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C185" s="4" t="s">
+      <c r="B186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D185" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
+      <c r="D186" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
         <v>41</v>
-      </c>
-      <c r="B186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D186" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>43</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
@@ -4957,9 +4992,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
@@ -4971,79 +5006,79 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
+        <v>44</v>
+      </c>
+      <c r="B189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D189" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
         <v>209</v>
       </c>
-      <c r="B189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C189" s="4" t="s">
+      <c r="B190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D189" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
+      <c r="D190" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
         <v>211</v>
       </c>
-      <c r="B190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C190" s="4" t="s">
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D190" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
+      <c r="D191" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
         <v>169</v>
       </c>
-      <c r="B191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C191" s="4" t="s">
+      <c r="B192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D191" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
+      <c r="D192" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
         <v>212</v>
       </c>
-      <c r="B192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C192" s="4" t="s">
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D192" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
+      <c r="D193" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
         <v>214</v>
-      </c>
-      <c r="B193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D193" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>216</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
@@ -5052,6 +5087,118 @@
         <v>215</v>
       </c>
       <c r="D194" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>216</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D195" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>219</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D196" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>221</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D197" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>13</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D198" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>133</v>
+      </c>
+      <c r="B199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D199" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>225</v>
+      </c>
+      <c r="B200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D200" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>227</v>
+      </c>
+      <c r="B201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D201" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>221</v>
+      </c>
+      <c r="B202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D202" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5073,10 +5220,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1023" width="13.33203125" customWidth="1"/>
-    <col min="1024" max="1024" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1023" width="13.28515625" customWidth="1"/>
+    <col min="1024" max="1024" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5089,10 +5236,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1023" width="13.33203125" customWidth="1"/>
-    <col min="1024" max="1024" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1023" width="13.28515625" customWidth="1"/>
+    <col min="1024" max="1024" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/cci/cci-platform-sensor-mapping.xlsx
+++ b/data/cci/cci-platform-sensor-mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amw23\Documents\GitHub\cci-vocabularies\data\cci\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsl11288\DOCUME~1\Moba\slash\RemoteFiles\262446_2_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E0EC28-7E0F-4727-90F1-0A0AFEBD8FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2F088A-9769-4193-994F-31B65C95E3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FD923E19-B480-F145-8CDB-DB01416B5D33}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{FD923E19-B480-F145-8CDB-DB01416B5D33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="231">
   <si>
     <t>Platform URI</t>
   </si>
@@ -712,6 +712,9 @@
   </si>
   <si>
     <t>sens_maestro</t>
+  </si>
+  <si>
+    <t>plat_noaa_20</t>
   </si>
 </sst>
 </file>
@@ -1006,10 +1009,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2EC9E5EA-79EF-D145-B6CF-A73ADCB4EB68}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:AMJ1048563" headerRowCount="0" totalsRowShown="0">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AMJ1048563">
-    <sortCondition ref="A1:A1048563"/>
-    <sortCondition ref="C1:C1048563"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2EC9E5EA-79EF-D145-B6CF-A73ADCB4EB68}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:AMJ1048564" headerRowCount="0" totalsRowShown="0">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AMJ1048564">
+    <sortCondition ref="A1:A1048564"/>
+    <sortCondition ref="C1:C1048564"/>
   </sortState>
   <tableColumns count="1024">
     <tableColumn id="1" xr3:uid="{378642E7-3D01-1F4F-BB98-16762E49D227}" name="Column1"/>
@@ -2358,20 +2361,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D23046F-D1C9-1F4C-9DE5-3EC2595819A2}">
-  <dimension ref="A1:D202"/>
+  <dimension ref="A1:D203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
-    <col min="3" max="3" width="66.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="64" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" customWidth="1"/>
+    <col min="2" max="2" width="36.26953125" customWidth="1"/>
+    <col min="3" max="3" width="66.81640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="36.26953125" customWidth="1"/>
+    <col min="5" max="5" width="27.1796875" customWidth="1"/>
+    <col min="6" max="64" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4644,13 +4647,13 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>102</v>
+        <v>230</v>
       </c>
       <c r="B163" t="s">
         <v>5</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="D163" t="s">
         <v>7</v>
@@ -4658,13 +4661,13 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="D164" t="s">
         <v>7</v>
@@ -4672,13 +4675,13 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D165" t="s">
         <v>7</v>
@@ -4686,13 +4689,13 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B166" t="s">
         <v>5</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D166" t="s">
         <v>7</v>
@@ -4700,13 +4703,13 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B167" t="s">
         <v>5</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D167" t="s">
         <v>7</v>
@@ -4714,13 +4717,13 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B168" t="s">
         <v>5</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D168" t="s">
         <v>7</v>
@@ -4728,13 +4731,13 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D169" t="s">
         <v>7</v>
@@ -4742,7 +4745,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
@@ -4756,13 +4759,13 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D171" t="s">
         <v>7</v>
@@ -4770,13 +4773,13 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="D172" t="s">
         <v>7</v>
@@ -4784,13 +4787,13 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D173" t="s">
         <v>7</v>
@@ -4798,13 +4801,13 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B174" t="s">
         <v>5</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D174" t="s">
         <v>7</v>
@@ -4812,13 +4815,13 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B175" t="s">
         <v>5</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D175" t="s">
         <v>7</v>
@@ -4826,13 +4829,13 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D176" t="s">
         <v>7</v>
@@ -4846,7 +4849,7 @@
         <v>5</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D177" t="s">
         <v>7</v>
@@ -4860,7 +4863,7 @@
         <v>5</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D178" t="s">
         <v>7</v>
@@ -4868,13 +4871,13 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D179" t="s">
         <v>7</v>
@@ -4888,7 +4891,7 @@
         <v>5</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D180" t="s">
         <v>7</v>
@@ -4902,7 +4905,7 @@
         <v>5</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D181" t="s">
         <v>7</v>
@@ -4910,13 +4913,13 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D182" t="s">
         <v>7</v>
@@ -4924,7 +4927,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
@@ -4938,7 +4941,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
@@ -4952,7 +4955,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B185" t="s">
         <v>5</v>
@@ -4966,13 +4969,13 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B186" t="s">
         <v>5</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D186" t="s">
         <v>7</v>
@@ -4980,13 +4983,13 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D187" t="s">
         <v>7</v>
@@ -4994,7 +4997,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B189" t="s">
         <v>5</v>
@@ -5022,13 +5025,13 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>209</v>
+        <v>44</v>
       </c>
       <c r="B190" t="s">
         <v>5</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D190" t="s">
         <v>7</v>
@@ -5036,13 +5039,13 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B191" t="s">
         <v>5</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D191" t="s">
         <v>7</v>
@@ -5050,13 +5053,13 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D192" t="s">
         <v>7</v>
@@ -5064,13 +5067,13 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="B193" t="s">
         <v>5</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D193" t="s">
         <v>7</v>
@@ -5078,13 +5081,13 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D194" t="s">
         <v>7</v>
@@ -5092,7 +5095,7 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
@@ -5106,13 +5109,13 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B196" t="s">
         <v>5</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D196" t="s">
         <v>7</v>
@@ -5120,13 +5123,13 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D197" t="s">
         <v>7</v>
@@ -5134,13 +5137,13 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D198" t="s">
         <v>7</v>
@@ -5148,13 +5151,13 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D199" t="s">
         <v>7</v>
@@ -5162,13 +5165,13 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>225</v>
+        <v>133</v>
       </c>
       <c r="B200" t="s">
         <v>5</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D200" t="s">
         <v>7</v>
@@ -5176,7 +5179,7 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B201" t="s">
         <v>5</v>
@@ -5190,15 +5193,29 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
+        <v>227</v>
+      </c>
+      <c r="B202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D202" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
         <v>221</v>
       </c>
-      <c r="B202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C202" s="4" t="s">
+      <c r="B203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D203" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5220,10 +5237,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1023" width="13.28515625" customWidth="1"/>
-    <col min="1024" max="1024" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1023" width="13.26953125" customWidth="1"/>
+    <col min="1024" max="1024" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5236,10 +5253,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1023" width="13.28515625" customWidth="1"/>
-    <col min="1024" max="1024" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1023" width="13.26953125" customWidth="1"/>
+    <col min="1024" max="1024" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/cci/cci-platform-sensor-mapping.xlsx
+++ b/data/cci/cci-platform-sensor-mapping.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsl11288\DOCUME~1\Moba\slash\RemoteFiles\262446_2_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stfc365-my.sharepoint.com/personal/alison_waterfall_stfc_ac_uk/Documents/Documents/GitHub/cci-vocabularies/data/cci/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2F088A-9769-4193-994F-31B65C95E3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{8B2F088A-9769-4193-994F-31B65C95E3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9666F9D4-58BB-4BBA-AD2C-E382D7D9F66B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{FD923E19-B480-F145-8CDB-DB01416B5D33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FD923E19-B480-F145-8CDB-DB01416B5D33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="232">
   <si>
     <t>Platform URI</t>
   </si>
@@ -715,6 +715,9 @@
   </si>
   <si>
     <t>plat_noaa_20</t>
+  </si>
+  <si>
+    <t>sens_mopitt</t>
   </si>
 </sst>
 </file>
@@ -2361,20 +2364,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D23046F-D1C9-1F4C-9DE5-3EC2595819A2}">
-  <dimension ref="A1:D203"/>
+  <dimension ref="A1:D204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="B161" sqref="B161"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="D204" sqref="D204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" customWidth="1"/>
-    <col min="2" max="2" width="36.26953125" customWidth="1"/>
-    <col min="3" max="3" width="66.81640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.26953125" customWidth="1"/>
-    <col min="5" max="5" width="27.1796875" customWidth="1"/>
-    <col min="6" max="64" width="13.26953125" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="66.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="6" max="64" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5216,6 +5219,20 @@
         <v>228</v>
       </c>
       <c r="D203" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>137</v>
+      </c>
+      <c r="B204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D204" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5237,10 +5254,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1023" width="13.26953125" customWidth="1"/>
-    <col min="1024" max="1024" width="10.7265625" customWidth="1"/>
+    <col min="1" max="1023" width="13.28515625" customWidth="1"/>
+    <col min="1024" max="1024" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5253,10 +5270,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1023" width="13.26953125" customWidth="1"/>
-    <col min="1024" max="1024" width="10.7265625" customWidth="1"/>
+    <col min="1" max="1023" width="13.28515625" customWidth="1"/>
+    <col min="1024" max="1024" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
